--- a/organ_measure.xlsx
+++ b/organ_measure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/435577af404d2ec7/2023/BME_M2/STAGE/Thesis/Scripts_and_venv/internship_M2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53715E4E-AB15-40B8-BF53-97776E5499CD}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="180" windowWidth="17628" windowHeight="10164" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
+    <workbookView xWindow="51105" yWindow="2985" windowWidth="17625" windowHeight="10170" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="26">
   <si>
     <t>t1</t>
   </si>
@@ -120,13 +120,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD6DEEB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -161,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,18 +508,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1426DD-ABA7-4F24-B0C3-92136F16B0F8}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -547,7 +554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -560,31 +567,31 @@
       <c r="D2">
         <v>-549</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
+      <c r="E2" s="3">
+        <v>-364.89473700000002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-479.78947399999998</v>
       </c>
       <c r="G2">
         <v>-365</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
+      <c r="H2" s="3">
+        <v>-604.89473699999996</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-305.90476200000001</v>
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(B2:I2)</f>
-        <v>-527.5</v>
+        <v>-483.18546375000005</v>
       </c>
       <c r="K2" s="2">
         <f>_xlfn.STDEV.S(B2:I2)</f>
-        <v>155.69307413412238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>141.83588891071605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -621,7 +628,7 @@
         <v>147.05424030408938</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +665,7 @@
         <v>99.78479922279061</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -695,7 +702,7 @@
         <v>121.19404848679484</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -732,7 +739,7 @@
         <v>126.71350468343864</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -761,7 +768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -774,31 +781,31 @@
       <c r="D9">
         <v>0.218</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
+      <c r="E9" s="3">
+        <v>0.37052600000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.86421099999999995</v>
       </c>
       <c r="G9">
         <v>1.65</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
+      <c r="H9" s="3">
+        <v>0.148421</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.9</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0.87424999999999997</v>
+        <v>0.84751975000000002</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>0.7212980775426111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.69569350284626053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -835,7 +842,7 @@
         <v>6.9070888418798881E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -872,7 +879,7 @@
         <v>0.12612412359326747</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -909,7 +916,7 @@
         <v>0.17406688504972495</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -946,7 +953,7 @@
         <v>8.4020108176697431E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -975,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -988,31 +995,31 @@
       <c r="D16">
         <v>-533</v>
       </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
+      <c r="E16" s="3">
+        <v>-585.684211</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-422.57894700000003</v>
       </c>
       <c r="G16">
         <v>-363</v>
       </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
+      <c r="H16" s="3">
+        <v>-652.95000000000005</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-122.38888900000001</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>-501.25</v>
+        <v>-473.57525587499993</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>149.41748001265893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>185.44021766611883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>107.27130632607769</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1093,7 @@
         <v>97.26586631739022</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>120.08366593132945</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1167,7 @@
         <v>131.13826278536825</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1202,31 +1209,31 @@
       <c r="D23">
         <v>0.24</v>
       </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
+      <c r="E23" s="3">
+        <v>0.24315800000000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.6926319999999999</v>
       </c>
       <c r="G23">
         <v>1.3640000000000001</v>
       </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>25</v>
+      <c r="H23" s="3">
+        <v>0.223</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.605556</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>0.85349999999999993</v>
+        <v>1.0222932499999999</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>0.87184612556727392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.97073669061620416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>0.14123019797784675</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1307,7 @@
         <v>0.2289764137084197</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1344,7 @@
         <v>0.16422190789907903</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>0.10423140845223425</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>7.846929665214387</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>12.877112382202139</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>11.143914873042663</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1551,7 +1558,7 @@
         <v>10.394156884187829</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>11.947662893218027</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1698,7 @@
         <v>0.16002420670252476</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>0.16597694067644486</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1772,7 @@
         <v>0.12529681123033415</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>6.2815978204550121E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>52.277931700260893</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1912,7 @@
         <v>19.891217720116551</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v>14.46367949665297</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1979,7 +1986,7 @@
         <v>18.28916973848818</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2016,7 +2023,7 @@
         <v>9.6064243915701528</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2045,7 +2052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2089,7 @@
         <v>0.86876051894967832</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2126,7 @@
         <v>0.26804918133575506</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>0.17600373020975152</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2200,7 @@
         <v>0.23628504993832028</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2237,7 @@
         <v>7.0839551086116309E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2259,7 +2266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2303,7 @@
         <v>45.943871035365376</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>23.966084034790054</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2370,7 +2377,7 @@
         <v>16.954233345234062</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2414,7 @@
         <v>21.02401168179339</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2451,7 @@
         <v>16.65508335407289</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2517,7 @@
         <v>0.63442093957515977</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -2547,7 +2554,7 @@
         <v>0.31193884442997022</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>0.18537657279959588</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -2621,7 +2628,7 @@
         <v>9.4274716271128059E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>4</v>
       </c>

--- a/organ_measure.xlsx
+++ b/organ_measure.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/435577af404d2ec7/2023/BME_M2/STAGE/Thesis/Scripts_and_venv/internship_M2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53715E4E-AB15-40B8-BF53-97776E5499CD}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD35364-168D-4A79-9A41-6446B6721DE6}"/>
   <bookViews>
-    <workbookView xWindow="51105" yWindow="2985" windowWidth="17625" windowHeight="10170" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vessels" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="75">
   <si>
     <t>t1</t>
   </si>
@@ -114,6 +116,153 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>meanAA</t>
+  </si>
+  <si>
+    <t>stdAA</t>
+  </si>
+  <si>
+    <t>minAA</t>
+  </si>
+  <si>
+    <t>maxAA</t>
+  </si>
+  <si>
+    <t>slices</t>
+  </si>
+  <si>
+    <t>minIVC</t>
+  </si>
+  <si>
+    <t>maxIVC</t>
+  </si>
+  <si>
+    <t>slicesIVC</t>
+  </si>
+  <si>
+    <t>slicesAA</t>
+  </si>
+  <si>
+    <t>meanIVC</t>
+  </si>
+  <si>
+    <t>stdIVC</t>
+  </si>
+  <si>
+    <t>Signals</t>
+  </si>
+  <si>
+    <t>Mean HU</t>
+  </si>
+  <si>
+    <t>Signal_HU</t>
+  </si>
+  <si>
+    <t>Noise_HU</t>
+  </si>
+  <si>
+    <t>CNR_HU</t>
+  </si>
+  <si>
+    <t>std_HU</t>
+  </si>
+  <si>
+    <t>std_Noise</t>
+  </si>
+  <si>
+    <t>IVC</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>AGUIX</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>dotarem</t>
   </si>
 </sst>
 </file>
@@ -135,7 +284,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +303,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,11 +340,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,6 +364,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,20 +687,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1426DD-ABA7-4F24-B0C3-92136F16B0F8}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="1"/>
-    <col min="11" max="11" width="8.77734375" style="2"/>
+    <col min="12" max="12" width="8.77734375" style="1"/>
+    <col min="13" max="13" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -545,16 +726,19 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -567,31 +751,37 @@
       <c r="D2">
         <v>-549</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>-364.89473700000002</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>-479.78947399999998</v>
       </c>
       <c r="G2">
         <v>-365</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>-604.89473699999996</v>
       </c>
       <c r="I2" s="3">
+        <v>-572.05263200000002</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-622.47368400000005</v>
+      </c>
+      <c r="K2">
         <v>-305.90476200000001</v>
       </c>
-      <c r="J2" s="1">
-        <f>AVERAGE(B2:I2)</f>
-        <v>-483.18546375000005</v>
-      </c>
-      <c r="K2" s="2">
-        <f>_xlfn.STDEV.S(B2:I2)</f>
-        <v>141.83588891071605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1">
+        <f>AVERAGE(B2:K2)</f>
+        <v>-506.00100259999999</v>
+      </c>
+      <c r="M2" s="2">
+        <f>_xlfn.STDEV.S(B2:K2)</f>
+        <v>134.54244660439929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -616,19 +806,25 @@
       <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J66" si="0">AVERAGE(B3:I3)</f>
-        <v>-497.69605263157871</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="1">_xlfn.STDEV.S(B3:I3)</f>
-        <v>147.05424030408938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3">
+        <v>-412.47368421052602</v>
+      </c>
+      <c r="J3">
+        <v>-318.15789473684202</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L66" si="0">AVERAGE(B3:K3)</f>
+        <v>-453.56929824561388</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M66" si="1">_xlfn.STDEV.S(B3:K3)</f>
+        <v>136.15331672635199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -653,19 +849,25 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>-421.91907894736801</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>99.78479922279061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4">
+        <v>-504.36842105263099</v>
+      </c>
+      <c r="J4">
+        <v>-528.42105263157896</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>-453.41096491228035</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>91.718209304650856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -690,19 +892,25 @@
       <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>-418.33223684210503</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="1"/>
-        <v>121.19404848679484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5">
+        <v>-412.78947368421001</v>
+      </c>
+      <c r="J5">
+        <v>-339.47368421052602</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>-404.26535087719276</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>99.122269977973559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -730,16 +938,22 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>-521.73026315789423</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
         <v>126.71350468343864</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -764,11 +978,14 @@
       <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -781,31 +998,37 @@
       <c r="D9">
         <v>0.218</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>0.37052600000000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>0.86421099999999995</v>
       </c>
       <c r="G9">
         <v>1.65</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>0.148421</v>
       </c>
       <c r="I9" s="3">
+        <v>0.21473700000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.395789</v>
+      </c>
+      <c r="K9">
         <v>1.9</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.84751975000000002</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.69569350284626053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73906840000000007</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65614902400652164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -830,19 +1053,25 @@
       <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33550000000000024</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="1"/>
-        <v>6.9070888418798881E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10">
+        <v>0.19894736842105301</v>
+      </c>
+      <c r="J10">
+        <v>0.35894736842105301</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31664912280701785</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>7.9216954917776555E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -867,19 +1096,25 @@
       <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35421052631578953</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12612412359326747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11">
+        <v>0.388421052631579</v>
+      </c>
+      <c r="J11">
+        <v>0.19157894736842099</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33280701754385972</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12049283224468281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -904,19 +1139,25 @@
       <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32590789473684223</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17406688504972495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12">
+        <v>0.39368421052631603</v>
+      </c>
+      <c r="J12">
+        <v>0.30421052631578899</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33358771929824566</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13828113968243994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -944,16 +1185,22 @@
       <c r="I13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>0.16771052631578975</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>8.4020108176697431E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -978,11 +1225,14 @@
       <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -995,31 +1245,37 @@
       <c r="D16">
         <v>-533</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>-585.684211</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>-422.57894700000003</v>
       </c>
       <c r="G16">
         <v>-363</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>-652.95000000000005</v>
       </c>
       <c r="I16" s="3">
+        <v>-552.14285700000005</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-445.42857099999998</v>
+      </c>
+      <c r="K16">
         <v>-122.38888900000001</v>
       </c>
-      <c r="J16" s="1">
-        <f t="shared" si="0"/>
-        <v>-473.57525587499993</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="1"/>
-        <v>185.44021766611883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>-478.61734749999994</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>165.80691489160353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1044,19 +1300,25 @@
       <c r="H17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="0"/>
-        <v>-521.27083333333303</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="1"/>
-        <v>107.27130632607769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17">
+        <v>-338.84210526315701</v>
+      </c>
+      <c r="J17">
+        <v>-433.26315789473603</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>-476.19809941520424</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>112.56792010780909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1081,19 +1343,25 @@
       <c r="H18" t="s">
         <v>25</v>
       </c>
-      <c r="I18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="0"/>
-        <v>-470.50297619047575</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="1"/>
-        <v>97.26586631739022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18">
+        <v>-480.26315789473603</v>
+      </c>
+      <c r="J18">
+        <v>-462.15789473684202</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>-470.73882623224682</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>75.559928575048275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1118,19 +1386,25 @@
       <c r="H19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="0"/>
-        <v>-456.14642857142826</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="1"/>
-        <v>120.08366593132945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19">
+        <v>-349.78947368421001</v>
+      </c>
+      <c r="J19">
+        <v>-439.57894736842098</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>-435.65902255639065</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>102.30165289521513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1158,16 +1432,22 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="0"/>
         <v>-420.36071428571375</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
         <f t="shared" si="1"/>
         <v>131.13826278536825</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1193,10 +1473,16 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1209,31 +1495,37 @@
       <c r="D23">
         <v>0.24</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>0.24315800000000001</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>1.6926319999999999</v>
       </c>
       <c r="G23">
         <v>1.3640000000000001</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
         <v>0.223</v>
       </c>
       <c r="I23" s="3">
+        <v>0.126667</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.39238099999999998</v>
+      </c>
+      <c r="K23">
         <v>2.605556</v>
       </c>
-      <c r="J23" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0222932499999999</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.97073669061620416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86973939999999994</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.916667703541862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1258,19 +1550,25 @@
       <c r="H24" t="s">
         <v>25</v>
       </c>
-      <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.46544047619047624</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14123019797784675</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24">
+        <v>0.42421052631578898</v>
+      </c>
+      <c r="J24">
+        <v>0.229473684210526</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41924101921470336</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14450730306626408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1295,19 +1593,25 @@
       <c r="H25" t="s">
         <v>25</v>
       </c>
-      <c r="I25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35219047619047661</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2289764137084197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25">
+        <v>9.4736842105263702E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.24842105263157899</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29198663324979152</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20620089468514763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1332,19 +1636,25 @@
       <c r="H26" t="s">
         <v>25</v>
       </c>
-      <c r="I26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.28113095238095248</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16422190789907903</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I26">
+        <v>0.13578947368421099</v>
+      </c>
+      <c r="J26">
+        <v>0.25473684210526298</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25250835421888063</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13986549312518567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1369,19 +1679,19 @@
       <c r="H27" t="s">
         <v>25</v>
       </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="0"/>
         <v>0.29196428571428573</v>
       </c>
-      <c r="K27" s="2">
+      <c r="M27" s="2">
         <f t="shared" si="1"/>
         <v>0.10423140845223425</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1406,11 +1716,14 @@
       <c r="H29" t="s">
         <v>21</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1435,19 +1748,25 @@
       <c r="H30" t="s">
         <v>25</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
+        <v>85.285713999999999</v>
+      </c>
+      <c r="J30">
+        <v>75.333332999999996</v>
+      </c>
+      <c r="K30">
         <v>78</v>
       </c>
-      <c r="J30" s="1">
-        <f t="shared" si="0"/>
-        <v>74.581578947368399</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="1"/>
-        <v>7.846929665214387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>75.854455514619886</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="1"/>
+        <v>7.6649163368430901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1473,18 +1792,24 @@
         <v>25</v>
       </c>
       <c r="I31">
+        <v>97.631578947368396</v>
+      </c>
+      <c r="J31">
+        <v>125.428571428571</v>
+      </c>
+      <c r="K31">
         <v>91.5263157894736</v>
       </c>
-      <c r="J31" s="1">
-        <f t="shared" si="0"/>
-        <v>98.520551378445916</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="1"/>
-        <v>12.877112382202139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>101.4115566694512</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>14.33758500624643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1510,18 +1835,24 @@
         <v>25</v>
       </c>
       <c r="I32">
+        <v>114.631578947368</v>
+      </c>
+      <c r="J32">
+        <v>115.904761904761</v>
+      </c>
+      <c r="K32">
         <v>102.894736842105</v>
       </c>
-      <c r="J32" s="1">
-        <f t="shared" si="0"/>
-        <v>94.44147869674164</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="1"/>
-        <v>11.143914873042663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>99.06963241436894</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="1"/>
+        <v>13.325987040730949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1547,18 +1878,24 @@
         <v>25</v>
       </c>
       <c r="I33">
+        <v>100.947368421052</v>
+      </c>
+      <c r="J33">
+        <v>107.19047619047601</v>
+      </c>
+      <c r="K33">
         <v>89.5263157894736</v>
       </c>
-      <c r="J33" s="1">
-        <f t="shared" si="0"/>
-        <v>90.801539563193657</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="1"/>
-        <v>10.394156884187829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>93.749846839320412</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="1"/>
+        <v>10.848579566206574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1583,19 +1920,25 @@
       <c r="H34" t="s">
         <v>25</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34">
         <v>83.842105263157805</v>
       </c>
-      <c r="J34" s="1">
+      <c r="L34" s="1">
         <f t="shared" si="0"/>
         <v>79.631471535982769</v>
       </c>
-      <c r="K34" s="2">
+      <c r="M34" s="2">
         <f t="shared" si="1"/>
         <v>11.947662893218027</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1620,11 +1963,14 @@
       <c r="H36" t="s">
         <v>21</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1652,16 +1998,22 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" s="1">
-        <f t="shared" si="0"/>
+      <c r="J37">
+        <v>8.5710000000000005E-3</v>
+      </c>
+      <c r="K37">
         <v>0</v>
       </c>
-      <c r="K37" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5233333333333335E-4</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8570000000000002E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1687,18 +2039,24 @@
         <v>25</v>
       </c>
       <c r="I38">
+        <v>0.68526315789473602</v>
+      </c>
+      <c r="J38">
+        <v>0.78952380952380996</v>
+      </c>
+      <c r="K38">
         <v>0.20631578947368301</v>
       </c>
-      <c r="J38" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32895345506623691</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16002420670252476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41971790587580049</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22874234040254965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1724,18 +2082,24 @@
         <v>25</v>
       </c>
       <c r="I39">
+        <v>0.63578947368421102</v>
+      </c>
+      <c r="J39">
+        <v>0.64761904761904798</v>
+      </c>
+      <c r="K39">
         <v>0.15157894736842101</v>
       </c>
-      <c r="J39" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30053276047261013</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16597694067644486</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3763486494012811</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20809360344866948</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1761,18 +2125,24 @@
         <v>25</v>
       </c>
       <c r="I40">
+        <v>0.46526315789473699</v>
+      </c>
+      <c r="J40">
+        <v>0.40285714285714302</v>
+      </c>
+      <c r="K40">
         <v>2.31578947368416E-2</v>
       </c>
-      <c r="J40" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20314393125671362</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12529681123033415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25445864661654166</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14961985211523227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1797,19 +2167,25 @@
       <c r="H41" t="s">
         <v>25</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41">
         <v>0</v>
       </c>
-      <c r="J41" s="1">
+      <c r="L41" s="1">
         <f t="shared" si="0"/>
         <v>5.0097744360902342E-2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="M41" s="2">
         <f t="shared" si="1"/>
         <v>6.2815978204550121E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1834,11 +2210,14 @@
       <c r="H43" t="s">
         <v>21</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1863,19 +2242,25 @@
       <c r="H44">
         <v>152</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
+        <v>157.90476200000001</v>
+      </c>
+      <c r="J44">
+        <v>173.6</v>
+      </c>
+      <c r="K44">
         <v>92</v>
       </c>
-      <c r="J44" s="1">
-        <f t="shared" si="0"/>
-        <v>151.125</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="1"/>
-        <v>52.277931700260893</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="1">
+        <f t="shared" si="0"/>
+        <v>154.05047619999999</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="1"/>
+        <v>46.662358953335008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1901,18 +2286,24 @@
         <v>104.15</v>
       </c>
       <c r="I45">
+        <v>126</v>
+      </c>
+      <c r="J45">
+        <v>125.6</v>
+      </c>
+      <c r="K45">
         <v>109.238095238095</v>
       </c>
-      <c r="J45" s="1">
-        <f t="shared" si="0"/>
-        <v>125.44362468671662</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" si="1"/>
-        <v>19.891217720116551</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="1">
+        <f t="shared" si="0"/>
+        <v>125.51489974937328</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="1"/>
+        <v>17.543301989033417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1938,18 +2329,24 @@
         <v>95.15</v>
       </c>
       <c r="I46">
+        <v>100.571428571428</v>
+      </c>
+      <c r="J46">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="K46">
         <v>90.238095238095198</v>
       </c>
-      <c r="J46" s="1">
-        <f t="shared" si="0"/>
-        <v>106.84119152046755</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="1"/>
-        <v>14.46367949665297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>108.45009607351683</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="1"/>
+        <v>14.82387967483789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1975,18 +2372,24 @@
         <v>70.45</v>
       </c>
       <c r="I47">
+        <v>86.476190476190396</v>
+      </c>
+      <c r="J47">
+        <v>113.4</v>
+      </c>
+      <c r="K47">
         <v>73.238095238095198</v>
       </c>
-      <c r="J47" s="1">
-        <f t="shared" si="0"/>
-        <v>86.172979323308169</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="1"/>
-        <v>18.28916973848818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>88.926002506265576</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="1"/>
+        <v>18.278911144132611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2011,19 +2414,25 @@
       <c r="H48">
         <v>74.95</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48">
         <v>72.952380952380906</v>
       </c>
-      <c r="J48" s="1">
+      <c r="L48" s="1">
         <f t="shared" si="0"/>
         <v>80.529782790309071</v>
       </c>
-      <c r="K48" s="2">
+      <c r="M48" s="2">
         <f t="shared" si="1"/>
         <v>9.6064243915701528</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2048,11 +2457,14 @@
       <c r="H50" t="s">
         <v>21</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2077,19 +2489,25 @@
       <c r="H51">
         <v>1.2589999999999999</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
+        <v>1.465714</v>
+      </c>
+      <c r="J51">
+        <v>1.571</v>
+      </c>
+      <c r="K51">
         <v>0.27</v>
       </c>
-      <c r="J51" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1496249999999999</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="1"/>
-        <v>0.86876051894967832</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2233714</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78218339043250518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2115,18 +2533,24 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="I52">
+        <v>0.65238095238095195</v>
+      </c>
+      <c r="J52">
+        <v>0.68099999999999905</v>
+      </c>
+      <c r="K52">
         <v>0.45714285714285702</v>
       </c>
-      <c r="J52" s="1">
-        <f t="shared" si="0"/>
-        <v>0.60444019065821197</v>
-      </c>
-      <c r="K52" s="2">
-        <f t="shared" si="1"/>
-        <v>0.26804918133575506</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61689024776466472</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23794542491103751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2152,18 +2576,24 @@
         <v>0.25</v>
       </c>
       <c r="I53">
+        <v>0.55333333333333401</v>
+      </c>
+      <c r="J53">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="K53">
         <v>0.16285714285714201</v>
       </c>
-      <c r="J53" s="1">
-        <f t="shared" si="0"/>
-        <v>0.40662968865962174</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17600373020975152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45423708426103077</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18979032627488532</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2189,18 +2619,24 @@
         <v>2.4000000000000101E-2</v>
       </c>
       <c r="I54">
+        <v>0.32666666666666599</v>
+      </c>
+      <c r="J54">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="K54">
         <v>0.11333333333333399</v>
       </c>
-      <c r="J54" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23896857663252086</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="1"/>
-        <v>0.23628504993832028</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25444152797268332</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21097772874906814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2225,19 +2661,25 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55">
         <v>0.11714285714285801</v>
       </c>
-      <c r="J55" s="1">
+      <c r="L55" s="1">
         <f t="shared" si="0"/>
         <v>6.0972065430118114E-2</v>
       </c>
-      <c r="K55" s="2">
+      <c r="M55" s="2">
         <f t="shared" si="1"/>
         <v>7.0839551086116309E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2262,11 +2704,14 @@
       <c r="H57" t="s">
         <v>21</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2291,19 +2736,25 @@
       <c r="H58">
         <v>174</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
+        <v>147</v>
+      </c>
+      <c r="J58">
+        <v>158.83333300000001</v>
+      </c>
+      <c r="K58">
         <v>84</v>
       </c>
-      <c r="J58" s="1">
-        <f t="shared" si="0"/>
-        <v>131.375</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="1"/>
-        <v>45.943871035365376</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="1">
+        <f t="shared" si="0"/>
+        <v>135.68333330000002</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="1"/>
+        <v>41.617782414491984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -2329,18 +2780,24 @@
         <v>145.947368421052</v>
       </c>
       <c r="I59">
+        <v>129.894736842105</v>
+      </c>
+      <c r="J59">
+        <v>133.105263157894</v>
+      </c>
+      <c r="K59">
         <v>115.578947368421</v>
       </c>
-      <c r="J59" s="1">
-        <f t="shared" si="0"/>
-        <v>133.16391499582264</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="1"/>
-        <v>23.966084034790054</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="1">
+        <f t="shared" si="0"/>
+        <v>132.83113199665803</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="1"/>
+        <v>21.161274400637886</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2366,18 +2823,24 @@
         <v>125.631578947368</v>
       </c>
       <c r="I60">
+        <v>103.578947368421</v>
+      </c>
+      <c r="J60">
+        <v>112.578947368421</v>
+      </c>
+      <c r="K60">
         <v>100.78947368420999</v>
       </c>
-      <c r="J60" s="1">
-        <f t="shared" si="0"/>
-        <v>110.90938283207986</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="1"/>
-        <v>16.954233345234062</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="1">
+        <f t="shared" si="0"/>
+        <v>110.34329573934811</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="1"/>
+        <v>15.149038774547769</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -2403,18 +2866,24 @@
         <v>104.052631578947</v>
       </c>
       <c r="I61">
+        <v>78</v>
+      </c>
+      <c r="J61">
+        <v>91.631578947368396</v>
+      </c>
+      <c r="K61">
         <v>80</v>
       </c>
-      <c r="J61" s="1">
-        <f t="shared" si="0"/>
-        <v>94.095577485379863</v>
-      </c>
-      <c r="K61" s="2">
-        <f t="shared" si="1"/>
-        <v>21.02401168179339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="1">
+        <f t="shared" si="0"/>
+        <v>92.239619883040731</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="1"/>
+        <v>19.220234093671145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2439,19 +2908,22 @@
       <c r="H62">
         <v>85.789473684210506</v>
       </c>
-      <c r="I62">
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62">
         <v>82.684210526315795</v>
       </c>
-      <c r="J62" s="1">
+      <c r="L62" s="1">
         <f t="shared" si="0"/>
         <v>82.384941520467819</v>
       </c>
-      <c r="K62" s="2">
+      <c r="M62" s="2">
         <f t="shared" si="1"/>
         <v>16.65508335407289</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2476,11 +2948,14 @@
       <c r="H64" t="s">
         <v>21</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2505,19 +2980,25 @@
       <c r="H65">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
+        <v>1.237895</v>
+      </c>
+      <c r="J65">
+        <v>1.25</v>
+      </c>
+      <c r="K65">
         <v>0.33500000000000002</v>
       </c>
-      <c r="J65" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92275000000000007</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63442093957515977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98698950000000019</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" si="1"/>
+        <v>0.57567074886822223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -2543,18 +3024,24 @@
         <v>0.78631578947368497</v>
       </c>
       <c r="I66">
+        <v>0.64210526315789496</v>
+      </c>
+      <c r="J66">
+        <v>0.75052631578947404</v>
+      </c>
+      <c r="K66">
         <v>0.31052631578947398</v>
       </c>
-      <c r="J66" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66902506265664174</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="1"/>
-        <v>0.31193884442997022</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67448320802005035</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27652810084436646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2580,18 +3067,24 @@
         <v>0.56631578947368599</v>
       </c>
       <c r="I67">
+        <v>0.55473684210526297</v>
+      </c>
+      <c r="J67">
+        <v>0.36526315789473601</v>
+      </c>
+      <c r="K67">
         <v>0.341052631578947</v>
       </c>
-      <c r="J67" s="1">
-        <f t="shared" ref="J67:J69" si="2">AVERAGE(B67:I67)</f>
-        <v>0.43689609440267363</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" ref="K67:K69" si="3">_xlfn.STDEV.S(B67:I67)</f>
-        <v>0.18537657279959588</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="1">
+        <f t="shared" ref="L67:L69" si="2">AVERAGE(B67:K67)</f>
+        <v>0.44151687552213881</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" ref="M67:M69" si="3">_xlfn.STDEV.S(B67:K67)</f>
+        <v>0.16975653135226823</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -2617,18 +3110,24 @@
         <v>0.20631578947368301</v>
       </c>
       <c r="I68">
+        <v>0.17999999999999899</v>
+      </c>
+      <c r="J68">
+        <v>0.112631578947369</v>
+      </c>
+      <c r="K68">
         <v>0.168421052631578</v>
       </c>
-      <c r="J68" s="1">
+      <c r="L68" s="1">
         <f t="shared" si="2"/>
-        <v>0.18881516290726771</v>
-      </c>
-      <c r="K68" s="2">
+        <v>0.18031528822055098</v>
+      </c>
+      <c r="M68" s="2">
         <f t="shared" si="3"/>
-        <v>9.4274716271128059E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>8.6521173876796462E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2653,18 +3152,2975 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69">
         <v>0.106315789473685</v>
       </c>
-      <c r="J69" s="1">
+      <c r="L69" s="1">
         <f t="shared" si="2"/>
         <v>9.2470029239766799E-2</v>
       </c>
-      <c r="K69" s="2">
+      <c r="M69" s="2">
         <f t="shared" si="3"/>
         <v>8.9290013562722606E-2</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904A4A20-8300-4371-A209-1316D753CCC8}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>5.7470243231336902</v>
+      </c>
+      <c r="C2">
+        <v>1.32167736098285</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>8.2462112512353194</v>
+      </c>
+      <c r="F2">
+        <v>209</v>
+      </c>
+      <c r="G2">
+        <v>8.6597264173357793</v>
+      </c>
+      <c r="H2">
+        <v>2.9202152138866899</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>16.124515496597098</v>
+      </c>
+      <c r="K2">
+        <v>216</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>6.85</v>
+      </c>
+      <c r="C3">
+        <v>1.4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>209</v>
+      </c>
+      <c r="G3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H3">
+        <v>2.21</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>209</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>8.1</v>
+      </c>
+      <c r="C4">
+        <v>1.58</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>240</v>
+      </c>
+      <c r="G4">
+        <v>8.61</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>15.6</v>
+      </c>
+      <c r="K4">
+        <v>240</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>88.76</v>
+      </c>
+      <c r="Q4">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>7.5904239861774601</v>
+      </c>
+      <c r="C9">
+        <v>1.5195093570420299</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>11.313708498984701</v>
+      </c>
+      <c r="F9">
+        <v>209</v>
+      </c>
+      <c r="G9">
+        <v>7.5205675391545901</v>
+      </c>
+      <c r="H9">
+        <v>2.6936738302602699</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>17.088007490635</v>
+      </c>
+      <c r="K9">
+        <v>216</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>7.13</v>
+      </c>
+      <c r="C10">
+        <v>1.29</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>10.3</v>
+      </c>
+      <c r="F10">
+        <v>210</v>
+      </c>
+      <c r="G10">
+        <v>8.4</v>
+      </c>
+      <c r="H10">
+        <v>1.34</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>209</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>7.27</v>
+      </c>
+      <c r="C11">
+        <v>1.77</v>
+      </c>
+      <c r="D11">
+        <v>5.6</v>
+      </c>
+      <c r="E11">
+        <v>12.1</v>
+      </c>
+      <c r="F11">
+        <v>240</v>
+      </c>
+      <c r="G11">
+        <v>12.86</v>
+      </c>
+      <c r="H11">
+        <v>7.74</v>
+      </c>
+      <c r="I11">
+        <v>1.4</v>
+      </c>
+      <c r="J11">
+        <v>12.8</v>
+      </c>
+      <c r="K11">
+        <v>240</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11">
+        <v>72.8</v>
+      </c>
+      <c r="Q11">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDB5C43-A793-4767-A44B-0E4A316AA30A}">
+  <dimension ref="A2:AS31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ24" sqref="AQ24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:45" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>56.750820040000001</v>
+      </c>
+      <c r="C4">
+        <v>22.859277129999999</v>
+      </c>
+      <c r="D4">
+        <v>59.941148179999999</v>
+      </c>
+      <c r="E4">
+        <v>54.753181400000003</v>
+      </c>
+      <c r="F4">
+        <v>-5.8267447999999999E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7">
+        <v>50.157833699999998</v>
+      </c>
+      <c r="J4" s="7">
+        <v>38.161719679999997</v>
+      </c>
+      <c r="K4" s="7">
+        <v>62.455471250000002</v>
+      </c>
+      <c r="L4" s="7">
+        <v>84.585820699999999</v>
+      </c>
+      <c r="M4" s="7">
+        <v>-0.14538651299999999</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="4">
+        <v>67.009093629999995</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>104.9092629</v>
+      </c>
+      <c r="R4" s="4">
+        <v>111.6990648</v>
+      </c>
+      <c r="S4" s="4">
+        <v>183.40372199999999</v>
+      </c>
+      <c r="T4" s="4">
+        <v>-0.24366992500000001</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ4">
+        <f>AVERAGE(B4,I4,P4,W4,AD4,AK4)</f>
+        <v>57.972582456666665</v>
+      </c>
+      <c r="AR4">
+        <f>AVERAGE(C4,J4,Q4,X4,AE4,AL4)</f>
+        <v>55.310086570000003</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5">
+        <v>216</v>
+      </c>
+      <c r="B5">
+        <v>91.129213480000004</v>
+      </c>
+      <c r="C5">
+        <v>15.24350759</v>
+      </c>
+      <c r="D5">
+        <v>68.255827170000003</v>
+      </c>
+      <c r="E5">
+        <v>30.452399140000001</v>
+      </c>
+      <c r="F5">
+        <v>0.75111935200000002</v>
+      </c>
+      <c r="H5">
+        <v>209</v>
+      </c>
+      <c r="I5">
+        <v>95.148135929999995</v>
+      </c>
+      <c r="J5">
+        <v>28.915458789999999</v>
+      </c>
+      <c r="K5">
+        <v>57.252542060000003</v>
+      </c>
+      <c r="L5">
+        <v>40.644882529999997</v>
+      </c>
+      <c r="M5">
+        <v>0.932358307</v>
+      </c>
+      <c r="O5">
+        <v>240</v>
+      </c>
+      <c r="P5">
+        <v>93.528430099999994</v>
+      </c>
+      <c r="Q5">
+        <v>33.882151139999998</v>
+      </c>
+      <c r="R5">
+        <v>41.583388999999997</v>
+      </c>
+      <c r="S5">
+        <v>54.69840799</v>
+      </c>
+      <c r="T5">
+        <v>0.94966276000000005</v>
+      </c>
+      <c r="W5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" ref="AQ5:AQ30" si="0">AVERAGE(B5,I5,P5,W5,AD5,AK5)</f>
+        <v>93.268593169999988</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" ref="AR5:AR30" si="1">AVERAGE(C5,J5,Q5,X5,AE5,AL5)</f>
+        <v>26.01370584</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="B6">
+        <v>86.431380419999996</v>
+      </c>
+      <c r="C6">
+        <v>15.35292761</v>
+      </c>
+      <c r="D6">
+        <v>64.252795149999997</v>
+      </c>
+      <c r="E6">
+        <v>28.253933839999998</v>
+      </c>
+      <c r="F6">
+        <v>0.78497335599999996</v>
+      </c>
+      <c r="I6">
+        <v>88.072583309999999</v>
+      </c>
+      <c r="J6">
+        <v>26.638023690000001</v>
+      </c>
+      <c r="K6">
+        <v>53.953041229999997</v>
+      </c>
+      <c r="L6">
+        <v>41.112627240000002</v>
+      </c>
+      <c r="M6">
+        <v>0.82990420099999995</v>
+      </c>
+      <c r="P6">
+        <v>88.762766060000004</v>
+      </c>
+      <c r="Q6">
+        <v>32.970313189999999</v>
+      </c>
+      <c r="R6">
+        <v>39.311567580000002</v>
+      </c>
+      <c r="S6">
+        <v>53.57659907</v>
+      </c>
+      <c r="T6">
+        <v>0.92299995400000001</v>
+      </c>
+      <c r="W6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="0"/>
+        <v>87.755576596666671</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="1"/>
+        <v>24.987088163333329</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="B7">
+        <v>83.364767259999994</v>
+      </c>
+      <c r="C7">
+        <v>14.43929878</v>
+      </c>
+      <c r="D7">
+        <v>68.01440212</v>
+      </c>
+      <c r="E7">
+        <v>32.157835429999999</v>
+      </c>
+      <c r="F7">
+        <v>0.47734447699999999</v>
+      </c>
+      <c r="I7">
+        <v>83.393269549999999</v>
+      </c>
+      <c r="J7">
+        <v>23.115257969999998</v>
+      </c>
+      <c r="K7">
+        <v>55.854686630000003</v>
+      </c>
+      <c r="L7">
+        <v>40.270998669999997</v>
+      </c>
+      <c r="M7">
+        <v>0.68383163599999996</v>
+      </c>
+      <c r="P7">
+        <v>86.659038670000001</v>
+      </c>
+      <c r="Q7">
+        <v>24.38756111</v>
+      </c>
+      <c r="R7">
+        <v>43.73124026</v>
+      </c>
+      <c r="S7">
+        <v>49.562204049999998</v>
+      </c>
+      <c r="T7">
+        <v>0.86613981799999995</v>
+      </c>
+      <c r="W7" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>84.472358493333331</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="1"/>
+        <v>20.647372619999999</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="B8">
+        <v>68.105537720000001</v>
+      </c>
+      <c r="C8">
+        <v>14.68531937</v>
+      </c>
+      <c r="D8">
+        <v>58.104036379999997</v>
+      </c>
+      <c r="E8">
+        <v>27.735526060000002</v>
+      </c>
+      <c r="F8">
+        <v>0.360602547</v>
+      </c>
+      <c r="I8">
+        <v>68.268228309999998</v>
+      </c>
+      <c r="J8">
+        <v>20.729096869999999</v>
+      </c>
+      <c r="K8">
+        <v>45.747827690000001</v>
+      </c>
+      <c r="L8">
+        <v>35.682667129999999</v>
+      </c>
+      <c r="M8">
+        <v>0.63112996899999996</v>
+      </c>
+      <c r="P8">
+        <v>73.354451879999999</v>
+      </c>
+      <c r="Q8">
+        <v>23.96933052</v>
+      </c>
+      <c r="R8">
+        <v>40.797094190000003</v>
+      </c>
+      <c r="S8">
+        <v>46.592853290000001</v>
+      </c>
+      <c r="T8">
+        <v>0.69876290900000004</v>
+      </c>
+      <c r="W8" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="0"/>
+        <v>69.909405970000009</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="1"/>
+        <v>19.794582253333335</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="B11" s="4">
+        <v>74.727588019999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>121.5549405</v>
+      </c>
+      <c r="D11" s="4">
+        <v>97.773862910000005</v>
+      </c>
+      <c r="E11" s="4">
+        <v>134.6712168</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-0.17112992199999999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>51.221732750000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>42.075007790000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>68.432353410000005</v>
+      </c>
+      <c r="L11" s="4">
+        <v>116.47335699999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-0.147764443</v>
+      </c>
+      <c r="P11" s="7">
+        <v>51.2637692885626</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>41.825529466550798</v>
+      </c>
+      <c r="R11" s="7">
+        <v>55.285505743152299</v>
+      </c>
+      <c r="S11" s="7">
+        <v>132.31934555865399</v>
+      </c>
+      <c r="T11" s="7">
+        <v>-3.0394168272295099E-2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="0"/>
+        <v>59.071030019520869</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="1"/>
+        <v>68.485159252183607</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="B12">
+        <v>77.932947979999994</v>
+      </c>
+      <c r="C12">
+        <v>29.558160239999999</v>
+      </c>
+      <c r="D12">
+        <v>48.247971389999996</v>
+      </c>
+      <c r="E12">
+        <v>41.919778620000002</v>
+      </c>
+      <c r="F12">
+        <v>0.708137723</v>
+      </c>
+      <c r="I12">
+        <v>63.559557740000002</v>
+      </c>
+      <c r="J12">
+        <v>23.403408859999999</v>
+      </c>
+      <c r="K12">
+        <v>36.553186969999999</v>
+      </c>
+      <c r="L12">
+        <v>45.052267970000003</v>
+      </c>
+      <c r="M12">
+        <v>0.59944531099999998</v>
+      </c>
+      <c r="P12" s="4">
+        <v>25.017049066635799</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>111.397190728533</v>
+      </c>
+      <c r="R12" s="4">
+        <v>24.3634896853751</v>
+      </c>
+      <c r="S12" s="4">
+        <v>163.299364488951</v>
+      </c>
+      <c r="T12" s="4">
+        <v>4.0022163179020296E-3</v>
+      </c>
+      <c r="W12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="0"/>
+        <v>55.503184928878596</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="1"/>
+        <v>54.786253276177668</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="B13">
+        <v>78.462427750000003</v>
+      </c>
+      <c r="C13">
+        <v>25.951058100000001</v>
+      </c>
+      <c r="D13">
+        <v>47.704890030000001</v>
+      </c>
+      <c r="E13">
+        <v>38.550834070000001</v>
+      </c>
+      <c r="F13">
+        <v>0.79784363800000002</v>
+      </c>
+      <c r="I13">
+        <v>63.435345939999998</v>
+      </c>
+      <c r="J13">
+        <v>22.82749596</v>
+      </c>
+      <c r="K13">
+        <v>36.579926639999996</v>
+      </c>
+      <c r="L13">
+        <v>45.22789186</v>
+      </c>
+      <c r="M13">
+        <v>0.59378003700000004</v>
+      </c>
+      <c r="P13">
+        <v>72.865283476853705</v>
+      </c>
+      <c r="Q13">
+        <v>26.2415713036592</v>
+      </c>
+      <c r="R13">
+        <v>30.3598017748069</v>
+      </c>
+      <c r="S13">
+        <v>54.794559086193097</v>
+      </c>
+      <c r="T13">
+        <v>0.77572449547745403</v>
+      </c>
+      <c r="W13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="0"/>
+        <v>71.587685722284576</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="1"/>
+        <v>25.006708454553067</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="B14">
+        <v>73.240882819999996</v>
+      </c>
+      <c r="C14">
+        <v>24.230284000000001</v>
+      </c>
+      <c r="D14">
+        <v>46.545163359999997</v>
+      </c>
+      <c r="E14">
+        <v>40.740574430000002</v>
+      </c>
+      <c r="F14">
+        <v>0.65526124299999999</v>
+      </c>
+      <c r="I14">
+        <v>60.622786560000002</v>
+      </c>
+      <c r="J14">
+        <v>22.510127879999999</v>
+      </c>
+      <c r="K14">
+        <v>37.524108230000003</v>
+      </c>
+      <c r="L14">
+        <v>46.03849271</v>
+      </c>
+      <c r="M14">
+        <v>0.50172533799999997</v>
+      </c>
+      <c r="P14">
+        <v>67.257007455354497</v>
+      </c>
+      <c r="Q14">
+        <v>27.742172987059298</v>
+      </c>
+      <c r="R14">
+        <v>26.104452383696302</v>
+      </c>
+      <c r="S14">
+        <v>53.931948105619497</v>
+      </c>
+      <c r="T14">
+        <v>0.76304595916071105</v>
+      </c>
+      <c r="W14" t="s">
+        <v>25</v>
+      </c>
+      <c r="X14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="0"/>
+        <v>67.040225611784834</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="1"/>
+        <v>24.827528289019767</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="B15">
+        <v>64.233315820000001</v>
+      </c>
+      <c r="C15">
+        <v>24.844859750000001</v>
+      </c>
+      <c r="D15">
+        <v>43.565556270000002</v>
+      </c>
+      <c r="E15">
+        <v>35.961842789999999</v>
+      </c>
+      <c r="F15">
+        <v>0.57471358400000006</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>56.128012483384303</v>
+      </c>
+      <c r="Q15">
+        <v>31.611799522650301</v>
+      </c>
+      <c r="R15">
+        <v>22.386577542161199</v>
+      </c>
+      <c r="S15">
+        <v>52.318660577644899</v>
+      </c>
+      <c r="T15">
+        <v>0.64492161245504698</v>
+      </c>
+      <c r="W15" t="s">
+        <v>25</v>
+      </c>
+      <c r="X15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="0"/>
+        <v>60.180664151692156</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="1"/>
+        <v>28.228329636325149</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" s="5" customFormat="1">
+      <c r="AQ16"/>
+      <c r="AR16"/>
+    </row>
+    <row r="17" spans="1:45" s="6" customFormat="1">
+      <c r="A17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4">
+        <v>49.965277780000001</v>
+      </c>
+      <c r="C19" s="4">
+        <v>48.90650926</v>
+      </c>
+      <c r="D19" s="4">
+        <v>78.888938949999996</v>
+      </c>
+      <c r="E19" s="4">
+        <v>53.126350870000003</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-0.54443154299999996</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <v>378.84733060000002</v>
+      </c>
+      <c r="J19">
+        <v>96.764495269999998</v>
+      </c>
+      <c r="K19">
+        <v>50.449615090000002</v>
+      </c>
+      <c r="L19">
+        <v>71.516004379999998</v>
+      </c>
+      <c r="M19">
+        <v>4.5919471920000001</v>
+      </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="4">
+        <v>403.58417830000002</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>293.18071370000001</v>
+      </c>
+      <c r="R19" s="4">
+        <v>106.34236129999999</v>
+      </c>
+      <c r="S19" s="4">
+        <v>189.2539563</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1.5705976399999999</v>
+      </c>
+      <c r="V19" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" t="s">
+        <v>25</v>
+      </c>
+      <c r="X19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="0"/>
+        <v>277.46559556000005</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="1"/>
+        <v>146.28390607666668</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20">
+        <v>209</v>
+      </c>
+      <c r="B20">
+        <v>96.948863639999999</v>
+      </c>
+      <c r="C20">
+        <v>14.53902051</v>
+      </c>
+      <c r="D20">
+        <v>62.41788691</v>
+      </c>
+      <c r="E20">
+        <v>26.6101481</v>
+      </c>
+      <c r="F20">
+        <v>1.2976619519999999</v>
+      </c>
+      <c r="H20">
+        <v>210</v>
+      </c>
+      <c r="I20">
+        <v>90.157484150000002</v>
+      </c>
+      <c r="J20">
+        <v>35.94684393</v>
+      </c>
+      <c r="K20">
+        <v>44.53947076</v>
+      </c>
+      <c r="L20">
+        <v>53.780773840000002</v>
+      </c>
+      <c r="M20">
+        <v>0.84822158800000003</v>
+      </c>
+      <c r="O20">
+        <v>240</v>
+      </c>
+      <c r="P20">
+        <v>81.644250999999997</v>
+      </c>
+      <c r="Q20">
+        <v>40.124457190000001</v>
+      </c>
+      <c r="R20">
+        <v>39.766500129999997</v>
+      </c>
+      <c r="S20">
+        <v>63.408942940000003</v>
+      </c>
+      <c r="T20">
+        <v>0.66043918899999998</v>
+      </c>
+      <c r="W20" t="s">
+        <v>25</v>
+      </c>
+      <c r="X20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="0"/>
+        <v>89.583532930000004</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="1"/>
+        <v>30.203440543333333</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="B21">
+        <v>87.565025250000005</v>
+      </c>
+      <c r="C21">
+        <v>15.22556211</v>
+      </c>
+      <c r="D21">
+        <v>58.704437939999998</v>
+      </c>
+      <c r="E21">
+        <v>28.461053889999999</v>
+      </c>
+      <c r="F21">
+        <v>1.0140378999999999</v>
+      </c>
+      <c r="I21">
+        <v>85.669429550000004</v>
+      </c>
+      <c r="J21">
+        <v>35.481035599999998</v>
+      </c>
+      <c r="K21">
+        <v>41.3569046</v>
+      </c>
+      <c r="L21">
+        <v>50.069909250000002</v>
+      </c>
+      <c r="M21">
+        <v>0.88501308700000003</v>
+      </c>
+      <c r="P21">
+        <v>78.291371720000001</v>
+      </c>
+      <c r="Q21">
+        <v>37.893546180000001</v>
+      </c>
+      <c r="R21">
+        <v>37.230817780000002</v>
+      </c>
+      <c r="S21">
+        <v>65.4418948</v>
+      </c>
+      <c r="T21">
+        <v>0.62743528500000001</v>
+      </c>
+      <c r="W21" t="s">
+        <v>25</v>
+      </c>
+      <c r="X21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="0"/>
+        <v>83.841942173333337</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="1"/>
+        <v>29.533381296666665</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="B22">
+        <v>81.094696970000001</v>
+      </c>
+      <c r="C22">
+        <v>14.129983599999999</v>
+      </c>
+      <c r="D22">
+        <v>58.247803560000001</v>
+      </c>
+      <c r="E22">
+        <v>25.331625299999999</v>
+      </c>
+      <c r="F22">
+        <v>0.90191186499999998</v>
+      </c>
+      <c r="I22">
+        <v>77.652852269999997</v>
+      </c>
+      <c r="J22">
+        <v>27.250314400000001</v>
+      </c>
+      <c r="K22">
+        <v>38.890593729999999</v>
+      </c>
+      <c r="L22">
+        <v>47.736448869999997</v>
+      </c>
+      <c r="M22">
+        <v>0.81200549</v>
+      </c>
+      <c r="P22">
+        <v>71.521044579999995</v>
+      </c>
+      <c r="Q22">
+        <v>32.484554869999997</v>
+      </c>
+      <c r="R22">
+        <v>37.99426768</v>
+      </c>
+      <c r="S22">
+        <v>62.514928169999997</v>
+      </c>
+      <c r="T22">
+        <v>0.53630033499999996</v>
+      </c>
+      <c r="W22" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="0"/>
+        <v>76.756197940000007</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="1"/>
+        <v>24.621617623333332</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="B23">
+        <v>66.85606061</v>
+      </c>
+      <c r="C23">
+        <v>15.77303474</v>
+      </c>
+      <c r="D23">
+        <v>51.380040549999997</v>
+      </c>
+      <c r="E23">
+        <v>25.517910310000001</v>
+      </c>
+      <c r="F23">
+        <v>0.60647677899999997</v>
+      </c>
+      <c r="I23">
+        <v>61.841540709999997</v>
+      </c>
+      <c r="J23">
+        <v>24.138248619999999</v>
+      </c>
+      <c r="K23">
+        <v>28.26995775</v>
+      </c>
+      <c r="L23">
+        <v>44.401288010000002</v>
+      </c>
+      <c r="M23">
+        <v>0.75609479999999996</v>
+      </c>
+      <c r="P23">
+        <v>61.71953319</v>
+      </c>
+      <c r="Q23">
+        <v>28.911897320000001</v>
+      </c>
+      <c r="R23">
+        <v>35.136418620000001</v>
+      </c>
+      <c r="S23">
+        <v>54.808936000000003</v>
+      </c>
+      <c r="T23">
+        <v>0.48501424300000001</v>
+      </c>
+      <c r="W23" t="s">
+        <v>25</v>
+      </c>
+      <c r="X23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="0"/>
+        <v>63.472378169999992</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="1"/>
+        <v>22.941060226666668</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="B26" s="4">
+        <v>217.23547009999999</v>
+      </c>
+      <c r="C26" s="4">
+        <v>169.8909237</v>
+      </c>
+      <c r="D26" s="4">
+        <v>111.9335835</v>
+      </c>
+      <c r="E26" s="4">
+        <v>134.58941619999999</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.78239351599999996</v>
+      </c>
+      <c r="I26" s="4">
+        <v>320.50928998009198</v>
+      </c>
+      <c r="J26" s="4">
+        <v>166.40371173674501</v>
+      </c>
+      <c r="K26" s="4">
+        <v>36.439827911362499</v>
+      </c>
+      <c r="L26" s="4">
+        <v>76.222305458317393</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3.7268547620102499</v>
+      </c>
+      <c r="P26">
+        <v>369.8161336</v>
+      </c>
+      <c r="Q26">
+        <v>182.14318180000001</v>
+      </c>
+      <c r="R26">
+        <v>44.195565199999997</v>
+      </c>
+      <c r="S26">
+        <v>88.249642609999995</v>
+      </c>
+      <c r="T26">
+        <v>3.6897664259999998</v>
+      </c>
+      <c r="W26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="0"/>
+        <v>302.52029789336399</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="1"/>
+        <v>172.81260574558166</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="B27">
+        <v>71.732585470000004</v>
+      </c>
+      <c r="C27">
+        <v>34.032283659999997</v>
+      </c>
+      <c r="D27">
+        <v>35.446207209999997</v>
+      </c>
+      <c r="E27">
+        <v>44.61084726</v>
+      </c>
+      <c r="F27">
+        <v>0.81339809699999999</v>
+      </c>
+      <c r="I27">
+        <v>63.530966600309597</v>
+      </c>
+      <c r="J27">
+        <v>25.861459090417199</v>
+      </c>
+      <c r="K27">
+        <v>21.999705327675599</v>
+      </c>
+      <c r="L27">
+        <v>44.115872644087801</v>
+      </c>
+      <c r="M27">
+        <v>0.94141311921208903</v>
+      </c>
+      <c r="P27" s="4">
+        <v>31.298293569999998</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>130.38427060000001</v>
+      </c>
+      <c r="R27" s="4">
+        <v>19.539496079999999</v>
+      </c>
+      <c r="S27" s="4">
+        <v>164.42955570000001</v>
+      </c>
+      <c r="T27" s="4">
+        <v>7.1512675999999997E-2</v>
+      </c>
+      <c r="W27" t="s">
+        <v>25</v>
+      </c>
+      <c r="X27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="0"/>
+        <v>55.520615213436535</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="1"/>
+        <v>63.426004450139068</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="B28">
+        <v>70.408547010000007</v>
+      </c>
+      <c r="C28">
+        <v>31.04233</v>
+      </c>
+      <c r="D28">
+        <v>36.538894579999997</v>
+      </c>
+      <c r="E28">
+        <v>44.06483978</v>
+      </c>
+      <c r="F28">
+        <v>0.76863214800000002</v>
+      </c>
+      <c r="I28">
+        <v>62.536275160362699</v>
+      </c>
+      <c r="J28">
+        <v>25.074427149937499</v>
+      </c>
+      <c r="K28">
+        <v>22.646923620933499</v>
+      </c>
+      <c r="L28">
+        <v>43.224110973087399</v>
+      </c>
+      <c r="M28">
+        <v>0.92284955413577896</v>
+      </c>
+      <c r="P28">
+        <v>79.313658860000004</v>
+      </c>
+      <c r="Q28">
+        <v>23.60812555</v>
+      </c>
+      <c r="R28">
+        <v>29.014087499999999</v>
+      </c>
+      <c r="S28">
+        <v>52.900471850000002</v>
+      </c>
+      <c r="T28">
+        <v>0.95083407799999997</v>
+      </c>
+      <c r="W28" t="s">
+        <v>25</v>
+      </c>
+      <c r="X28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="0"/>
+        <v>70.752827010120896</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="1"/>
+        <v>26.574960899979164</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="B29">
+        <v>61.890170939999997</v>
+      </c>
+      <c r="C29">
+        <v>27.25045106</v>
+      </c>
+      <c r="D29">
+        <v>32.325258730000002</v>
+      </c>
+      <c r="E29">
+        <v>47.574408259999998</v>
+      </c>
+      <c r="F29">
+        <v>0.62144571599999998</v>
+      </c>
+      <c r="I29">
+        <v>55.336098208360902</v>
+      </c>
+      <c r="J29">
+        <v>20.967717251215401</v>
+      </c>
+      <c r="K29">
+        <v>22.766383781235199</v>
+      </c>
+      <c r="L29">
+        <v>41.542474944321398</v>
+      </c>
+      <c r="M29">
+        <v>0.78400996740753204</v>
+      </c>
+      <c r="P29">
+        <v>69.034276430000006</v>
+      </c>
+      <c r="Q29">
+        <v>19.904826549999999</v>
+      </c>
+      <c r="R29">
+        <v>27.587121209999999</v>
+      </c>
+      <c r="S29">
+        <v>53.093569500000001</v>
+      </c>
+      <c r="T29">
+        <v>0.78064359999999999</v>
+      </c>
+      <c r="W29" t="s">
+        <v>25</v>
+      </c>
+      <c r="X29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="0"/>
+        <v>62.086848526120299</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="1"/>
+        <v>22.707664953738469</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="B30">
+        <v>54.627136749999998</v>
+      </c>
+      <c r="C30">
+        <v>27.083967860000001</v>
+      </c>
+      <c r="D30">
+        <v>32.736608670000003</v>
+      </c>
+      <c r="E30">
+        <v>40.578360230000001</v>
+      </c>
+      <c r="F30">
+        <v>0.53946310200000003</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30">
+        <v>61.752530100000001</v>
+      </c>
+      <c r="Q30">
+        <v>19.270025889999999</v>
+      </c>
+      <c r="R30">
+        <v>25.832609810000001</v>
+      </c>
+      <c r="S30">
+        <v>52.906599790000001</v>
+      </c>
+      <c r="T30">
+        <v>0.67893080299999997</v>
+      </c>
+      <c r="W30" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="0"/>
+        <v>58.189833425000003</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="1"/>
+        <v>23.176996875</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" s="6" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/organ_measure.xlsx
+++ b/organ_measure.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/435577af404d2ec7/2023/BME_M2/STAGE/Thesis/Scripts_and_venv/internship_M2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD35364-168D-4A79-9A41-6446B6721DE6}"/>
+  <xr:revisionPtr revIDLastSave="644" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{193344A9-D23F-4537-966D-CFF4205C569F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="vessels" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="3D Anal" sheetId="3" r:id="rId3"/>
+    <sheet name="3D Anal 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="80">
   <si>
     <t>t1</t>
   </si>
@@ -263,13 +264,28 @@
   </si>
   <si>
     <t>dotarem</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Normalized_Signal</t>
+  </si>
+  <si>
+    <t>Noise_Volume</t>
+  </si>
+  <si>
+    <t>Normalized_Noise</t>
+  </si>
+  <si>
+    <t>Aorta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +299,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,12 +323,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,8 +344,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -336,11 +365,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -349,6 +393,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,18 +746,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1426DD-ABA7-4F24-B0C3-92136F16B0F8}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="8.77734375" style="1"/>
     <col min="13" max="13" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -738,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -781,7 +838,7 @@
         <v>134.54244660439929</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -824,7 +881,7 @@
         <v>136.15331672635199</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -867,7 +924,7 @@
         <v>91.718209304650856</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -910,7 +967,7 @@
         <v>99.122269977973559</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -953,7 +1010,7 @@
         <v>126.71350468343864</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -985,7 +1042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1085,7 @@
         <v>0.65614902400652164</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1128,7 @@
         <v>7.9216954917776555E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1171,7 @@
         <v>0.12049283224468281</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1214,7 @@
         <v>0.13828113968243994</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1257,7 @@
         <v>8.4020108176697431E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1332,7 @@
         <v>165.80691489160353</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1318,7 +1375,7 @@
         <v>112.56792010780909</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1418,7 @@
         <v>75.559928575048275</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1404,7 +1461,7 @@
         <v>102.30165289521513</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1504,7 @@
         <v>131.13826278536825</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1582,7 @@
         <v>0.916667703541862</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1625,7 @@
         <v>0.14450730306626408</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +1668,7 @@
         <v>0.20620089468514763</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1711,7 @@
         <v>0.13986549312518567</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1691,7 +1748,7 @@
         <v>0.10423140845223425</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1823,7 @@
         <v>7.6649163368430901</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1866,7 @@
         <v>14.33758500624643</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1909,7 @@
         <v>13.325987040730949</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1895,7 +1952,7 @@
         <v>10.848579566206574</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1995,7 @@
         <v>11.947662893218027</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +2027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2070,7 @@
         <v>2.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2056,7 +2113,7 @@
         <v>0.22874234040254965</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2099,7 +2156,7 @@
         <v>0.20809360344866948</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2142,7 +2199,7 @@
         <v>0.14961985211523227</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2242,7 @@
         <v>6.2815978204550121E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2317,7 @@
         <v>46.662358953335008</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2303,7 +2360,7 @@
         <v>17.543301989033417</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2346,7 +2403,7 @@
         <v>14.82387967483789</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2446,7 @@
         <v>18.278911144132611</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2489,7 @@
         <v>9.6064243915701528</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2464,7 +2521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2564,7 @@
         <v>0.78218339043250518</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2550,7 +2607,7 @@
         <v>0.23794542491103751</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2593,7 +2650,7 @@
         <v>0.18979032627488532</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2636,7 +2693,7 @@
         <v>0.21097772874906814</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2679,7 +2736,7 @@
         <v>7.0839551086116309E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2711,7 +2768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2811,7 @@
         <v>41.617782414491984</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2854,7 @@
         <v>21.161274400637886</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2840,7 +2897,7 @@
         <v>15.149038774547769</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -2883,7 +2940,7 @@
         <v>19.220234093671145</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +2980,7 @@
         <v>16.65508335407289</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +3012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2998,7 +3055,7 @@
         <v>0.57567074886822223</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3041,7 +3098,7 @@
         <v>0.27652810084436646</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3084,7 +3141,7 @@
         <v>0.16975653135226823</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3184,7 @@
         <v>8.6521173876796462E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3180,9 +3237,9 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -3226,7 +3283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3264,7 +3321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3302,7 +3359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3346,7 +3403,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3354,7 +3411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3362,7 +3419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3370,7 +3427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3408,7 +3465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3446,7 +3503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3490,7 +3547,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3498,7 +3555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3506,7 +3563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3523,27 +3580,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDB5C43-A793-4767-A44B-0E4A316AA30A}">
   <dimension ref="A2:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ24" sqref="AQ24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT29" sqref="AT29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:45" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AR2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AS2" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3601,91 +3658,133 @@
       <c r="V3" t="s">
         <v>16</v>
       </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>56</v>
+      </c>
       <c r="AC3" t="s">
         <v>26</v>
       </c>
+      <c r="AD3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>56</v>
+      </c>
       <c r="AJ3" t="s">
         <v>5</v>
       </c>
+      <c r="AK3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>56</v>
+      </c>
       <c r="AS3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
-        <v>56.750820040000001</v>
-      </c>
-      <c r="C4">
-        <v>22.859277129999999</v>
-      </c>
-      <c r="D4">
-        <v>59.941148179999999</v>
-      </c>
-      <c r="E4">
-        <v>54.753181400000003</v>
-      </c>
-      <c r="F4">
-        <v>-5.8267447999999999E-2</v>
+      <c r="B4" s="1">
+        <v>48.378029589999997</v>
+      </c>
+      <c r="C4" s="1">
+        <v>149.813917</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30.85119955</v>
+      </c>
+      <c r="E4" s="1">
+        <v>144.01707880000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.121699664</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="1">
         <v>50.157833699999998</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="1">
         <v>38.161719679999997</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="1">
         <v>62.455471250000002</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="1">
         <v>84.585820699999999</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="1">
         <v>-0.14538651299999999</v>
       </c>
       <c r="O4" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="4">
-        <v>67.009093629999995</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>104.9092629</v>
-      </c>
-      <c r="R4" s="4">
-        <v>111.6990648</v>
-      </c>
-      <c r="S4" s="4">
-        <v>183.40372199999999</v>
-      </c>
-      <c r="T4" s="4">
-        <v>-0.24366992500000001</v>
+      <c r="P4" s="1">
+        <v>49.488639839999998</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>28.185421430000002</v>
+      </c>
+      <c r="R4" s="1">
+        <v>56.884649150000001</v>
+      </c>
+      <c r="S4" s="1">
+        <v>119.1033271</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-6.209742E-2</v>
       </c>
       <c r="V4" t="s">
         <v>45</v>
       </c>
-      <c r="W4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>25</v>
+      <c r="W4">
+        <v>95.810929397686394</v>
+      </c>
+      <c r="X4">
+        <v>148.310759973599</v>
+      </c>
+      <c r="Y4">
+        <v>139.43241770220101</v>
+      </c>
+      <c r="Z4">
+        <v>201.205026199684</v>
+      </c>
+      <c r="AA4">
+        <v>-0.21680118597645501</v>
       </c>
       <c r="AC4" t="s">
         <v>45</v>
@@ -3705,43 +3804,37 @@
       <c r="AH4" t="s">
         <v>25</v>
       </c>
-      <c r="AI4" t="s">
-        <v>25</v>
-      </c>
       <c r="AJ4" t="s">
         <v>45</v>
       </c>
-      <c r="AK4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>25</v>
+      <c r="AK4">
+        <v>84.429186709999996</v>
+      </c>
+      <c r="AL4">
+        <v>93.743835020000006</v>
+      </c>
+      <c r="AM4">
+        <v>88.961230470000004</v>
+      </c>
+      <c r="AN4">
+        <v>112.9510116</v>
+      </c>
+      <c r="AO4">
+        <v>-4.0123976999999998E-2</v>
       </c>
       <c r="AQ4">
-        <f>AVERAGE(B4,I4,P4,W4,AD4,AK4)</f>
-        <v>57.972582456666665</v>
+        <f t="shared" ref="AQ4:AR8" si="0">AVERAGE(B4,I4,P4,W4,AD4,AK4)</f>
+        <v>65.652923847537281</v>
       </c>
       <c r="AR4">
-        <f>AVERAGE(C4,J4,Q4,X4,AE4,AL4)</f>
-        <v>55.310086570000003</v>
+        <f t="shared" si="0"/>
+        <v>91.643130620719802</v>
       </c>
       <c r="AS4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>216</v>
       </c>
@@ -3796,73 +3889,73 @@
       <c r="T5">
         <v>0.94966276000000005</v>
       </c>
-      <c r="W5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>25</v>
+      <c r="V5">
+        <v>198</v>
+      </c>
+      <c r="W5">
+        <v>107.22377343438301</v>
+      </c>
+      <c r="X5">
+        <v>29.660809952353599</v>
+      </c>
+      <c r="Y5">
+        <v>78.903095705253904</v>
+      </c>
+      <c r="Z5">
+        <v>36.470914811891603</v>
+      </c>
+      <c r="AA5">
+        <v>0.77652775849470901</v>
+      </c>
+      <c r="AC5">
+        <v>240</v>
+      </c>
+      <c r="AD5">
+        <v>84.294189599999996</v>
+      </c>
+      <c r="AE5">
+        <v>17.50177789</v>
+      </c>
+      <c r="AF5">
+        <v>47.942112880000003</v>
+      </c>
+      <c r="AG5">
+        <v>77.863576330000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.46686882899999999</v>
+      </c>
+      <c r="AJ5">
+        <v>240</v>
+      </c>
+      <c r="AK5">
+        <v>89.061230350000002</v>
+      </c>
+      <c r="AL5">
+        <v>29.14446697</v>
+      </c>
+      <c r="AM5">
+        <v>49.508154300000001</v>
+      </c>
+      <c r="AN5">
+        <v>44.776009719999998</v>
+      </c>
+      <c r="AO5">
+        <v>0.88335419599999998</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ30" si="0">AVERAGE(B5,I5,P5,W5,AD5,AK5)</f>
-        <v>93.268593169999988</v>
+        <f t="shared" si="0"/>
+        <v>93.397495482397161</v>
       </c>
       <c r="AR5">
-        <f t="shared" ref="AR5:AR30" si="1">AVERAGE(C5,J5,Q5,X5,AE5,AL5)</f>
-        <v>26.01370584</v>
+        <f t="shared" si="0"/>
+        <v>25.724695388725603</v>
       </c>
       <c r="AS5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>86.431380419999996</v>
       </c>
@@ -3908,73 +4001,64 @@
       <c r="T6">
         <v>0.92299995400000001</v>
       </c>
-      <c r="W6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>25</v>
+      <c r="W6">
+        <v>102.262066214599</v>
+      </c>
+      <c r="X6">
+        <v>25.972845063505499</v>
+      </c>
+      <c r="Y6">
+        <v>75.700239808153398</v>
+      </c>
+      <c r="Z6">
+        <v>35.634079525949502</v>
+      </c>
+      <c r="AA6">
+        <v>0.745405150344986</v>
+      </c>
+      <c r="AD6">
+        <v>79.99969419</v>
+      </c>
+      <c r="AE6">
+        <v>16.217510449999999</v>
+      </c>
+      <c r="AF6">
+        <v>49.70043415</v>
+      </c>
+      <c r="AG6">
+        <v>73.423444189999998</v>
+      </c>
+      <c r="AH6">
+        <v>0.41266465200000002</v>
+      </c>
+      <c r="AK6">
+        <v>89.447419420000003</v>
+      </c>
+      <c r="AL6">
+        <v>26.384957409999998</v>
+      </c>
+      <c r="AM6">
+        <v>50.946337890000002</v>
+      </c>
+      <c r="AN6">
+        <v>43.779910549999997</v>
+      </c>
+      <c r="AO6">
+        <v>0.87942348599999998</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="0"/>
-        <v>87.755576596666671</v>
+        <v>89.162651602433172</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="1"/>
-        <v>24.987088163333329</v>
+        <f t="shared" si="0"/>
+        <v>23.922762902250913</v>
       </c>
       <c r="AS6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>83.364767259999994</v>
       </c>
@@ -4020,73 +4104,64 @@
       <c r="T7">
         <v>0.86613981799999995</v>
       </c>
-      <c r="W7" t="s">
-        <v>25</v>
-      </c>
-      <c r="X7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>25</v>
+      <c r="W7">
+        <v>93.177104108496195</v>
+      </c>
+      <c r="X7">
+        <v>21.499245038050798</v>
+      </c>
+      <c r="Y7">
+        <v>73.486483540440304</v>
+      </c>
+      <c r="Z7">
+        <v>32.022395531272501</v>
+      </c>
+      <c r="AA7">
+        <v>0.61490154753807602</v>
+      </c>
+      <c r="AD7">
+        <v>77.169113150000001</v>
+      </c>
+      <c r="AE7">
+        <v>16.42837741</v>
+      </c>
+      <c r="AF7">
+        <v>44.062771349999998</v>
+      </c>
+      <c r="AG7">
+        <v>82.767724630000004</v>
+      </c>
+      <c r="AH7">
+        <v>0.39999096200000001</v>
+      </c>
+      <c r="AK7">
+        <v>83.686885360000005</v>
+      </c>
+      <c r="AL7">
+        <v>20.773140810000001</v>
+      </c>
+      <c r="AM7">
+        <v>55.55</v>
+      </c>
+      <c r="AN7">
+        <v>37.867496680000002</v>
+      </c>
+      <c r="AO7">
+        <v>0.743035263</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="0"/>
-        <v>84.472358493333331</v>
+        <v>84.575029683082704</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="1"/>
-        <v>20.647372619999999</v>
+        <f t="shared" si="0"/>
+        <v>20.107146853008466</v>
       </c>
       <c r="AS7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>68.105537720000001</v>
       </c>
@@ -4132,73 +4207,64 @@
       <c r="T8">
         <v>0.69876290900000004</v>
       </c>
-      <c r="W8" t="s">
-        <v>25</v>
-      </c>
-      <c r="X8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>25</v>
+      <c r="W8">
+        <v>81.486637415237297</v>
+      </c>
+      <c r="X8">
+        <v>19.1447918866591</v>
+      </c>
+      <c r="Y8">
+        <v>74.031066056245905</v>
+      </c>
+      <c r="Z8">
+        <v>39.376805686203703</v>
+      </c>
+      <c r="AA8">
+        <v>0.18933916119060801</v>
+      </c>
+      <c r="AD8">
+        <v>64.848012229999995</v>
+      </c>
+      <c r="AE8">
+        <v>15.258140279999999</v>
+      </c>
+      <c r="AF8">
+        <v>39.387481909999998</v>
+      </c>
+      <c r="AG8">
+        <v>87.233661229999996</v>
+      </c>
+      <c r="AH8">
+        <v>0.29186589200000002</v>
+      </c>
+      <c r="AK8">
+        <v>69.041849110000001</v>
+      </c>
+      <c r="AL8">
+        <v>17.177560809999999</v>
+      </c>
+      <c r="AM8">
+        <v>48.841601560000001</v>
+      </c>
+      <c r="AN8">
+        <v>34.457664919999999</v>
+      </c>
+      <c r="AO8">
+        <v>0.58623379099999995</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="0"/>
-        <v>69.909405970000009</v>
+        <v>70.850786110872875</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="1"/>
-        <v>19.794582253333335</v>
+        <f t="shared" si="0"/>
+        <v>18.494039956109852</v>
       </c>
       <c r="AS8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -4256,129 +4322,171 @@
       <c r="V10" t="s">
         <v>64</v>
       </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>56</v>
+      </c>
       <c r="AC10" t="s">
         <v>65</v>
       </c>
+      <c r="AD10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
       <c r="AJ10" t="s">
         <v>5</v>
       </c>
+      <c r="AK10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
       <c r="AS10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
-      <c r="B11" s="4">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <v>74.727588019999999</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>121.5549405</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>97.773862910000005</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>134.6712168</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>-0.17112992199999999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1">
         <v>51.221732750000001</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>42.075007790000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>68.432353410000005</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>116.47335699999999</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>-0.147764443</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>51.2637692885626</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>41.825529466550798</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>55.285505743152299</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>132.31934555865399</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>-3.0394168272295099E-2</v>
       </c>
-      <c r="W11" t="s">
-        <v>25</v>
-      </c>
-      <c r="X11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>25</v>
+      <c r="W11">
+        <v>49.831306654875</v>
+      </c>
+      <c r="X11">
+        <v>26.588204721810602</v>
+      </c>
+      <c r="Y11">
+        <v>64.037926434152794</v>
+      </c>
+      <c r="Z11">
+        <v>124.701917468971</v>
+      </c>
+      <c r="AA11">
+        <v>-0.113924629770128</v>
+      </c>
+      <c r="AC11">
+        <v>240</v>
+      </c>
+      <c r="AD11">
+        <v>38.517221910000004</v>
+      </c>
+      <c r="AE11">
+        <v>74.085212720000001</v>
+      </c>
+      <c r="AF11">
+        <v>27.369951740000001</v>
+      </c>
+      <c r="AG11">
+        <v>123.2107858</v>
+      </c>
+      <c r="AH11">
+        <v>9.0473168000000007E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>240</v>
+      </c>
+      <c r="AK11">
+        <v>25.535651431923601</v>
+      </c>
+      <c r="AL11">
+        <v>83.034860832914902</v>
+      </c>
+      <c r="AM11">
+        <v>15.993543543543501</v>
+      </c>
+      <c r="AN11">
+        <v>183.16454360325599</v>
+      </c>
+      <c r="AO11">
+        <v>5.2095824337317E-2</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="0"/>
-        <v>59.071030019520869</v>
+        <f>AVERAGE(B11,I11,P11,W11,AD11,AK10)</f>
+        <v>53.112323724687521</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="1"/>
-        <v>68.485159252183607</v>
+        <f t="shared" ref="AR11:AR30" si="1">AVERAGE(C11,J11,Q11,X11,AE11,AL11)</f>
+        <v>64.860626005212723</v>
       </c>
       <c r="AS11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>77.932947979999994</v>
       </c>
@@ -4409,88 +4517,79 @@
       <c r="M12">
         <v>0.59944531099999998</v>
       </c>
-      <c r="P12" s="4">
-        <v>25.017049066635799</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>111.397190728533</v>
-      </c>
-      <c r="R12" s="4">
-        <v>24.3634896853751</v>
-      </c>
-      <c r="S12" s="4">
-        <v>163.299364488951</v>
-      </c>
-      <c r="T12" s="4">
-        <v>4.0022163179020296E-3</v>
-      </c>
-      <c r="W12" t="s">
-        <v>25</v>
-      </c>
-      <c r="X12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>25</v>
+      <c r="P12" s="1">
+        <v>69.338423779999999</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>36.876617580000001</v>
+      </c>
+      <c r="R12" s="1">
+        <v>27.56608413</v>
+      </c>
+      <c r="S12" s="1">
+        <v>63.612844019999997</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.65666517999999996</v>
+      </c>
+      <c r="W12">
+        <v>75.119279239442804</v>
+      </c>
+      <c r="X12">
+        <v>23.6884214506271</v>
+      </c>
+      <c r="Y12">
+        <v>35.764182707578897</v>
+      </c>
+      <c r="Z12">
+        <v>76.473298227940305</v>
+      </c>
+      <c r="AA12">
+        <v>0.5146253325515</v>
+      </c>
+      <c r="AD12">
+        <v>86.024078410000001</v>
+      </c>
+      <c r="AE12">
+        <v>18.18511312</v>
+      </c>
+      <c r="AF12">
+        <v>56.334313950000002</v>
+      </c>
+      <c r="AG12">
+        <v>52.115482669999999</v>
+      </c>
+      <c r="AH12">
+        <v>0.56969182500000004</v>
+      </c>
+      <c r="AK12">
+        <v>56.845981547650702</v>
+      </c>
+      <c r="AL12">
+        <v>25.413352245082802</v>
+      </c>
+      <c r="AM12">
+        <v>32.898423423423402</v>
+      </c>
+      <c r="AN12">
+        <v>80.733166584146701</v>
+      </c>
+      <c r="AO12">
+        <v>0.29662602295262602</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="0"/>
-        <v>55.503184928878596</v>
+        <f t="shared" ref="AQ12:AQ30" si="2">AVERAGE(B12,I12,P12,W12,AD12,AK12)</f>
+        <v>71.470044782848916</v>
       </c>
       <c r="AR12">
         <f t="shared" si="1"/>
-        <v>54.786253276177668</v>
+        <v>26.187512249284982</v>
       </c>
       <c r="AS12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>78.462427750000003</v>
       </c>
@@ -4536,73 +4635,64 @@
       <c r="T13">
         <v>0.77572449547745403</v>
       </c>
-      <c r="W13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>25</v>
+      <c r="W13">
+        <v>74.270395755029796</v>
+      </c>
+      <c r="X13">
+        <v>22.6468153578525</v>
+      </c>
+      <c r="Y13">
+        <v>35.108760561590699</v>
+      </c>
+      <c r="Z13">
+        <v>79.310404475371598</v>
+      </c>
+      <c r="AA13">
+        <v>0.49377676803552301</v>
+      </c>
+      <c r="AD13">
+        <v>82.488505279999998</v>
+      </c>
+      <c r="AE13">
+        <v>20.079981660000001</v>
+      </c>
+      <c r="AF13">
+        <v>53.678743769999997</v>
+      </c>
+      <c r="AG13">
+        <v>50.483673269999997</v>
+      </c>
+      <c r="AH13">
+        <v>0.57067482700000005</v>
+      </c>
+      <c r="AK13">
+        <v>52.486427390539099</v>
+      </c>
+      <c r="AL13">
+        <v>26.651731131765601</v>
+      </c>
+      <c r="AM13">
+        <v>34.423648648648602</v>
+      </c>
+      <c r="AN13">
+        <v>61.797181917897099</v>
+      </c>
+      <c r="AO13">
+        <v>0.29229130166305101</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="0"/>
-        <v>71.587685722284576</v>
+        <f t="shared" si="2"/>
+        <v>70.668064265403771</v>
       </c>
       <c r="AR13">
         <f t="shared" si="1"/>
-        <v>25.006708454553067</v>
+        <v>24.066442252212884</v>
       </c>
       <c r="AS13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>73.240882819999996</v>
       </c>
@@ -4648,73 +4738,64 @@
       <c r="T14">
         <v>0.76304595916071105</v>
       </c>
-      <c r="W14" t="s">
-        <v>25</v>
-      </c>
-      <c r="X14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>25</v>
+      <c r="W14">
+        <v>68.748397081582993</v>
+      </c>
+      <c r="X14">
+        <v>21.851268376593001</v>
+      </c>
+      <c r="Y14">
+        <v>33.9386315990089</v>
+      </c>
+      <c r="Z14">
+        <v>77.042544709568602</v>
+      </c>
+      <c r="AA14">
+        <v>0.45182522999205499</v>
+      </c>
+      <c r="AD14">
+        <v>72.017685729999997</v>
+      </c>
+      <c r="AE14">
+        <v>18.364511790000002</v>
+      </c>
+      <c r="AF14">
+        <v>48.471703959999999</v>
+      </c>
+      <c r="AG14">
+        <v>42.689945420000001</v>
+      </c>
+      <c r="AH14">
+        <v>0.55155801999999998</v>
+      </c>
+      <c r="AK14">
+        <v>41.801450589301901</v>
+      </c>
+      <c r="AL14">
+        <v>64.865159137675306</v>
+      </c>
+      <c r="AM14">
+        <v>18.0631381381381</v>
+      </c>
+      <c r="AN14">
+        <v>118.045425642322</v>
+      </c>
+      <c r="AO14">
+        <v>0.20109472537369499</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="0"/>
-        <v>67.040225611784834</v>
+        <f t="shared" si="2"/>
+        <v>63.948035039373231</v>
       </c>
       <c r="AR14">
         <f t="shared" si="1"/>
-        <v>24.827528289019767</v>
+        <v>29.9272540285546</v>
       </c>
       <c r="AS14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>64.233315820000001</v>
       </c>
@@ -4760,84 +4841,74 @@
       <c r="T15">
         <v>0.64492161245504698</v>
       </c>
-      <c r="W15" t="s">
-        <v>25</v>
-      </c>
-      <c r="X15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>25</v>
+      <c r="W15">
+        <v>58.084346672562397</v>
+      </c>
+      <c r="X15">
+        <v>40.406603882933403</v>
+      </c>
+      <c r="Y15">
+        <v>24.723588082078599</v>
+      </c>
+      <c r="Z15">
+        <v>101.749487251201</v>
+      </c>
+      <c r="AA15">
+        <v>0.32787151554014199</v>
+      </c>
+      <c r="AD15">
+        <v>56.388440750000001</v>
+      </c>
+      <c r="AE15">
+        <v>30.98783216</v>
+      </c>
+      <c r="AF15">
+        <v>35.708497850000001</v>
+      </c>
+      <c r="AG15">
+        <v>55.329036160000001</v>
+      </c>
+      <c r="AH15">
+        <v>0.37376293399999999</v>
+      </c>
+      <c r="AK15">
+        <v>38.537784651485197</v>
+      </c>
+      <c r="AL15">
+        <v>47.093624293245298</v>
+      </c>
+      <c r="AM15">
+        <v>25.092192192192101</v>
+      </c>
+      <c r="AN15">
+        <v>76.200915273949803</v>
+      </c>
+      <c r="AO15">
+        <v>0.17644922519571801</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="0"/>
-        <v>60.180664151692156</v>
+        <f t="shared" si="2"/>
+        <v>54.674380075486376</v>
       </c>
       <c r="AR15">
         <f t="shared" si="1"/>
-        <v>28.228329636325149</v>
+        <v>34.988943921765795</v>
       </c>
       <c r="AS15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="5" customFormat="1">
+    <row r="16" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="AQ16"/>
       <c r="AR16"/>
     </row>
-    <row r="17" spans="1:45" s="6" customFormat="1">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AQ17"/>
       <c r="AR17"/>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -4895,91 +4966,133 @@
       <c r="V18" t="s">
         <v>16</v>
       </c>
+      <c r="W18" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
+      </c>
       <c r="AC18" t="s">
         <v>26</v>
       </c>
+      <c r="AD18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
       <c r="AJ18" t="s">
         <v>5</v>
       </c>
+      <c r="AK18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>56</v>
+      </c>
       <c r="AS18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4">
-        <v>49.965277780000001</v>
-      </c>
-      <c r="C19" s="4">
-        <v>48.90650926</v>
-      </c>
-      <c r="D19" s="4">
-        <v>78.888938949999996</v>
-      </c>
-      <c r="E19" s="4">
-        <v>53.126350870000003</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-0.54443154299999996</v>
+      <c r="B19" s="7">
+        <v>119.725438</v>
+      </c>
+      <c r="C19" s="7">
+        <v>25.355770249999999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>53.764888859999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>36.205752629999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.8218251059999999</v>
       </c>
       <c r="H19" t="s">
         <v>45</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>378.84733060000002</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>96.764495269999998</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>50.449615090000002</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>71.516004379999998</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>4.5919471920000001</v>
       </c>
       <c r="O19" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="4">
-        <v>403.58417830000002</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>293.18071370000001</v>
-      </c>
-      <c r="R19" s="4">
-        <v>106.34236129999999</v>
-      </c>
-      <c r="S19" s="4">
-        <v>189.2539563</v>
-      </c>
-      <c r="T19" s="4">
-        <v>1.5705976399999999</v>
+      <c r="P19" s="1">
+        <v>605.50656409999999</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>158.3613843</v>
+      </c>
+      <c r="R19" s="1">
+        <v>74.503212099999999</v>
+      </c>
+      <c r="S19" s="1">
+        <v>112.2144729</v>
+      </c>
+      <c r="T19" s="1">
+        <v>4.7320397989999998</v>
       </c>
       <c r="V19" t="s">
         <v>45</v>
       </c>
-      <c r="W19" t="s">
-        <v>25</v>
-      </c>
-      <c r="X19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>25</v>
+      <c r="W19" s="1">
+        <v>466.57918549999999</v>
+      </c>
+      <c r="X19" s="1">
+        <v>320.77717760000002</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>189.5367067</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>242.31190950000001</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.143330014</v>
       </c>
       <c r="AC19" t="s">
         <v>45</v>
@@ -4999,43 +5112,37 @@
       <c r="AH19" t="s">
         <v>25</v>
       </c>
-      <c r="AI19" t="s">
-        <v>25</v>
-      </c>
       <c r="AJ19" t="s">
         <v>45</v>
       </c>
-      <c r="AK19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>25</v>
+      <c r="AK19">
+        <v>231.021346698222</v>
+      </c>
+      <c r="AL19">
+        <v>175.20277310206899</v>
+      </c>
+      <c r="AM19">
+        <v>153.04072865463201</v>
+      </c>
+      <c r="AN19">
+        <v>159.92863947311099</v>
+      </c>
+      <c r="AO19">
+        <v>0.48759633234234401</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="0"/>
-        <v>277.46559556000005</v>
+        <f t="shared" ref="AQ19:AR23" si="3">AVERAGE(B19,I19,P19,W19,AD19,AK19)</f>
+        <v>360.33597297964445</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="1"/>
-        <v>146.28390607666668</v>
+        <f t="shared" si="3"/>
+        <v>155.29232010441379</v>
       </c>
       <c r="AS19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>209</v>
       </c>
@@ -5090,73 +5197,67 @@
       <c r="T20">
         <v>0.66043918899999998</v>
       </c>
-      <c r="W20" t="s">
-        <v>25</v>
-      </c>
-      <c r="X20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>25</v>
+      <c r="V20">
+        <v>197</v>
+      </c>
+      <c r="W20">
+        <v>111.0431605</v>
+      </c>
+      <c r="X20">
+        <v>28.798794600000001</v>
+      </c>
+      <c r="Y20">
+        <v>71.949724290000006</v>
+      </c>
+      <c r="Z20">
+        <v>32.796244369999997</v>
+      </c>
+      <c r="AA20">
+        <v>1.1920095399999999</v>
+      </c>
+      <c r="AD20">
+        <v>90.695588771418102</v>
+      </c>
+      <c r="AE20">
+        <v>29.271173706288</v>
+      </c>
+      <c r="AF20">
+        <v>53.090173410404603</v>
+      </c>
+      <c r="AG20">
+        <v>55.099275963693898</v>
+      </c>
+      <c r="AH20">
+        <v>0.68250289506149797</v>
+      </c>
+      <c r="AK20">
+        <v>98.790059863566697</v>
+      </c>
+      <c r="AL20">
+        <v>26.578986757340001</v>
+      </c>
+      <c r="AM20">
+        <v>43.881944731298198</v>
+      </c>
+      <c r="AN20">
+        <v>41.0218715360472</v>
+      </c>
+      <c r="AO20">
+        <v>1.3385082902426499</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="0"/>
-        <v>89.583532930000004</v>
+        <f t="shared" si="3"/>
+        <v>94.879901320830811</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="1"/>
-        <v>30.203440543333333</v>
+        <f t="shared" si="3"/>
+        <v>29.209879448938</v>
       </c>
       <c r="AS20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>87.565025250000005</v>
       </c>
@@ -5202,73 +5303,64 @@
       <c r="T21">
         <v>0.62743528500000001</v>
       </c>
-      <c r="W21" t="s">
-        <v>25</v>
-      </c>
-      <c r="X21" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>25</v>
+      <c r="W21">
+        <v>102.58562480000001</v>
+      </c>
+      <c r="X21">
+        <v>26.783030629999999</v>
+      </c>
+      <c r="Y21">
+        <v>70.530327600000007</v>
+      </c>
+      <c r="Z21">
+        <v>31.625001879999999</v>
+      </c>
+      <c r="AA21">
+        <v>1.0136061750000001</v>
+      </c>
+      <c r="AD21">
+        <v>85.191396281443602</v>
+      </c>
+      <c r="AE21">
+        <v>24.804084819887699</v>
+      </c>
+      <c r="AF21">
+        <v>53.842389210019199</v>
+      </c>
+      <c r="AG21">
+        <v>52.9631294195691</v>
+      </c>
+      <c r="AH21">
+        <v>0.591902469038043</v>
+      </c>
+      <c r="AK21">
+        <v>98.451807508469003</v>
+      </c>
+      <c r="AL21">
+        <v>27.1272288860633</v>
+      </c>
+      <c r="AM21">
+        <v>45.341319344045601</v>
+      </c>
+      <c r="AN21">
+        <v>40.731789000072602</v>
+      </c>
+      <c r="AO21">
+        <v>1.3039075736233601</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="0"/>
-        <v>83.841942173333337</v>
+        <f t="shared" si="3"/>
+        <v>89.625775851652108</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="1"/>
-        <v>29.533381296666665</v>
+        <f t="shared" si="3"/>
+        <v>27.885748037658502</v>
       </c>
       <c r="AS21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>81.094696970000001</v>
       </c>
@@ -5314,73 +5406,64 @@
       <c r="T22">
         <v>0.53630033499999996</v>
       </c>
-      <c r="W22" t="s">
-        <v>25</v>
-      </c>
-      <c r="X22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>25</v>
+      <c r="W22">
+        <v>91.777236340000002</v>
+      </c>
+      <c r="X22">
+        <v>19.78337638</v>
+      </c>
+      <c r="Y22">
+        <v>69.963779869999996</v>
+      </c>
+      <c r="Z22">
+        <v>29.87002309</v>
+      </c>
+      <c r="AA22">
+        <v>0.73027919699999999</v>
+      </c>
+      <c r="AD22">
+        <v>75.830842143638307</v>
+      </c>
+      <c r="AE22">
+        <v>18.472368648424101</v>
+      </c>
+      <c r="AF22">
+        <v>49.587475915221503</v>
+      </c>
+      <c r="AG22">
+        <v>63.754272645265701</v>
+      </c>
+      <c r="AH22">
+        <v>0.411633058296141</v>
+      </c>
+      <c r="AK22">
+        <v>84.123300385168605</v>
+      </c>
+      <c r="AL22">
+        <v>21.628108768635101</v>
+      </c>
+      <c r="AM22">
+        <v>43.375645421124297</v>
+      </c>
+      <c r="AN22">
+        <v>38.886596287600497</v>
+      </c>
+      <c r="AO22">
+        <v>1.0478586159271801</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="0"/>
-        <v>76.756197940000007</v>
+        <f t="shared" si="3"/>
+        <v>80.333328781467813</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="1"/>
-        <v>24.621617623333332</v>
+        <f t="shared" si="3"/>
+        <v>22.291451111176531</v>
       </c>
       <c r="AS22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>66.85606061</v>
       </c>
@@ -5426,73 +5509,64 @@
       <c r="T23">
         <v>0.48501424300000001</v>
       </c>
-      <c r="W23" t="s">
-        <v>25</v>
-      </c>
-      <c r="X23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>25</v>
+      <c r="W23">
+        <v>78.705360249999998</v>
+      </c>
+      <c r="X23">
+        <v>17.187719810000001</v>
+      </c>
+      <c r="Y23">
+        <v>65.021083360000006</v>
+      </c>
+      <c r="Z23">
+        <v>24.884516250000001</v>
+      </c>
+      <c r="AA23">
+        <v>0.54991130799999999</v>
+      </c>
+      <c r="AD23">
+        <v>67.206343419613503</v>
+      </c>
+      <c r="AE23">
+        <v>14.3931973646282</v>
+      </c>
+      <c r="AF23">
+        <v>52.638342967244697</v>
+      </c>
+      <c r="AG23">
+        <v>51.1096033526482</v>
+      </c>
+      <c r="AH23">
+        <v>0.28503450421737597</v>
+      </c>
+      <c r="AK23">
+        <v>68.764211796371001</v>
+      </c>
+      <c r="AL23">
+        <v>18.106176656643999</v>
+      </c>
+      <c r="AM23">
+        <v>39.1668387789665</v>
+      </c>
+      <c r="AN23">
+        <v>35.783251985355299</v>
+      </c>
+      <c r="AO23">
+        <v>0.827129211998887</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="0"/>
-        <v>63.472378169999992</v>
+        <f t="shared" si="3"/>
+        <v>67.515508329330757</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="1"/>
-        <v>22.941060226666668</v>
+        <f t="shared" si="3"/>
+        <v>19.75171241854537</v>
       </c>
       <c r="AS23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -5550,45 +5624,90 @@
       <c r="V25" t="s">
         <v>64</v>
       </c>
+      <c r="W25" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>56</v>
+      </c>
       <c r="AC25" t="s">
         <v>65</v>
       </c>
+      <c r="AD25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
       <c r="AJ25" t="s">
         <v>66</v>
       </c>
+      <c r="AK25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>56</v>
+      </c>
       <c r="AS25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
-      <c r="B26" s="4">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
         <v>217.23547009999999</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>169.8909237</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="7">
         <v>111.9335835</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="7">
         <v>134.58941619999999</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="7">
         <v>0.78239351599999996</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="7">
         <v>320.50928998009198</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="7">
         <v>166.40371173674501</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="7">
         <v>36.439827911362499</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="7">
         <v>76.222305458317393</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="7">
         <v>3.7268547620102499</v>
       </c>
       <c r="P26">
@@ -5606,73 +5725,73 @@
       <c r="T26">
         <v>3.6897664259999998</v>
       </c>
-      <c r="W26" t="s">
-        <v>25</v>
-      </c>
-      <c r="X26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>25</v>
+      <c r="V26">
+        <v>197</v>
+      </c>
+      <c r="W26" s="1">
+        <v>283.061890275883</v>
+      </c>
+      <c r="X26" s="1">
+        <v>162.92368484435301</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>47.295598279787498</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>55.792144320913501</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>4.22579728500809</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>240</v>
+      </c>
+      <c r="AD26">
+        <v>130.40752230000001</v>
+      </c>
+      <c r="AE26">
+        <v>213.5668225</v>
+      </c>
+      <c r="AF26">
+        <v>96.191499289999996</v>
+      </c>
+      <c r="AG26">
+        <v>181.72889079999999</v>
+      </c>
+      <c r="AH26">
+        <v>0.188280591</v>
+      </c>
+      <c r="AJ26">
+        <v>240</v>
+      </c>
+      <c r="AK26">
+        <v>236.23588570000001</v>
+      </c>
+      <c r="AL26">
+        <v>91.097928909999993</v>
+      </c>
+      <c r="AM26">
+        <v>64.301562820000001</v>
+      </c>
+      <c r="AN26">
+        <v>66.785661689999998</v>
+      </c>
+      <c r="AO26">
+        <v>2.5744196970000002</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="0"/>
-        <v>302.52029789336399</v>
+        <f t="shared" si="2"/>
+        <v>259.54436532599584</v>
       </c>
       <c r="AR26">
         <f t="shared" si="1"/>
-        <v>172.81260574558166</v>
+        <v>164.33770891518299</v>
       </c>
       <c r="AS26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>71.732585470000004</v>
       </c>
@@ -5703,88 +5822,79 @@
       <c r="M27">
         <v>0.94141311921208903</v>
       </c>
-      <c r="P27" s="4">
-        <v>31.298293569999998</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>130.38427060000001</v>
-      </c>
-      <c r="R27" s="4">
-        <v>19.539496079999999</v>
-      </c>
-      <c r="S27" s="4">
-        <v>164.42955570000001</v>
-      </c>
-      <c r="T27" s="4">
-        <v>7.1512675999999997E-2</v>
-      </c>
-      <c r="W27" t="s">
-        <v>25</v>
-      </c>
-      <c r="X27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>25</v>
+      <c r="P27" s="1">
+        <v>74.010935250000003</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>28.255675360000001</v>
+      </c>
+      <c r="R27" s="1">
+        <v>36.626354419999998</v>
+      </c>
+      <c r="S27" s="1">
+        <v>51.243071239999999</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.72955386799999999</v>
+      </c>
+      <c r="W27">
+        <v>75.0960872757788</v>
+      </c>
+      <c r="X27">
+        <v>23.5414336054112</v>
+      </c>
+      <c r="Y27">
+        <v>43.147862383000202</v>
+      </c>
+      <c r="Z27">
+        <v>36.075649128109298</v>
+      </c>
+      <c r="AA27">
+        <v>0.885589744465202</v>
+      </c>
+      <c r="AD27">
+        <v>86.405740879999996</v>
+      </c>
+      <c r="AE27">
+        <v>25.823462880000001</v>
+      </c>
+      <c r="AF27">
+        <v>37.227006379999999</v>
+      </c>
+      <c r="AG27">
+        <v>56.075540969999999</v>
+      </c>
+      <c r="AH27">
+        <v>0.87700864999999995</v>
+      </c>
+      <c r="AK27">
+        <v>63.16668902</v>
+      </c>
+      <c r="AL27">
+        <v>18.78402123</v>
+      </c>
+      <c r="AM27">
+        <v>43.528556930000001</v>
+      </c>
+      <c r="AN27">
+        <v>29.533126960000001</v>
+      </c>
+      <c r="AO27">
+        <v>0.66495268600000002</v>
       </c>
       <c r="AQ27">
-        <f t="shared" si="0"/>
-        <v>55.520615213436535</v>
+        <f t="shared" si="2"/>
+        <v>72.323834082681401</v>
       </c>
       <c r="AR27">
         <f t="shared" si="1"/>
-        <v>63.426004450139068</v>
+        <v>26.04972263763807</v>
       </c>
       <c r="AS27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>70.408547010000007</v>
       </c>
@@ -5830,73 +5940,64 @@
       <c r="T28">
         <v>0.95083407799999997</v>
       </c>
-      <c r="W28" t="s">
-        <v>25</v>
-      </c>
-      <c r="X28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>25</v>
+      <c r="W28">
+        <v>75.056750236022197</v>
+      </c>
+      <c r="X28">
+        <v>22.936913325025099</v>
+      </c>
+      <c r="Y28">
+        <v>43.172843410068303</v>
+      </c>
+      <c r="Z28">
+        <v>34.533478422913703</v>
+      </c>
+      <c r="AA28">
+        <v>0.92327527610998505</v>
+      </c>
+      <c r="AD28">
+        <v>84.616297450000005</v>
+      </c>
+      <c r="AE28">
+        <v>23.359888609999999</v>
+      </c>
+      <c r="AF28">
+        <v>43.15293123</v>
+      </c>
+      <c r="AG28">
+        <v>51.479169390000003</v>
+      </c>
+      <c r="AH28">
+        <v>0.80543969000000004</v>
+      </c>
+      <c r="AK28">
+        <v>62.888091729999999</v>
+      </c>
+      <c r="AL28">
+        <v>16.7446813</v>
+      </c>
+      <c r="AM28">
+        <v>45.242419320000003</v>
+      </c>
+      <c r="AN28">
+        <v>24.76399361</v>
+      </c>
+      <c r="AO28">
+        <v>0.71255358400000002</v>
       </c>
       <c r="AQ28">
-        <f t="shared" si="0"/>
-        <v>70.752827010120896</v>
+        <f t="shared" si="2"/>
+        <v>72.469936741064146</v>
       </c>
       <c r="AR28">
         <f t="shared" si="1"/>
-        <v>26.574960899979164</v>
+        <v>23.794394322493769</v>
       </c>
       <c r="AS28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>61.890170939999997</v>
       </c>
@@ -5942,73 +6043,64 @@
       <c r="T29">
         <v>0.78064359999999999</v>
       </c>
-      <c r="W29" t="s">
-        <v>25</v>
-      </c>
-      <c r="X29" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>25</v>
+      <c r="W29">
+        <v>64.506556173292694</v>
+      </c>
+      <c r="X29">
+        <v>18.886208022827201</v>
+      </c>
+      <c r="Y29">
+        <v>28.657475335188401</v>
+      </c>
+      <c r="Z29">
+        <v>96.071502934507393</v>
+      </c>
+      <c r="AA29">
+        <v>0.37314999498387003</v>
+      </c>
+      <c r="AD29">
+        <v>72.522799759999998</v>
+      </c>
+      <c r="AE29">
+        <v>18.40911504</v>
+      </c>
+      <c r="AF29">
+        <v>40.821677399999999</v>
+      </c>
+      <c r="AG29">
+        <v>49.934479469999999</v>
+      </c>
+      <c r="AH29">
+        <v>0.63485436699999998</v>
+      </c>
+      <c r="AK29">
+        <v>55.714630550000003</v>
+      </c>
+      <c r="AL29">
+        <v>15.31056502</v>
+      </c>
+      <c r="AM29">
+        <v>41.425248629999999</v>
+      </c>
+      <c r="AN29">
+        <v>45.418457189999998</v>
+      </c>
+      <c r="AO29">
+        <v>0.31461618899999999</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="0"/>
-        <v>62.086848526120299</v>
+        <f t="shared" si="2"/>
+        <v>63.167422010275601</v>
       </c>
       <c r="AR29">
         <f t="shared" si="1"/>
-        <v>22.707664953738469</v>
+        <v>20.121480490673768</v>
       </c>
       <c r="AS29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>54.627136749999998</v>
       </c>
@@ -6054,73 +6146,1050 @@
       <c r="T30">
         <v>0.67893080299999997</v>
       </c>
-      <c r="W30" t="s">
-        <v>25</v>
-      </c>
-      <c r="X30" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>25</v>
+      <c r="W30">
+        <v>56.900555963495201</v>
+      </c>
+      <c r="X30">
+        <v>15.565731898994899</v>
+      </c>
+      <c r="Y30">
+        <v>38.178219074120904</v>
+      </c>
+      <c r="Z30">
+        <v>38.878455007430603</v>
+      </c>
+      <c r="AA30">
+        <v>0.481560722662359</v>
+      </c>
+      <c r="AD30">
+        <v>63.067063179999998</v>
+      </c>
+      <c r="AE30">
+        <v>19.575029489999999</v>
+      </c>
+      <c r="AF30">
+        <v>41.013730580000001</v>
+      </c>
+      <c r="AG30">
+        <v>47.740960690000001</v>
+      </c>
+      <c r="AH30">
+        <v>0.461937345</v>
+      </c>
+      <c r="AK30">
+        <v>48.208394800000001</v>
+      </c>
+      <c r="AL30">
+        <v>15.53523274</v>
+      </c>
+      <c r="AM30">
+        <v>39.483945609999999</v>
+      </c>
+      <c r="AN30">
+        <v>43.847469070000002</v>
+      </c>
+      <c r="AO30">
+        <v>0.198972697</v>
       </c>
       <c r="AQ30">
-        <f t="shared" si="0"/>
-        <v>58.189833425000003</v>
+        <f t="shared" si="2"/>
+        <v>56.911136158699037</v>
       </c>
       <c r="AR30">
         <f t="shared" si="1"/>
-        <v>23.176996875</v>
+        <v>19.405997575798978</v>
       </c>
       <c r="AS30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="6" customFormat="1"/>
+    <row r="31" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6BD57F-E798-4F5D-A40D-A65A808483B8}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>-125.69433650000001</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3056.875</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-4.1118572999999999E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-53.167535649999998</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3620.125</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-1.4686657000000001E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>-0.286310913</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3">
+        <v>-22.904305405865301</v>
+      </c>
+      <c r="K3">
+        <v>4407.25</v>
+      </c>
+      <c r="L3">
+        <v>-5.19696078186291E-3</v>
+      </c>
+      <c r="M3">
+        <v>18.340491715020601</v>
+      </c>
+      <c r="N3">
+        <v>4179.25</v>
+      </c>
+      <c r="O3">
+        <v>4.3884648477647004E-3</v>
+      </c>
+      <c r="P3">
+        <v>-0.20358344835268799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>86.532365569999996</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3056.875</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.830746E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>61.651945720000001</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3620.125</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.7030336E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.48797054499999998</v>
+      </c>
+      <c r="J4">
+        <v>101.11571841851401</v>
+      </c>
+      <c r="K4">
+        <v>4407.25</v>
+      </c>
+      <c r="L4">
+        <v>2.29430412203789E-2</v>
+      </c>
+      <c r="M4">
+        <v>60.3712089489741</v>
+      </c>
+      <c r="N4">
+        <v>4179.25</v>
+      </c>
+      <c r="O4">
+        <v>1.44454648439251E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.939276041906419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>82.317562870000003</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3056.875</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.6928665000000001E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>60.86253928</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3620.125</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.6812276000000001E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.433928329</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5">
+        <v>98.425066651540007</v>
+      </c>
+      <c r="K5">
+        <v>4407.25</v>
+      </c>
+      <c r="L5">
+        <v>2.2332535402243999E-2</v>
+      </c>
+      <c r="M5">
+        <v>60.336304360830198</v>
+      </c>
+      <c r="N5">
+        <v>4179.25</v>
+      </c>
+      <c r="O5">
+        <v>1.44371129654436E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.89822501554003198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>73.85753425</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3056.875</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.4161123E-2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>57.81999931</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3620.125</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.5971823999999999E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.31003456600000001</v>
+      </c>
+      <c r="J6">
+        <v>84.865363889046407</v>
+      </c>
+      <c r="K6">
+        <v>4407.25</v>
+      </c>
+      <c r="L6">
+        <v>1.9255854305756701E-2</v>
+      </c>
+      <c r="M6">
+        <v>56.334629419154098</v>
+      </c>
+      <c r="N6">
+        <v>4179.25</v>
+      </c>
+      <c r="O6">
+        <v>1.34796026605621E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.771007009188722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>59.523737480000001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3056.875</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.9472087999999999E-2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>51.007838130000003</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3620.125</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.4090076E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.15743144100000001</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7">
+        <v>65.870043678030498</v>
+      </c>
+      <c r="K7">
+        <v>4407.25</v>
+      </c>
+      <c r="L7">
+        <v>1.49458378077101E-2</v>
+      </c>
+      <c r="M7">
+        <v>49.521983609499301</v>
+      </c>
+      <c r="N7">
+        <v>4179.25</v>
+      </c>
+      <c r="O7">
+        <v>1.1849490604653699E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.44583083915348898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>67.996102879999995</v>
+      </c>
+      <c r="C10">
+        <v>1924.5</v>
+      </c>
+      <c r="D10">
+        <v>3.5331828000000003E-2</v>
+      </c>
+      <c r="E10">
+        <v>83.7487268</v>
+      </c>
+      <c r="F10">
+        <v>2896.25</v>
+      </c>
+      <c r="G10">
+        <v>2.8916263000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.122207832</v>
+      </c>
+      <c r="J10" s="6">
+        <v>58.386168720000001</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2055.125</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2.8410033000000001E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>72.402891080000003</v>
+      </c>
+      <c r="N10" s="6">
+        <v>2957.375</v>
+      </c>
+      <c r="O10" s="6">
+        <v>2.4482147999999999E-2</v>
+      </c>
+      <c r="P10" s="6">
+        <v>-0.109519253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>87.563782799999998</v>
+      </c>
+      <c r="C11">
+        <v>1924.5</v>
+      </c>
+      <c r="D11">
+        <v>4.5499497E-2</v>
+      </c>
+      <c r="E11">
+        <v>45.313552010000002</v>
+      </c>
+      <c r="F11">
+        <v>2896.25</v>
+      </c>
+      <c r="G11">
+        <v>1.5645593999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.86519797700000001</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="4">
+        <v>65.02700566</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2055.125</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3.1641387E-2</v>
+      </c>
+      <c r="M11" s="4">
+        <v>37.003930850000003</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2957.375</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1.2512423999999999E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.617682336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>79.117563000000004</v>
+      </c>
+      <c r="C12">
+        <v>1924.5</v>
+      </c>
+      <c r="D12">
+        <v>4.1110711000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>43.292576609999998</v>
+      </c>
+      <c r="F12">
+        <v>2896.25</v>
+      </c>
+      <c r="G12">
+        <v>1.4947804E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.78180421499999997</v>
+      </c>
+      <c r="J12" s="6">
+        <v>63.670944589999998</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2055.125</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3.0981544E-2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>36.278836810000001</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2957.375</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1.2267243000000001E-2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.61597710999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>72.459080279999995</v>
+      </c>
+      <c r="C13">
+        <v>1924.5</v>
+      </c>
+      <c r="D13">
+        <v>3.7650860000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>42.332067330000001</v>
+      </c>
+      <c r="F13">
+        <v>2896.25</v>
+      </c>
+      <c r="G13">
+        <v>1.4616165E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.60383040399999999</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="4">
+        <v>57.911927499999997</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2055.125</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2.8179273000000001E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>35.56591572</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2957.375</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.2026177000000001E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.49817586899999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>57.425305270000003</v>
+      </c>
+      <c r="C14">
+        <v>1924.5</v>
+      </c>
+      <c r="D14">
+        <v>2.9839078000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>39.396374620000003</v>
+      </c>
+      <c r="F14">
+        <v>2896.25</v>
+      </c>
+      <c r="G14">
+        <v>1.3602546E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.47351916999999999</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>180.78447550000001</v>
+      </c>
+      <c r="C18">
+        <v>2212.625</v>
+      </c>
+      <c r="D18">
+        <v>8.1705880999999994E-2</v>
+      </c>
+      <c r="E18">
+        <v>106.699786</v>
+      </c>
+      <c r="F18">
+        <v>3271</v>
+      </c>
+      <c r="G18">
+        <v>3.2619927999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.43486690500000003</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>82.193265920000002</v>
+      </c>
+      <c r="C19">
+        <v>2212.625</v>
+      </c>
+      <c r="D19">
+        <v>3.7147399999999997E-2</v>
+      </c>
+      <c r="E19">
+        <v>54.595077959999998</v>
+      </c>
+      <c r="F19">
+        <v>3271</v>
+      </c>
+      <c r="G19">
+        <v>1.6690638000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.77859506899999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>76.558160560000005</v>
+      </c>
+      <c r="C20">
+        <v>2212.625</v>
+      </c>
+      <c r="D20">
+        <v>3.4600604E-2</v>
+      </c>
+      <c r="E20">
+        <v>53.033017430000001</v>
+      </c>
+      <c r="F20">
+        <v>3271</v>
+      </c>
+      <c r="G20">
+        <v>1.6213089999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.68706434400000005</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>69.826732949999993</v>
+      </c>
+      <c r="C21">
+        <v>2212.625</v>
+      </c>
+      <c r="D21">
+        <v>3.1558322E-2</v>
+      </c>
+      <c r="E21">
+        <v>50.107000919999997</v>
+      </c>
+      <c r="F21">
+        <v>3271</v>
+      </c>
+      <c r="G21">
+        <v>1.5318557E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.58162173500000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>58.628947519999997</v>
+      </c>
+      <c r="C22">
+        <v>2212.625</v>
+      </c>
+      <c r="D22">
+        <v>2.6497461999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>46.673761849999998</v>
+      </c>
+      <c r="F22">
+        <v>3271</v>
+      </c>
+      <c r="G22">
+        <v>1.4268958E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.369063839</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>240.6256655</v>
+      </c>
+      <c r="C26">
+        <v>1573.125</v>
+      </c>
+      <c r="D26">
+        <v>0.152960296</v>
+      </c>
+      <c r="E26">
+        <v>101.3958768</v>
+      </c>
+      <c r="F26">
+        <v>2698.125</v>
+      </c>
+      <c r="G26">
+        <v>3.7580125999999998E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.1040530589999999</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>76.982280489999994</v>
+      </c>
+      <c r="C27">
+        <v>1573.125</v>
+      </c>
+      <c r="D27">
+        <v>4.8935895E-2</v>
+      </c>
+      <c r="E27">
+        <v>37.225434329999999</v>
+      </c>
+      <c r="F27">
+        <v>2698.125</v>
+      </c>
+      <c r="G27">
+        <v>1.3796779E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.898830236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>74.698212159999997</v>
+      </c>
+      <c r="C28">
+        <v>1573.125</v>
+      </c>
+      <c r="D28">
+        <v>4.7483965000000003E-2</v>
+      </c>
+      <c r="E28">
+        <v>38.326569380000002</v>
+      </c>
+      <c r="F28">
+        <v>2698.125</v>
+      </c>
+      <c r="G28">
+        <v>1.420489E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.82448564499999999</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>66.859276919999999</v>
+      </c>
+      <c r="C29">
+        <v>1573.125</v>
+      </c>
+      <c r="D29">
+        <v>4.2500930999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>34.851378269999998</v>
+      </c>
+      <c r="F29">
+        <v>2698.125</v>
+      </c>
+      <c r="G29">
+        <v>1.2916888E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.68822899800000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>58.149384189999999</v>
+      </c>
+      <c r="C30">
+        <v>1573.125</v>
+      </c>
+      <c r="D30">
+        <v>3.6964248999999998E-2</v>
+      </c>
+      <c r="E30">
+        <v>33.821264769999999</v>
+      </c>
+      <c r="F30">
+        <v>2698.125</v>
+      </c>
+      <c r="G30">
+        <v>1.2535098999999999E-2</v>
+      </c>
+      <c r="H30">
+        <v>0.60043459799999999</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/organ_measure.xlsx
+++ b/organ_measure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/435577af404d2ec7/2023/BME_M2/STAGE/Thesis/Scripts_and_venv/internship_M2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{193344A9-D23F-4537-966D-CFF4205C569F}"/>
+  <xr:revisionPtr revIDLastSave="922" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C98E9C50-8F81-47FE-98F1-31FEC8EB4D7F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="88">
   <si>
     <t>t1</t>
   </si>
@@ -280,12 +280,36 @@
   <si>
     <t>Aorta</t>
   </si>
+  <si>
+    <t>STD_HU</t>
+  </si>
+  <si>
+    <t>STD_Noise</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Dotarem</t>
+  </si>
+  <si>
+    <t>sig/voxel</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Vena cava</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,14 +324,15 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +381,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -365,26 +402,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -394,16 +416,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -746,18 +781,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1426DD-ABA7-4F24-B0C3-92136F16B0F8}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="8.77734375" style="1"/>
     <col min="13" max="13" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -795,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -838,7 +873,7 @@
         <v>134.54244660439929</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -881,7 +916,7 @@
         <v>136.15331672635199</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -924,7 +959,7 @@
         <v>91.718209304650856</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -967,7 +1002,7 @@
         <v>99.122269977973559</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1045,7 @@
         <v>126.71350468343864</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1120,7 @@
         <v>0.65614902400652164</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1128,7 +1163,7 @@
         <v>7.9216954917776555E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1206,7 @@
         <v>0.12049283224468281</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1214,7 +1249,7 @@
         <v>0.13828113968243994</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1292,7 @@
         <v>8.4020108176697431E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1367,7 @@
         <v>165.80691489160353</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1410,7 @@
         <v>112.56792010780909</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1453,7 @@
         <v>75.559928575048275</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1461,7 +1496,7 @@
         <v>102.30165289521513</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1539,7 @@
         <v>131.13826278536825</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1617,7 @@
         <v>0.916667703541862</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1660,7 @@
         <v>0.14450730306626408</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1703,7 @@
         <v>0.20620089468514763</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1711,7 +1746,7 @@
         <v>0.13986549312518567</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1783,7 @@
         <v>0.10423140845223425</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1858,7 @@
         <v>7.6649163368430901</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1866,7 +1901,7 @@
         <v>14.33758500624643</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1944,7 @@
         <v>13.325987040730949</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1952,7 +1987,7 @@
         <v>10.848579566206574</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +2030,7 @@
         <v>11.947662893218027</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +2062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2105,7 @@
         <v>2.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2148,7 @@
         <v>0.22874234040254965</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2156,7 +2191,7 @@
         <v>0.20809360344866948</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2199,7 +2234,7 @@
         <v>0.14961985211523227</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2277,7 @@
         <v>6.2815978204550121E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2274,7 +2309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2352,7 @@
         <v>46.662358953335008</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2360,7 +2395,7 @@
         <v>17.543301989033417</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2403,7 +2438,7 @@
         <v>14.82387967483789</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2446,7 +2481,7 @@
         <v>18.278911144132611</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2524,7 @@
         <v>9.6064243915701528</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2521,7 +2556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2599,7 @@
         <v>0.78218339043250518</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2607,7 +2642,7 @@
         <v>0.23794542491103751</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2650,7 +2685,7 @@
         <v>0.18979032627488532</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2693,7 +2728,7 @@
         <v>0.21097772874906814</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2736,7 +2771,7 @@
         <v>7.0839551086116309E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2768,7 +2803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2846,7 @@
         <v>41.617782414491984</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -2854,7 +2889,7 @@
         <v>21.161274400637886</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2897,7 +2932,7 @@
         <v>15.149038774547769</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -2940,7 +2975,7 @@
         <v>19.220234093671145</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2980,7 +3015,7 @@
         <v>16.65508335407289</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -3012,7 +3047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +3090,7 @@
         <v>0.57567074886822223</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>0.27652810084436646</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3141,7 +3176,7 @@
         <v>0.16975653135226823</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -3184,7 +3219,7 @@
         <v>8.6521173876796462E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3237,9 +3272,9 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -3283,7 +3318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3321,7 +3356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3359,7 +3394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3403,7 +3438,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3411,7 +3446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3419,7 +3454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3427,7 +3462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3465,7 +3500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3503,7 +3538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3547,7 +3582,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3555,7 +3590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3563,7 +3598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3580,13 +3615,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDB5C43-A793-4767-A44B-0E4A316AA30A}">
   <dimension ref="A2:AS31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT29" sqref="AT29"/>
+    <sheetView topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C30" sqref="C26:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
@@ -3600,7 +3635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3713,7 +3748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3834,7 +3869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>216</v>
       </c>
@@ -3955,7 +3990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45">
       <c r="B6">
         <v>86.431380419999996</v>
       </c>
@@ -4058,7 +4093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45">
       <c r="B7">
         <v>83.364767259999994</v>
       </c>
@@ -4161,7 +4196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45">
       <c r="B8">
         <v>68.105537720000001</v>
       </c>
@@ -4264,7 +4299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -4377,7 +4412,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45">
       <c r="B11" s="1">
         <v>74.727588019999999</v>
       </c>
@@ -4486,7 +4521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45">
       <c r="B12">
         <v>77.932947979999994</v>
       </c>
@@ -4589,7 +4624,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45">
       <c r="B13">
         <v>78.462427750000003</v>
       </c>
@@ -4692,7 +4727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45">
       <c r="B14">
         <v>73.240882819999996</v>
       </c>
@@ -4795,7 +4830,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45">
       <c r="B15">
         <v>64.233315820000001</v>
       </c>
@@ -4898,17 +4933,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" s="4" customFormat="1">
       <c r="AQ16"/>
       <c r="AR16"/>
     </row>
-    <row r="17" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
       <c r="AR17"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5021,7 +5056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -5142,7 +5177,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45">
       <c r="A20">
         <v>209</v>
       </c>
@@ -5257,7 +5292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45">
       <c r="B21">
         <v>87.565025250000005</v>
       </c>
@@ -5360,7 +5395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45">
       <c r="B22">
         <v>81.094696970000001</v>
       </c>
@@ -5463,7 +5498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45">
       <c r="B23">
         <v>66.85606061</v>
       </c>
@@ -5566,7 +5601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -5679,7 +5714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45">
       <c r="B26" s="7">
         <v>217.23547009999999</v>
       </c>
@@ -5791,7 +5826,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45">
       <c r="B27">
         <v>71.732585470000004</v>
       </c>
@@ -5894,7 +5929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45">
       <c r="B28">
         <v>70.408547010000007</v>
       </c>
@@ -5997,7 +6032,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45">
       <c r="B29">
         <v>61.890170939999997</v>
       </c>
@@ -6100,7 +6135,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45">
       <c r="B30">
         <v>54.627136749999998</v>
       </c>
@@ -6203,7 +6238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:45" s="5" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6211,13 +6246,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6BD57F-E798-4F5D-A40D-A65A808483B8}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:BS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BQ17" sqref="BQ17:BQ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
@@ -6228,967 +6263,5332 @@
     <col min="9" max="9" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:71" s="4" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="9"/>
+      <c r="BP1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" s="6" customFormat="1">
+      <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" s="4" customFormat="1">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
-        <v>-125.69433650000001</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3056.875</v>
-      </c>
-      <c r="D3" s="9">
-        <v>-4.1118572999999999E-2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>-53.167535649999998</v>
-      </c>
-      <c r="F3" s="9">
-        <v>3620.125</v>
-      </c>
-      <c r="G3" s="9">
-        <v>-1.4686657000000001E-2</v>
-      </c>
-      <c r="H3" s="9">
-        <v>-0.286310913</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3">
-        <v>-22.904305405865301</v>
-      </c>
-      <c r="K3">
-        <v>4407.25</v>
-      </c>
-      <c r="L3">
-        <v>-5.19696078186291E-3</v>
-      </c>
-      <c r="M3">
-        <v>18.340491715020601</v>
-      </c>
-      <c r="N3">
-        <v>4179.25</v>
-      </c>
-      <c r="O3">
-        <v>4.3884648477647004E-3</v>
-      </c>
-      <c r="P3">
-        <v>-0.20358344835268799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="16">
+        <v>57.409752740000002</v>
+      </c>
+      <c r="C3" s="16">
+        <v>24.99541996</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1450.875</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3.9569054999999999E-2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>60.910593939999998</v>
+      </c>
+      <c r="G3" s="10">
+        <v>51.310871030000001</v>
+      </c>
+      <c r="H3" s="10">
+        <v>2578.125</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2.3625927000000001E-2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>-6.8228059999999993E-2</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>53.798186229999999</v>
+      </c>
+      <c r="N3" s="16">
+        <v>37.246797729999997</v>
+      </c>
+      <c r="O3" s="16">
+        <v>1957.25</v>
+      </c>
+      <c r="P3" s="16">
+        <v>2.748662E-2</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>66.988530999999995</v>
+      </c>
+      <c r="R3" s="16">
+        <v>100.3304449</v>
+      </c>
+      <c r="S3" s="16">
+        <v>2844.625</v>
+      </c>
+      <c r="T3" s="16">
+        <v>2.3549160999999999E-2</v>
+      </c>
+      <c r="U3" s="16">
+        <v>-0.13146901499999999</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="16">
+        <v>50.551306959999998</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>26.780000380000001</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>1415.5</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>3.5712686E-2</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>56.34198146</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>112.4414649</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>2736.625</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>2.0588126000000002E-2</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>-5.1499457999999998E-2</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="17">
+        <v>102.10990049999999</v>
+      </c>
+      <c r="AJ3" s="17">
+        <v>131.10025529999999</v>
+      </c>
+      <c r="AK3" s="17">
+        <v>1847.125</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>5.5280450000000002E-2</v>
+      </c>
+      <c r="AM3" s="17">
+        <v>124.5188138</v>
+      </c>
+      <c r="AN3" s="17">
+        <v>173.69335839999999</v>
+      </c>
+      <c r="AO3" s="17">
+        <v>2680.875</v>
+      </c>
+      <c r="AP3" s="17">
+        <v>4.6447079000000002E-2</v>
+      </c>
+      <c r="AQ3" s="17">
+        <v>-0.12901422100000001</v>
+      </c>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10">
+        <v>75.468776289999994</v>
+      </c>
+      <c r="BF3" s="10">
+        <v>70.932912340000001</v>
+      </c>
+      <c r="BG3" s="10">
+        <v>4605.875</v>
+      </c>
+      <c r="BH3" s="10">
+        <v>1.6385329000000001E-2</v>
+      </c>
+      <c r="BI3" s="10">
+        <v>85.573135660000005</v>
+      </c>
+      <c r="BJ3" s="10">
+        <v>97.629310099999998</v>
+      </c>
+      <c r="BK3" s="10">
+        <v>4215.625</v>
+      </c>
+      <c r="BL3" s="10">
+        <v>2.0299039000000001E-2</v>
+      </c>
+      <c r="BM3" s="10">
+        <v>-0.103497191</v>
+      </c>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="4">
+        <f>AVERAGE(B3,M3,X3,AI3,AT4,BE3)</f>
+        <v>74.426182120000007</v>
+      </c>
+      <c r="BQ3" s="4">
+        <f t="shared" ref="BQ3:BS7" si="0">AVERAGE(C3,N3,Y3,AJ3,AU4,BF3)</f>
+        <v>53.175278719999994</v>
+      </c>
+      <c r="BR3" s="4">
+        <f t="shared" si="0"/>
+        <v>2341.3125</v>
+      </c>
+      <c r="BS3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5520660333333336E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" s="6" customFormat="1">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
-        <v>86.532365569999996</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3056.875</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2.830746E-2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>61.651945720000001</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3620.125</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1.7030336E-2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.48797054499999998</v>
-      </c>
-      <c r="J4">
-        <v>101.11571841851401</v>
-      </c>
-      <c r="K4">
-        <v>4407.25</v>
-      </c>
-      <c r="L4">
-        <v>2.29430412203789E-2</v>
-      </c>
-      <c r="M4">
-        <v>60.3712089489741</v>
-      </c>
-      <c r="N4">
-        <v>4179.25</v>
-      </c>
-      <c r="O4">
-        <v>1.44454648439251E-2</v>
-      </c>
-      <c r="P4">
-        <v>0.939276041906419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="12">
+        <v>86.269364100000004</v>
+      </c>
+      <c r="C4" s="12">
+        <v>18.361547680000001</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2307.75</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3.7382457000000001E-2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>60.907517779999999</v>
+      </c>
+      <c r="G4" s="12">
+        <v>54.734878629999997</v>
+      </c>
+      <c r="H4" s="12">
+        <v>3041.125</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2.0027956E-2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.46335804400000002</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>91.745001090000002</v>
+      </c>
+      <c r="N4" s="12">
+        <v>29.52324784</v>
+      </c>
+      <c r="O4" s="12">
+        <v>2300.5</v>
+      </c>
+      <c r="P4" s="12">
+        <v>3.9880460999999999E-2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>53.278073079999999</v>
+      </c>
+      <c r="R4" s="12">
+        <v>43.114855230000003</v>
+      </c>
+      <c r="S4" s="12">
+        <v>2986.625</v>
+      </c>
+      <c r="T4" s="12">
+        <v>1.7838889E-2</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0.89219661800000005</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12">
+        <v>98.300116579999994</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>33.451614499999998</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>2680.625</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>3.6670596E-2</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>42.917655760000002</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>60.930174289999997</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>3380.625</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>1.2695184E-2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>0.90894965400000005</v>
+      </c>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12">
+        <v>111.39588550000001</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>30.15497414</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>1847.125</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>6.0307713999999998E-2</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>71.467804349999994</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>53.39055956</v>
+      </c>
+      <c r="AO4" s="12">
+        <v>2680.875</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>2.6658386999999999E-2</v>
+      </c>
+      <c r="AQ4" s="12">
+        <v>0.747849086</v>
+      </c>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="10">
+        <v>107.21917000000001</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>27.996286609999999</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>2771.25</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>3.8689821999999999E-2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>75.701475380000005</v>
+      </c>
+      <c r="AY4" s="10">
+        <v>51.44625886</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>3261.875</v>
+      </c>
+      <c r="BA4" s="10">
+        <v>2.3207963000000002E-2</v>
+      </c>
+      <c r="BB4" s="10">
+        <v>0.61263336499999999</v>
+      </c>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12">
+        <v>99.392352160000002</v>
+      </c>
+      <c r="BF4" s="12">
+        <v>23.77175733</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>4605.875</v>
+      </c>
+      <c r="BH4" s="12">
+        <v>2.1579471999999999E-2</v>
+      </c>
+      <c r="BI4" s="12">
+        <v>58.078813940000003</v>
+      </c>
+      <c r="BJ4" s="12">
+        <v>46.286605299999998</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>4215.625</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>1.3777035E-2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>0.89255926100000005</v>
+      </c>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="4">
+        <f t="shared" ref="BP4:BP7" si="1">AVERAGE(B4,M4,X4,AI4,AT5,BE4)</f>
+        <v>95.347874678333326</v>
+      </c>
+      <c r="BQ4" s="4">
+        <f t="shared" si="0"/>
+        <v>25.388720928333338</v>
+      </c>
+      <c r="BR4" s="4">
+        <f t="shared" si="0"/>
+        <v>2752.1875</v>
+      </c>
+      <c r="BS4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7747866166666665E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" s="4" customFormat="1">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
-        <v>82.317562870000003</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3056.875</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2.6928665000000001E-2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>60.86253928</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3620.125</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1.6812276000000001E-2</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.433928329</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5">
-        <v>98.425066651540007</v>
-      </c>
-      <c r="K5">
-        <v>4407.25</v>
-      </c>
-      <c r="L5">
-        <v>2.2332535402243999E-2</v>
-      </c>
-      <c r="M5">
-        <v>60.336304360830198</v>
-      </c>
-      <c r="N5">
-        <v>4179.25</v>
-      </c>
-      <c r="O5">
-        <v>1.44371129654436E-2</v>
-      </c>
-      <c r="P5">
-        <v>0.89822501554003198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="10">
+        <v>80.870382410000005</v>
+      </c>
+      <c r="C5" s="10">
+        <v>16.736160219999999</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2307.75</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3.5042956E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>59.357967860000002</v>
+      </c>
+      <c r="G5" s="10">
+        <v>52.787187979999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3041.125</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.9518423999999999E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.40753098199999999</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="10">
+        <v>88.495327099999997</v>
+      </c>
+      <c r="N5" s="10">
+        <v>27.84436303</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2300.5</v>
+      </c>
+      <c r="P5" s="10">
+        <v>3.8467867000000003E-2</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>53.108734779999999</v>
+      </c>
+      <c r="R5" s="10">
+        <v>42.852591510000003</v>
+      </c>
+      <c r="S5" s="10">
+        <v>2986.625</v>
+      </c>
+      <c r="T5" s="10">
+        <v>1.7782190999999999E-2</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.82577484999999995</v>
+      </c>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10">
+        <v>95.323991609999993</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>30.777681829999999</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>2680.625</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>3.5560360999999999E-2</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>41.031022370000002</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>60.185366879999997</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>3380.625</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>1.2137111000000001E-2</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0.90209584200000004</v>
+      </c>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10">
+        <v>103.4749949</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>27.210551079999998</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>1847.125</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>5.6019487E-2</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>70.291789059999999</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>50.243320840000003</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>2680.875</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>2.6219718999999999E-2</v>
+      </c>
+      <c r="AQ5" s="10">
+        <v>0.66045009200000004</v>
+      </c>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="12">
+        <v>84.984528639999994</v>
+      </c>
+      <c r="AU5" s="12">
+        <v>17.069184079999999</v>
+      </c>
+      <c r="AV5" s="12">
+        <v>2771.25</v>
+      </c>
+      <c r="AW5" s="12">
+        <v>3.0666497000000001E-2</v>
+      </c>
+      <c r="AX5" s="12">
+        <v>67.525694580000007</v>
+      </c>
+      <c r="AY5" s="12">
+        <v>43.429166789999996</v>
+      </c>
+      <c r="AZ5" s="12">
+        <v>3261.875</v>
+      </c>
+      <c r="BA5" s="12">
+        <v>2.0701496999999999E-2</v>
+      </c>
+      <c r="BB5" s="12">
+        <v>0.40200711500000003</v>
+      </c>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10">
+        <v>96.960620950000006</v>
+      </c>
+      <c r="BF5" s="10">
+        <v>21.248362910000001</v>
+      </c>
+      <c r="BG5" s="10">
+        <v>4605.875</v>
+      </c>
+      <c r="BH5" s="10">
+        <v>2.1051508999999999E-2</v>
+      </c>
+      <c r="BI5" s="10">
+        <v>58.125100070000002</v>
+      </c>
+      <c r="BJ5" s="10">
+        <v>45.553794619999998</v>
+      </c>
+      <c r="BK5" s="10">
+        <v>4215.625</v>
+      </c>
+      <c r="BL5" s="10">
+        <v>1.3788015000000001E-2</v>
+      </c>
+      <c r="BM5" s="10">
+        <v>0.85251999700000003</v>
+      </c>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="4">
+        <f t="shared" si="1"/>
+        <v>90.504866015000005</v>
+      </c>
+      <c r="BQ5" s="4">
+        <f t="shared" si="0"/>
+        <v>23.220116743333335</v>
+      </c>
+      <c r="BR5" s="4">
+        <f t="shared" si="0"/>
+        <v>2752.1875</v>
+      </c>
+      <c r="BS5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5708939666666668E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" s="6" customFormat="1">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
-        <v>73.85753425</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3056.875</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2.4161123E-2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>57.81999931</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3620.125</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1.5971823999999999E-2</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.31003456600000001</v>
-      </c>
-      <c r="J6">
-        <v>84.865363889046407</v>
-      </c>
-      <c r="K6">
-        <v>4407.25</v>
-      </c>
-      <c r="L6">
-        <v>1.9255854305756701E-2</v>
-      </c>
-      <c r="M6">
-        <v>56.334629419154098</v>
-      </c>
-      <c r="N6">
-        <v>4179.25</v>
-      </c>
-      <c r="O6">
-        <v>1.34796026605621E-2</v>
-      </c>
-      <c r="P6">
-        <v>0.771007009188722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="12">
+        <v>73.823150249999998</v>
+      </c>
+      <c r="C6" s="12">
+        <v>16.9349402</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2307.75</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3.1989231999999999E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>57.373751489999997</v>
+      </c>
+      <c r="G6" s="12">
+        <v>55.64554124</v>
+      </c>
+      <c r="H6" s="12">
+        <v>3041.125</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1.8865962999999999E-2</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.29561036499999999</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="12">
+        <v>79.751684420000004</v>
+      </c>
+      <c r="N6" s="12">
+        <v>23.23278015</v>
+      </c>
+      <c r="O6" s="12">
+        <v>2300.5</v>
+      </c>
+      <c r="P6" s="12">
+        <v>3.4667109000000002E-2</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>52.09019378</v>
+      </c>
+      <c r="R6" s="12">
+        <v>39.592863029999997</v>
+      </c>
+      <c r="S6" s="12">
+        <v>2986.625</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1.7441155999999999E-2</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.698648406</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12">
+        <v>87.766752159999996</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>23.35505874</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>2680.625</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>3.2741153000000002E-2</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>43.907154740000003</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>57.513891630000003</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>3380.625</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>1.2987881E-2</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>0.76259136999999999</v>
+      </c>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12">
+        <v>88.126886380000002</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>21.671017899999999</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>1847.125</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>4.7710298999999998E-2</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>66.868746209999998</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>45.111611230000001</v>
+      </c>
+      <c r="AO6" s="12">
+        <v>2680.875</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>2.4942881E-2</v>
+      </c>
+      <c r="AQ6" s="12">
+        <v>0.47123433599999998</v>
+      </c>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="10">
+        <v>77.903879119999999</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>15.503581390000001</v>
+      </c>
+      <c r="AV6" s="10">
+        <v>2771.25</v>
+      </c>
+      <c r="AW6" s="10">
+        <v>2.8111457999999999E-2</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>63.4569841</v>
+      </c>
+      <c r="AY6" s="10">
+        <v>45.03086313</v>
+      </c>
+      <c r="AZ6" s="10">
+        <v>3261.875</v>
+      </c>
+      <c r="BA6" s="10">
+        <v>1.9454143E-2</v>
+      </c>
+      <c r="BB6" s="10">
+        <v>0.32082207699999998</v>
+      </c>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12">
+        <v>87.901891610000007</v>
+      </c>
+      <c r="BF6" s="12">
+        <v>17.259277480000002</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>4605.875</v>
+      </c>
+      <c r="BH6" s="12">
+        <v>1.9084732E-2</v>
+      </c>
+      <c r="BI6" s="12">
+        <v>59.959406970000003</v>
+      </c>
+      <c r="BJ6" s="12">
+        <v>39.744016119999998</v>
+      </c>
+      <c r="BK6" s="12">
+        <v>4215.625</v>
+      </c>
+      <c r="BL6" s="12">
+        <v>1.4223136000000001E-2</v>
+      </c>
+      <c r="BM6" s="12">
+        <v>0.70306142599999999</v>
+      </c>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP6" s="4">
+        <f t="shared" si="1"/>
+        <v>80.784310539999993</v>
+      </c>
+      <c r="BQ6" s="4">
+        <f t="shared" si="0"/>
+        <v>19.603873211666667</v>
+      </c>
+      <c r="BR6" s="4">
+        <f t="shared" si="0"/>
+        <v>2752.1875</v>
+      </c>
+      <c r="BS6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1748400666666662E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" s="4" customFormat="1">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
-        <v>59.523737480000001</v>
-      </c>
-      <c r="C7" s="9">
-        <v>3056.875</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1.9472087999999999E-2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>51.007838130000003</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3620.125</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1.4090076E-2</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.15743144100000001</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7">
-        <v>65.870043678030498</v>
-      </c>
-      <c r="K7">
-        <v>4407.25</v>
-      </c>
-      <c r="L7">
-        <v>1.49458378077101E-2</v>
-      </c>
-      <c r="M7">
-        <v>49.521983609499301</v>
-      </c>
-      <c r="N7">
-        <v>4179.25</v>
-      </c>
-      <c r="O7">
-        <v>1.1849490604653699E-2</v>
-      </c>
-      <c r="P7">
-        <v>0.44583083915348898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="10">
+        <v>58.905806519999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>17.94478586</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2307.75</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2.5525210999999999E-2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>49.583090140000003</v>
+      </c>
+      <c r="G7" s="10">
+        <v>58.284113339999998</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3041.125</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.6304193000000002E-2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.15995295900000001</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="10">
+        <v>62.330199960000002</v>
+      </c>
+      <c r="N7" s="10">
+        <v>26.921610520000002</v>
+      </c>
+      <c r="O7" s="10">
+        <v>2300.5</v>
+      </c>
+      <c r="P7" s="10">
+        <v>2.7094197E-2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>45.553090859999998</v>
+      </c>
+      <c r="R7" s="10">
+        <v>38.624273559999999</v>
+      </c>
+      <c r="S7" s="10">
+        <v>2986.625</v>
+      </c>
+      <c r="T7" s="10">
+        <v>1.5252363999999999E-2</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0.43436698099999999</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10">
+        <v>75.512753559999993</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>22.946200789999999</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>2680.625</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>2.8169830999999999E-2</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>41.59959327</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>57.48405005</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>3380.625</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>1.2305297E-2</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0.58995774099999998</v>
+      </c>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10">
+        <v>74.291398799999996</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>19.907771440000001</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>1847.125</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>4.0220016999999997E-2</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>57.858301859999997</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>75.025783599999997</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>2680.875</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>2.1581871999999998E-2</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>0.21903265999999999</v>
+      </c>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="12">
+        <v>67.335498419999993</v>
+      </c>
+      <c r="AU7" s="12">
+        <v>15.1701648</v>
+      </c>
+      <c r="AV7" s="12">
+        <v>2771.25</v>
+      </c>
+      <c r="AW7" s="12">
+        <v>2.4297879000000001E-2</v>
+      </c>
+      <c r="AX7" s="12">
+        <v>56.2445296</v>
+      </c>
+      <c r="AY7" s="12">
+        <v>52.873197019999999</v>
+      </c>
+      <c r="AZ7" s="12">
+        <v>3261.875</v>
+      </c>
+      <c r="BA7" s="12">
+        <v>1.7243006000000002E-2</v>
+      </c>
+      <c r="BB7" s="12">
+        <v>0.209765428</v>
+      </c>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10">
+        <v>67.932966050000005</v>
+      </c>
+      <c r="BF7" s="10">
+        <v>19.040660670000001</v>
+      </c>
+      <c r="BG7" s="10">
+        <v>4605.875</v>
+      </c>
+      <c r="BH7" s="10">
+        <v>1.4749198999999999E-2</v>
+      </c>
+      <c r="BI7" s="10">
+        <v>46.01141586</v>
+      </c>
+      <c r="BJ7" s="10">
+        <v>61.664089339999997</v>
+      </c>
+      <c r="BK7" s="10">
+        <v>4215.625</v>
+      </c>
+      <c r="BL7" s="10">
+        <v>1.0914494E-2</v>
+      </c>
+      <c r="BM7" s="10">
+        <v>0.35549945599999999</v>
+      </c>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP7" s="4">
+        <f t="shared" si="1"/>
+        <v>67.794624978000002</v>
+      </c>
+      <c r="BQ7" s="4">
+        <f t="shared" si="0"/>
+        <v>21.352205856000001</v>
+      </c>
+      <c r="BR7" s="4">
+        <f t="shared" si="0"/>
+        <v>2748.375</v>
+      </c>
+      <c r="BS7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7151690999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" s="6" customFormat="1">
+      <c r="A8" s="12">
+        <v>215</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12">
+        <v>209</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="12">
+        <v>240</v>
+      </c>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="12">
+        <v>197</v>
+      </c>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="12">
+        <v>240</v>
+      </c>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="12">
+        <v>240</v>
+      </c>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" s="4" customFormat="1">
+      <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="N9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="P9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="Q9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="R9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="T9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="U9" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="V9" s="9"/>
+      <c r="W9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>67.996102879999995</v>
-      </c>
-      <c r="C10">
+      <c r="BP9" s="4">
+        <f>AVERAGE(B10,M10,X10,AI10,AT10,BE10)</f>
+        <v>48.202060703977651</v>
+      </c>
+      <c r="BQ9" s="4">
+        <f t="shared" ref="BQ4:BQ13" si="2">AVERAGE(C10,N10,Y10,AJ10,AU10,BF10)</f>
+        <v>66.267198298233311</v>
+      </c>
+      <c r="BR9" s="4">
+        <f t="shared" ref="BR4:BR13" si="3">AVERAGE(D10,O10,Z10,AK10,AV10,BG10)</f>
+        <v>2723.9791666666665</v>
+      </c>
+      <c r="BS9" s="4">
+        <f t="shared" ref="BS4:BS13" si="4">AVERAGE(E10,P10,AA10,AL10,AW10,BH10)</f>
+        <v>2.2343671991154918E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" s="6" customFormat="1">
+      <c r="A10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="12">
+        <v>67.996102883865902</v>
+      </c>
+      <c r="C10" s="12">
+        <v>97.234025359399894</v>
+      </c>
+      <c r="D10" s="12">
         <v>1924.5</v>
       </c>
-      <c r="D10">
-        <v>3.5331828000000003E-2</v>
-      </c>
-      <c r="E10">
-        <v>83.7487268</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="12">
+        <v>3.5331827946929503E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>83.748726801898997</v>
+      </c>
+      <c r="G10" s="12">
+        <v>128.90028115219599</v>
+      </c>
+      <c r="H10" s="12">
         <v>2896.25</v>
       </c>
-      <c r="G10">
-        <v>2.8916263000000001E-2</v>
-      </c>
-      <c r="H10">
-        <v>-0.122207832</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="12">
+        <v>2.8916263030435499E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>-0.122207832110416</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
         <v>58.386168720000001</v>
       </c>
-      <c r="K10" s="6">
+      <c r="N10" s="12">
+        <v>74.922727350000002</v>
+      </c>
+      <c r="O10" s="12">
         <v>2055.125</v>
       </c>
-      <c r="L10" s="6">
+      <c r="P10" s="12">
         <v>2.8410033000000001E-2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="Q10" s="12">
         <v>72.402891080000003</v>
       </c>
-      <c r="N10" s="6">
+      <c r="R10" s="12">
+        <v>127.98409359999999</v>
+      </c>
+      <c r="S10" s="12">
         <v>2957.375</v>
       </c>
-      <c r="O10" s="6">
+      <c r="T10" s="12">
         <v>2.4482147999999999E-2</v>
       </c>
-      <c r="P10" s="6">
+      <c r="U10" s="12">
         <v>-0.109519253</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="V10" s="9"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12">
+        <v>51.263769289999999</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>41.825529469999999</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>2162.875</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>2.3701679E-2</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>55.285505739999998</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>132.31934559999999</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>3253.875</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>1.6990667000000001E-2</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>-3.0394167999999999E-2</v>
+      </c>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12">
+        <v>47.453709480000001</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>26.862267190000001</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>1604</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>2.9584606999999999E-2</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>58.740696280000002</v>
+      </c>
+      <c r="AN10" s="12">
+        <v>122.10421100000001</v>
+      </c>
+      <c r="AO10" s="12">
+        <v>2603.125</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>2.2565453999999999E-2</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>-9.2437326E-2</v>
+      </c>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12">
+        <v>38.45528341</v>
+      </c>
+      <c r="AU10" s="12">
+        <v>74.004443420000001</v>
+      </c>
+      <c r="AV10" s="12">
+        <v>6236.5</v>
+      </c>
+      <c r="AW10" s="12">
+        <v>6.166164E-3</v>
+      </c>
+      <c r="AX10" s="12">
+        <v>27.422575349999999</v>
+      </c>
+      <c r="AY10" s="12">
+        <v>122.93773229999999</v>
+      </c>
+      <c r="AZ10" s="12">
+        <v>4869.25</v>
+      </c>
+      <c r="BA10" s="12">
+        <v>5.6317859999999997E-3</v>
+      </c>
+      <c r="BB10" s="12">
+        <v>8.9742244999999998E-2</v>
+      </c>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12">
+        <v>25.657330439999999</v>
+      </c>
+      <c r="BF10" s="12">
+        <v>82.754197000000005</v>
+      </c>
+      <c r="BG10" s="12">
+        <v>2360.875</v>
+      </c>
+      <c r="BH10" s="12">
+        <v>1.0867721E-2</v>
+      </c>
+      <c r="BI10" s="12">
+        <v>16.123674380000001</v>
+      </c>
+      <c r="BJ10" s="12">
+        <v>182.7003436</v>
+      </c>
+      <c r="BK10" s="12">
+        <v>3347.5</v>
+      </c>
+      <c r="BL10" s="12">
+        <v>4.8166320000000004E-3</v>
+      </c>
+      <c r="BM10" s="12">
+        <v>5.2181927000000003E-2</v>
+      </c>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>87.563782799999998</v>
-      </c>
-      <c r="C11">
+      <c r="BP10" s="6">
+        <f t="shared" ref="BP4:BP13" si="5">AVERAGE(B11,M11,X11,AI11,AT11,BE11)</f>
+        <v>74.208596095121223</v>
+      </c>
+      <c r="BQ10" s="6">
+        <f t="shared" si="2"/>
+        <v>26.320449097278583</v>
+      </c>
+      <c r="BR10" s="6">
+        <f t="shared" si="3"/>
+        <v>2815.3125</v>
+      </c>
+      <c r="BS10" s="6">
+        <f t="shared" si="4"/>
+        <v>3.1500426738046879E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" s="4" customFormat="1">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>87.563782800727395</v>
+      </c>
+      <c r="C11" s="10">
+        <v>30.9177123036715</v>
+      </c>
+      <c r="D11" s="10">
         <v>1924.5</v>
       </c>
-      <c r="D11">
-        <v>4.5499497E-2</v>
-      </c>
-      <c r="E11">
-        <v>45.313552010000002</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="10">
+        <v>4.5499497428281299E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>45.313552006905397</v>
+      </c>
+      <c r="G11" s="10">
+        <v>48.833020803432902</v>
+      </c>
+      <c r="H11" s="10">
         <v>2896.25</v>
       </c>
-      <c r="G11">
-        <v>1.5645593999999999E-2</v>
-      </c>
-      <c r="H11">
-        <v>0.86519797700000001</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4">
+      <c r="I11" s="10">
+        <v>1.5645594132725201E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.86519797667015896</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
         <v>65.02700566</v>
       </c>
-      <c r="K11" s="4">
+      <c r="N11" s="10">
+        <v>23.255440709999998</v>
+      </c>
+      <c r="O11" s="10">
         <v>2055.125</v>
       </c>
-      <c r="L11" s="4">
+      <c r="P11" s="10">
         <v>3.1641387E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="Q11" s="10">
         <v>37.003930850000003</v>
       </c>
-      <c r="N11" s="4">
+      <c r="R11" s="10">
+        <v>45.368101340000003</v>
+      </c>
+      <c r="S11" s="10">
         <v>2957.375</v>
       </c>
-      <c r="O11" s="4">
+      <c r="T11" s="10">
         <v>1.2512423999999999E-2</v>
       </c>
-      <c r="P11" s="4">
+      <c r="U11" s="10">
         <v>0.617682336</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="16">
+        <v>75.981694099999999</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>35.493284099999997</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>2710.875</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>2.8028476E-2</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>38.132463199999997</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>63.79951114</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>3601</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>1.0589408999999999E-2</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>0.593252679</v>
+      </c>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10">
+        <v>73.569124059999993</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>24.54358414</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>1604</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>4.5866036999999998E-2</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>35.119183669999998</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>73.513658379999995</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>2603.125</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>1.3491163E-2</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>0.52303124700000003</v>
+      </c>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10">
+        <v>86.048604990000001</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>18.24312626</v>
+      </c>
+      <c r="AV11" s="10">
+        <v>6236.5</v>
+      </c>
+      <c r="AW11" s="10">
+        <v>1.379758E-2</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>56.123889720000001</v>
+      </c>
+      <c r="AY11" s="10">
+        <v>53.212396339999998</v>
+      </c>
+      <c r="AZ11" s="10">
+        <v>4869.25</v>
+      </c>
+      <c r="BA11" s="10">
+        <v>1.1526188E-2</v>
+      </c>
+      <c r="BB11" s="10">
+        <v>0.56236360900000004</v>
+      </c>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10">
+        <v>57.061364959999999</v>
+      </c>
+      <c r="BF11" s="10">
+        <v>25.469547070000001</v>
+      </c>
+      <c r="BG11" s="10">
+        <v>2360.875</v>
+      </c>
+      <c r="BH11" s="10">
+        <v>2.4169583000000001E-2</v>
+      </c>
+      <c r="BI11" s="10">
+        <v>33.141000750000003</v>
+      </c>
+      <c r="BJ11" s="10">
+        <v>80.619652000000002</v>
+      </c>
+      <c r="BK11" s="10">
+        <v>3347.5</v>
+      </c>
+      <c r="BL11" s="10">
+        <v>9.9002239999999991E-3</v>
+      </c>
+      <c r="BM11" s="10">
+        <v>0.29670636900000003</v>
+      </c>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>79.117563000000004</v>
-      </c>
-      <c r="C12">
+      <c r="BP11" s="4">
+        <f t="shared" si="5"/>
+        <v>70.712062505562912</v>
+      </c>
+      <c r="BQ11" s="4">
+        <f t="shared" si="2"/>
+        <v>23.904684290768984</v>
+      </c>
+      <c r="BR11" s="4">
+        <f t="shared" si="3"/>
+        <v>2723.9791666666665</v>
+      </c>
+      <c r="BS11" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1187472305956299E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" s="6" customFormat="1">
+      <c r="A12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12">
+        <v>79.117563003377498</v>
+      </c>
+      <c r="C12" s="12">
+        <v>24.966822894613902</v>
+      </c>
+      <c r="D12" s="12">
         <v>1924.5</v>
       </c>
-      <c r="D12">
-        <v>4.1110711000000001E-2</v>
-      </c>
-      <c r="E12">
-        <v>43.292576609999998</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="12">
+        <v>4.11107108357378E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>43.2925766076823</v>
+      </c>
+      <c r="G12" s="12">
+        <v>45.823475646140899</v>
+      </c>
+      <c r="H12" s="12">
         <v>2896.25</v>
       </c>
-      <c r="G12">
-        <v>1.4947804E-2</v>
-      </c>
-      <c r="H12">
-        <v>0.78180421499999997</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="I12" s="12">
+        <v>1.4947803748876E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.78180421477287398</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="12">
         <v>63.670944589999998</v>
       </c>
-      <c r="K12" s="6">
+      <c r="N12" s="12">
+        <v>22.000525029999999</v>
+      </c>
+      <c r="O12" s="12">
         <v>2055.125</v>
       </c>
-      <c r="L12" s="6">
+      <c r="P12" s="12">
         <v>3.0981544E-2</v>
       </c>
-      <c r="M12" s="6">
+      <c r="Q12" s="12">
         <v>36.278836810000001</v>
       </c>
-      <c r="N12" s="6">
+      <c r="R12" s="12">
+        <v>44.469359859999997</v>
+      </c>
+      <c r="S12" s="12">
         <v>2957.375</v>
       </c>
-      <c r="O12" s="6">
+      <c r="T12" s="12">
         <v>1.2267243000000001E-2</v>
       </c>
-      <c r="P12" s="6">
+      <c r="U12" s="12">
         <v>0.61597710999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="V12" s="9"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12">
+        <v>72.865283480000002</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>26.2415713</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>2162.875</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>3.3689087E-2</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>30.359801770000001</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>54.79455909</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>3253.875</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>9.3303529999999996E-3</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0.77572449499999996</v>
+      </c>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12">
+        <v>73.552836659999997</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>23.417348449999999</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>1604</v>
+      </c>
+      <c r="AL12" s="12">
+        <v>4.5855883E-2</v>
+      </c>
+      <c r="AM12" s="12">
+        <v>34.688211279999997</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>75.407640509999993</v>
+      </c>
+      <c r="AO12" s="12">
+        <v>2603.125</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>1.3325603E-2</v>
+      </c>
+      <c r="AQ12" s="12">
+        <v>0.51539373300000002</v>
+      </c>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12">
+        <v>82.52405195</v>
+      </c>
+      <c r="AU12" s="12">
+        <v>20.21528391</v>
+      </c>
+      <c r="AV12" s="12">
+        <v>6236.5</v>
+      </c>
+      <c r="AW12" s="12">
+        <v>1.323243E-2</v>
+      </c>
+      <c r="AX12" s="12">
+        <v>53.537916520000003</v>
+      </c>
+      <c r="AY12" s="12">
+        <v>51.457854400000002</v>
+      </c>
+      <c r="AZ12" s="12">
+        <v>4869.25</v>
+      </c>
+      <c r="BA12" s="12">
+        <v>1.0995105E-2</v>
+      </c>
+      <c r="BB12" s="12">
+        <v>0.56329856300000003</v>
+      </c>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12">
+        <v>52.541695349999998</v>
+      </c>
+      <c r="BF12" s="12">
+        <v>26.586554159999999</v>
+      </c>
+      <c r="BG12" s="12">
+        <v>2360.875</v>
+      </c>
+      <c r="BH12" s="12">
+        <v>2.2255179E-2</v>
+      </c>
+      <c r="BI12" s="12">
+        <v>34.544361459999998</v>
+      </c>
+      <c r="BJ12" s="12">
+        <v>61.686753039999999</v>
+      </c>
+      <c r="BK12" s="12">
+        <v>3347.5</v>
+      </c>
+      <c r="BL12" s="12">
+        <v>1.0319451E-2</v>
+      </c>
+      <c r="BM12" s="12">
+        <v>0.29175362599999999</v>
+      </c>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>72.459080279999995</v>
-      </c>
-      <c r="C13">
+      <c r="BP12" s="6">
+        <f t="shared" si="5"/>
+        <v>63.180655873432045</v>
+      </c>
+      <c r="BQ12" s="6">
+        <f t="shared" si="2"/>
+        <v>29.855919365346697</v>
+      </c>
+      <c r="BR12" s="6">
+        <f t="shared" si="3"/>
+        <v>2723.9791666666665</v>
+      </c>
+      <c r="BS12" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8050714851571169E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" s="4" customFormat="1">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>72.459080280592303</v>
+      </c>
+      <c r="C13" s="10">
+        <v>23.0882770820802</v>
+      </c>
+      <c r="D13" s="10">
         <v>1924.5</v>
       </c>
-      <c r="D13">
-        <v>3.7650860000000001E-2</v>
-      </c>
-      <c r="E13">
-        <v>42.332067330000001</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="10">
+        <v>3.7650860109427003E-2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>42.332067328441902</v>
+      </c>
+      <c r="G13" s="10">
+        <v>49.893169893125098</v>
+      </c>
+      <c r="H13" s="10">
         <v>2896.25</v>
       </c>
-      <c r="G13">
-        <v>1.4616165E-2</v>
-      </c>
-      <c r="H13">
-        <v>0.60383040399999999</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4">
+      <c r="I13" s="10">
+        <v>1.46161648091297E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.60383040437568303</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="10">
         <v>57.911927499999997</v>
       </c>
-      <c r="K13" s="4">
+      <c r="N13" s="10">
+        <v>22.464007219999999</v>
+      </c>
+      <c r="O13" s="10">
         <v>2055.125</v>
       </c>
-      <c r="L13" s="4">
+      <c r="P13" s="10">
         <v>2.8179273000000001E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="Q13" s="10">
         <v>35.56591572</v>
       </c>
-      <c r="N13" s="4">
+      <c r="R13" s="10">
+        <v>44.855668790000003</v>
+      </c>
+      <c r="S13" s="10">
         <v>2957.375</v>
       </c>
-      <c r="O13" s="4">
+      <c r="T13" s="10">
         <v>1.2026177000000001E-2</v>
       </c>
-      <c r="P13" s="4">
+      <c r="U13" s="10">
         <v>0.49817586899999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="V13" s="9"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10">
+        <v>67.257007459999997</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>27.74217299</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>2162.875</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>3.1096114000000001E-2</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>26.104452380000001</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>53.93194811</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>3253.875</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>8.0225739999999993E-3</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>0.76304595900000005</v>
+      </c>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10">
+        <v>67.50280549</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>22.845821709999999</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>1604</v>
+      </c>
+      <c r="AL13" s="10">
+        <v>4.2084043000000002E-2</v>
+      </c>
+      <c r="AM13" s="10">
+        <v>31.68787515</v>
+      </c>
+      <c r="AN13" s="10">
+        <v>79.216929570000005</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>2603.125</v>
+      </c>
+      <c r="AP13" s="10">
+        <v>1.2173013E-2</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>0.45211207399999997</v>
+      </c>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10">
+        <v>72.080133090000004</v>
+      </c>
+      <c r="AU13" s="10">
+        <v>18.348364050000001</v>
+      </c>
+      <c r="AV13" s="10">
+        <v>6236.5</v>
+      </c>
+      <c r="AW13" s="10">
+        <v>1.1557786E-2</v>
+      </c>
+      <c r="AX13" s="10">
+        <v>48.577219280000001</v>
+      </c>
+      <c r="AY13" s="10">
+        <v>42.716211199999996</v>
+      </c>
+      <c r="AZ13" s="10">
+        <v>4869.25</v>
+      </c>
+      <c r="BA13" s="10">
+        <v>9.9763249999999994E-3</v>
+      </c>
+      <c r="BB13" s="10">
+        <v>0.55021063800000003</v>
+      </c>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10">
+        <v>41.872981420000002</v>
+      </c>
+      <c r="BF13" s="10">
+        <v>64.646873139999997</v>
+      </c>
+      <c r="BG13" s="10">
+        <v>2360.875</v>
+      </c>
+      <c r="BH13" s="10">
+        <v>1.7736213000000001E-2</v>
+      </c>
+      <c r="BI13" s="10">
+        <v>18.202315160000001</v>
+      </c>
+      <c r="BJ13" s="10">
+        <v>117.77072250000001</v>
+      </c>
+      <c r="BK13" s="10">
+        <v>3347.5</v>
+      </c>
+      <c r="BL13" s="10">
+        <v>5.437585E-3</v>
+      </c>
+      <c r="BM13" s="10">
+        <v>0.20098939499999999</v>
+      </c>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
-        <v>57.425305270000003</v>
-      </c>
-      <c r="C14">
+      <c r="BP13" s="4">
+        <f t="shared" si="5"/>
+        <v>53.146133306819422</v>
+      </c>
+      <c r="BQ13" s="4">
+        <f t="shared" si="2"/>
+        <v>34.536223786286136</v>
+      </c>
+      <c r="BR13" s="4">
+        <f t="shared" si="3"/>
+        <v>2857.75</v>
+      </c>
+      <c r="BS13" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3365923364988002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" s="6" customFormat="1">
+      <c r="A14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12">
+        <v>57.425305274097099</v>
+      </c>
+      <c r="C14" s="12">
+        <v>25.949512181430698</v>
+      </c>
+      <c r="D14" s="12">
         <v>1924.5</v>
       </c>
-      <c r="D14">
-        <v>2.9839078000000002E-2</v>
-      </c>
-      <c r="E14">
-        <v>39.396374620000003</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="12">
+        <v>2.983907782494E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>39.396374622356497</v>
+      </c>
+      <c r="G14" s="12">
+        <v>38.074341618234001</v>
+      </c>
+      <c r="H14" s="12">
         <v>2896.25</v>
       </c>
-      <c r="G14">
-        <v>1.3602546E-2</v>
-      </c>
-      <c r="H14">
-        <v>0.47351916999999999</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="I14" s="12">
+        <v>1.3602546265811401E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.47351917027257201</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="9"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12">
+        <v>56.128012480000002</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>31.611799520000002</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>2162.875</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>2.5950649999999999E-2</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>22.386577540000001</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>52.31866058</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>3253.875</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>6.879975E-3</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>0.64492161199999998</v>
+      </c>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12">
+        <v>57.123986909999999</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>36.685287209999998</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>1604</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>3.5613458000000001E-2</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>25.23889556</v>
+      </c>
+      <c r="AN14" s="12">
+        <v>97.128442449999994</v>
+      </c>
+      <c r="AO14" s="12">
+        <v>2603.125</v>
+      </c>
+      <c r="AP14" s="12">
+        <v>9.695614E-3</v>
+      </c>
+      <c r="AQ14" s="12">
+        <v>0.32827759400000001</v>
+      </c>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12">
+        <v>56.360398459999999</v>
+      </c>
+      <c r="AU14" s="12">
+        <v>31.466200860000001</v>
+      </c>
+      <c r="AV14" s="12">
+        <v>6236.5</v>
+      </c>
+      <c r="AW14" s="12">
+        <v>9.0371840000000002E-3</v>
+      </c>
+      <c r="AX14" s="12">
+        <v>35.636674030000002</v>
+      </c>
+      <c r="AY14" s="12">
+        <v>55.94655041</v>
+      </c>
+      <c r="AZ14" s="12">
+        <v>4869.25</v>
+      </c>
+      <c r="BA14" s="12">
+        <v>7.3187189999999996E-3</v>
+      </c>
+      <c r="BB14" s="12">
+        <v>0.370420058</v>
+      </c>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12">
+        <v>38.692963409999997</v>
+      </c>
+      <c r="BF14" s="12">
+        <v>46.96831916</v>
+      </c>
+      <c r="BG14" s="12">
+        <v>2360.875</v>
+      </c>
+      <c r="BH14" s="12">
+        <v>1.6389246999999999E-2</v>
+      </c>
+      <c r="BI14" s="12">
+        <v>25.258401790000001</v>
+      </c>
+      <c r="BJ14" s="12">
+        <v>76.056009459999999</v>
+      </c>
+      <c r="BK14" s="12">
+        <v>3347.5</v>
+      </c>
+      <c r="BL14" s="12">
+        <v>7.5454520000000002E-3</v>
+      </c>
+      <c r="BM14" s="12">
+        <v>0.17664036999999999</v>
+      </c>
+      <c r="BN14" s="9"/>
+    </row>
+    <row r="15" spans="1:71">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="13"/>
+      <c r="BH15" s="13"/>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="9"/>
+      <c r="BP15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="BQ15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" s="8" customFormat="1">
+      <c r="A16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="14"/>
+      <c r="BM16" s="14"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS16" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71" s="6" customFormat="1">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B18">
-        <v>180.78447550000001</v>
-      </c>
-      <c r="C18">
-        <v>2212.625</v>
-      </c>
-      <c r="D18">
-        <v>8.1705880999999994E-2</v>
-      </c>
-      <c r="E18">
-        <v>106.699786</v>
-      </c>
-      <c r="F18">
-        <v>3271</v>
-      </c>
-      <c r="G18">
-        <v>3.2619927999999999E-2</v>
-      </c>
-      <c r="H18">
-        <v>0.43486690500000003</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="BP17" s="6">
+        <f>AVERAGE(B18,M18,X18,AI18,AT19,BE18)</f>
+        <v>260.33273061046685</v>
+      </c>
+      <c r="BQ17" s="6">
+        <f>AVERAGE(C18,N18,Y18,AJ18,AU19,BF18)</f>
+        <v>200.17276190279131</v>
+      </c>
+      <c r="BR17" s="6">
+        <f>AVERAGE(D18,O18,Z18,AK18,AV19,BG18)</f>
+        <v>2029.0208333333333</v>
+      </c>
+      <c r="BS17" s="6">
+        <f>AVERAGE(E18,P18,AA18,AL18,AW19,BH18)</f>
+        <v>0.14282244999494054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71" s="8" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
+        <v>128.98326969802099</v>
+      </c>
+      <c r="C18" s="14">
+        <v>124.93810059693701</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1800.625</v>
+      </c>
+      <c r="E18" s="14">
+        <v>7.1632499658741494E-2</v>
+      </c>
+      <c r="F18" s="14">
+        <v>99.617689530685894</v>
+      </c>
+      <c r="G18" s="14">
+        <v>104.078359526548</v>
+      </c>
+      <c r="H18" s="14">
+        <v>2770</v>
+      </c>
+      <c r="I18" s="14">
+        <v>3.5963064812521997E-2</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.28214876080790702</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>260.12303209999999</v>
+      </c>
+      <c r="N18" s="14">
+        <v>245.06438220000001</v>
+      </c>
+      <c r="O18" s="14">
+        <v>1286.25</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0.20223364999999999</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>190.22861140000001</v>
+      </c>
+      <c r="R18" s="14">
+        <v>233.8529446</v>
+      </c>
+      <c r="S18" s="14">
+        <v>2504.25</v>
+      </c>
+      <c r="T18" s="14">
+        <v>7.5962309000000006E-2</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0.29888193499999999</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <v>416.30982549999999</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>311.5015818</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>2041.875</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>0.20388604900000001</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>145.6049443</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>237.46179599999999</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>3311.875</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>4.3964505000000001E-2</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>1.1399934039999999</v>
+      </c>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14">
+        <v>405.12448549999999</v>
+      </c>
+      <c r="AJ18" s="14">
+        <v>297.90534339999999</v>
+      </c>
+      <c r="AK18" s="14">
+        <v>1609.625</v>
+      </c>
+      <c r="AL18" s="14">
+        <v>0.25168873800000002</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>210.21951100000001</v>
+      </c>
+      <c r="AN18" s="14">
+        <v>255.5700909</v>
+      </c>
+      <c r="AO18" s="14">
+        <v>2546</v>
+      </c>
+      <c r="AP18" s="14">
+        <v>8.2568542999999994E-2</v>
+      </c>
+      <c r="AQ18" s="14">
+        <v>0.76262826299999997</v>
+      </c>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14">
+        <v>254.20456390000001</v>
+      </c>
+      <c r="BF18" s="14">
+        <v>190.1857503</v>
+      </c>
+      <c r="BG18" s="14">
+        <v>3856.375</v>
+      </c>
+      <c r="BH18" s="14">
+        <v>6.5918009E-2</v>
+      </c>
+      <c r="BI18" s="14">
+        <v>162.40731289999999</v>
+      </c>
+      <c r="BJ18" s="14">
+        <v>172.25469330000001</v>
+      </c>
+      <c r="BK18" s="14">
+        <v>4163.875</v>
+      </c>
+      <c r="BL18" s="14">
+        <v>3.9003888E-2</v>
+      </c>
+      <c r="BM18" s="14">
+        <v>0.53291581899999996</v>
+      </c>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B19">
-        <v>82.193265920000002</v>
-      </c>
-      <c r="C19">
-        <v>2212.625</v>
-      </c>
-      <c r="D19">
-        <v>3.7147399999999997E-2</v>
-      </c>
-      <c r="E19">
-        <v>54.595077959999998</v>
-      </c>
-      <c r="F19">
-        <v>3271</v>
-      </c>
-      <c r="G19">
-        <v>1.6690638000000001E-2</v>
-      </c>
-      <c r="H19">
-        <v>0.77859506899999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="BP18" s="8">
+        <f>AVERAGE(B19,M19,X19,AI19,AT20,BE19)</f>
+        <v>92.02282837709231</v>
+      </c>
+      <c r="BQ18" s="8">
+        <f>AVERAGE(C19,N19,Y19,AJ19,AU20,BF19)</f>
+        <v>29.948867212616431</v>
+      </c>
+      <c r="BR18" s="8">
+        <f>AVERAGE(D19,O19,Z19,AK19,AV20,BG19)</f>
+        <v>2029.0208333333333</v>
+      </c>
+      <c r="BS18" s="8">
+        <f>AVERAGE(E19,P19,AA19,AL19,AW20,BH19)</f>
+        <v>5.0975481498100765E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71" s="6" customFormat="1">
+      <c r="A19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12">
+        <v>81.926067337729904</v>
+      </c>
+      <c r="C19" s="12">
+        <v>25.9010616694897</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1800.625</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4.5498683700231801E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>54.479377256317598</v>
+      </c>
+      <c r="G19" s="12">
+        <v>34.486673101849803</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2770</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1.9667645218887201E-2</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.79586366595448899</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12">
+        <v>89.220213799999996</v>
+      </c>
+      <c r="N19" s="12">
+        <v>32.849113180000003</v>
+      </c>
+      <c r="O19" s="12">
+        <v>1286.25</v>
+      </c>
+      <c r="P19" s="12">
+        <v>6.9364598E-2</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>39.952930019999997</v>
+      </c>
+      <c r="R19" s="12">
+        <v>50.831134779999999</v>
+      </c>
+      <c r="S19" s="12">
+        <v>2504.25</v>
+      </c>
+      <c r="T19" s="12">
+        <v>1.5954050000000001E-2</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0.96923438699999998</v>
+      </c>
+      <c r="V19" s="9"/>
+      <c r="W19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" s="12">
+        <v>87.853137430000004</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>37.082738810000002</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>2041.875</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>4.3025717999999998E-2</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>41.197961880000001</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>61.03978102</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>3311.875</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>1.2439468E-2</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>0.76434048099999996</v>
+      </c>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12">
+        <v>108.4699076</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>33.902911949999996</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>1609.625</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>6.7388308999999993E-2</v>
+      </c>
+      <c r="AM19" s="12">
+        <v>68.931068339999996</v>
+      </c>
+      <c r="AN19" s="12">
+        <v>33.597654630000001</v>
+      </c>
+      <c r="AO19" s="12">
+        <v>2546</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>2.7074260999999999E-2</v>
+      </c>
+      <c r="AQ19" s="12">
+        <v>1.176833314</v>
+      </c>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19">
+        <v>97.251206964780295</v>
+      </c>
+      <c r="AU19">
+        <v>31.4414131198109</v>
+      </c>
+      <c r="AV19">
+        <v>1579.375</v>
+      </c>
+      <c r="AW19">
+        <v>6.1575754310901697E-2</v>
+      </c>
+      <c r="AX19">
+        <v>61.779143442427703</v>
+      </c>
+      <c r="AY19">
+        <v>50.743170280752501</v>
+      </c>
+      <c r="AZ19">
+        <v>2623.875</v>
+      </c>
+      <c r="BA19">
+        <v>2.3545002502949899E-2</v>
+      </c>
+      <c r="BB19">
+        <v>0.69905099200724596</v>
+      </c>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12">
+        <v>97.22838806</v>
+      </c>
+      <c r="BF19" s="12">
+        <v>25.587769340000001</v>
+      </c>
+      <c r="BG19" s="12">
+        <v>3856.375</v>
+      </c>
+      <c r="BH19" s="12">
+        <v>2.5212379E-2</v>
+      </c>
+      <c r="BI19" s="12">
+        <v>44.995046680000002</v>
+      </c>
+      <c r="BJ19" s="12">
+        <v>40.666868430000001</v>
+      </c>
+      <c r="BK19" s="12">
+        <v>4163.875</v>
+      </c>
+      <c r="BL19" s="12">
+        <v>1.0806051000000001E-2</v>
+      </c>
+      <c r="BM19" s="12">
+        <v>1.284420055</v>
+      </c>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20">
-        <v>76.558160560000005</v>
-      </c>
-      <c r="C20">
-        <v>2212.625</v>
-      </c>
-      <c r="D20">
-        <v>3.4600604E-2</v>
-      </c>
-      <c r="E20">
-        <v>53.033017430000001</v>
-      </c>
-      <c r="F20">
-        <v>3271</v>
-      </c>
-      <c r="G20">
-        <v>1.6213089999999999E-2</v>
-      </c>
-      <c r="H20">
-        <v>0.68706434400000005</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="BP19" s="6">
+        <f>AVERAGE(B20,M20,X20,AI20,AT21,BE20)</f>
+        <v>87.016809968022883</v>
+      </c>
+      <c r="BQ19" s="6">
+        <f>AVERAGE(C20,N20,Y20,AJ20,AU21,BF20)</f>
+        <v>28.192981393093319</v>
+      </c>
+      <c r="BR19" s="6">
+        <f>AVERAGE(D20,O20,Z20,AK20,AV21,BG20)</f>
+        <v>2029.0208333333333</v>
+      </c>
+      <c r="BS19" s="6">
+        <f>AVERAGE(E20,P20,AA20,AL20,AW21,BH20)</f>
+        <v>4.7895474759873748E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71" s="8" customFormat="1">
+      <c r="A20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="14">
+        <v>75.252828878861493</v>
+      </c>
+      <c r="C20" s="14">
+        <v>24.347432002959</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1800.625</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4.1792615829981998E-2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>52.119584837545098</v>
+      </c>
+      <c r="G20" s="14">
+        <v>32.369092857088397</v>
+      </c>
+      <c r="H20" s="14">
+        <v>2770</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1.8815734598391701E-2</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.714670755323637</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="14">
+        <v>86.722351799999998</v>
+      </c>
+      <c r="N20" s="14">
+        <v>33.813738010000002</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1286.25</v>
+      </c>
+      <c r="P20" s="14">
+        <v>6.7422625E-2</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>38.346910250000001</v>
+      </c>
+      <c r="R20" s="14">
+        <v>50.181737689999999</v>
+      </c>
+      <c r="S20" s="14">
+        <v>2504.25</v>
+      </c>
+      <c r="T20" s="14">
+        <v>1.5312732000000001E-2</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0.96400490999999999</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="W20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="14">
+        <v>86.846709520000005</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>36.712371679999997</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>2041.875</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>4.2532823999999997E-2</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>40.365578409999998</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>63.202788920000003</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>3311.875</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>1.2188134999999999E-2</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>0.73542848199999999</v>
+      </c>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14">
+        <v>98.695425950000001</v>
+      </c>
+      <c r="AJ20" s="14">
+        <v>29.21416936</v>
+      </c>
+      <c r="AK20" s="14">
+        <v>1609.625</v>
+      </c>
+      <c r="AL20" s="14">
+        <v>6.1315788000000003E-2</v>
+      </c>
+      <c r="AM20" s="14">
+        <v>67.286969760000005</v>
+      </c>
+      <c r="AN20" s="14">
+        <v>32.599524080000002</v>
+      </c>
+      <c r="AO20" s="14">
+        <v>2546</v>
+      </c>
+      <c r="AP20" s="14">
+        <v>2.6428502999999999E-2</v>
+      </c>
+      <c r="AQ20" s="14">
+        <v>0.96346364200000001</v>
+      </c>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20">
+        <v>87.439256034823899</v>
+      </c>
+      <c r="AU20">
+        <v>24.369608326208901</v>
+      </c>
+      <c r="AV20">
+        <v>1579.375</v>
+      </c>
+      <c r="AW20">
+        <v>5.5363201288372799E-2</v>
+      </c>
+      <c r="AX20">
+        <v>60.793482921251901</v>
+      </c>
+      <c r="AY20">
+        <v>47.473472955793603</v>
+      </c>
+      <c r="AZ20">
+        <v>2623.875</v>
+      </c>
+      <c r="BA20">
+        <v>2.3169351787433401E-2</v>
+      </c>
+      <c r="BB20">
+        <v>0.56127709759898703</v>
+      </c>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14">
+        <v>96.911996369999997</v>
+      </c>
+      <c r="BF20" s="14">
+        <v>26.159676579999999</v>
+      </c>
+      <c r="BG20" s="14">
+        <v>3856.375</v>
+      </c>
+      <c r="BH20" s="14">
+        <v>2.5130335E-2</v>
+      </c>
+      <c r="BI20" s="14">
+        <v>46.096934949999998</v>
+      </c>
+      <c r="BJ20" s="14">
+        <v>40.27587836</v>
+      </c>
+      <c r="BK20" s="14">
+        <v>4163.875</v>
+      </c>
+      <c r="BL20" s="14">
+        <v>1.1070682E-2</v>
+      </c>
+      <c r="BM20" s="14">
+        <v>1.261674816</v>
+      </c>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>69.826732949999993</v>
-      </c>
-      <c r="C21">
-        <v>2212.625</v>
-      </c>
-      <c r="D21">
-        <v>3.1558322E-2</v>
-      </c>
-      <c r="E21">
-        <v>50.107000919999997</v>
-      </c>
-      <c r="F21">
-        <v>3271</v>
-      </c>
-      <c r="G21">
-        <v>1.5318557E-2</v>
-      </c>
-      <c r="H21">
-        <v>0.58162173500000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="BP20" s="8">
+        <f>AVERAGE(B21,M21,X21,AI21,AT22,BE21)</f>
+        <v>76.280069946700849</v>
+      </c>
+      <c r="BQ20" s="8">
+        <f>AVERAGE(C21,N21,Y21,AJ21,AU22,BF21)</f>
+        <v>23.270215442772734</v>
+      </c>
+      <c r="BR20" s="8">
+        <f>AVERAGE(D21,O21,Z21,AK21,AV22,BG21)</f>
+        <v>2029.0208333333333</v>
+      </c>
+      <c r="BS20" s="8">
+        <f>AVERAGE(E21,P21,AA21,AL21,AW22,BH21)</f>
+        <v>4.2037554448909144E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71" s="6" customFormat="1">
+      <c r="A21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="12">
+        <v>70.055258590767096</v>
+      </c>
+      <c r="C21" s="12">
+        <v>21.9093300781871</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1800.625</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3.8906079050755701E-2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>50.357897111913303</v>
+      </c>
+      <c r="G21" s="12">
+        <v>32.418834025130799</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2770</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1.8179746249788201E-2</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.60759006519434</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="12">
+        <v>74.526530609999995</v>
+      </c>
+      <c r="N21" s="12">
+        <v>25.13539866</v>
+      </c>
+      <c r="O21" s="12">
+        <v>1286.25</v>
+      </c>
+      <c r="P21" s="12">
+        <v>5.7940936999999998E-2</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>36.396525910000001</v>
+      </c>
+      <c r="R21" s="12">
+        <v>45.857856439999999</v>
+      </c>
+      <c r="S21" s="12">
+        <v>2504.25</v>
+      </c>
+      <c r="T21" s="12">
+        <v>1.4533903000000001E-2</v>
+      </c>
+      <c r="U21" s="12">
+        <v>0.83148249100000005</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="12">
+        <v>75.500336700000005</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>29.47859905</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>2041.875</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>3.6975984000000003E-2</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>39.159464049999997</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>59.917652889999999</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>3311.875</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>1.1823956E-2</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>0.60651362200000003</v>
+      </c>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12">
+        <v>85.247650849999999</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>22.9660321</v>
+      </c>
+      <c r="AK21" s="12">
+        <v>1609.625</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>5.2961187E-2</v>
+      </c>
+      <c r="AM21" s="12">
+        <v>64.202719950000002</v>
+      </c>
+      <c r="AN21" s="12">
+        <v>30.73829838</v>
+      </c>
+      <c r="AO21" s="12">
+        <v>2546</v>
+      </c>
+      <c r="AP21" s="12">
+        <v>2.5217092999999999E-2</v>
+      </c>
+      <c r="AQ21" s="12">
+        <v>0.68464853299999995</v>
+      </c>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21">
+        <v>77.671547289275793</v>
+      </c>
+      <c r="AU21">
+        <v>18.910500725600901</v>
+      </c>
+      <c r="AV21">
+        <v>1579.375</v>
+      </c>
+      <c r="AW21">
+        <v>4.9178660729260498E-2</v>
+      </c>
+      <c r="AX21">
+        <v>59.517507503215597</v>
+      </c>
+      <c r="AY21">
+        <v>51.677624571275899</v>
+      </c>
+      <c r="AZ21">
+        <v>2623.875</v>
+      </c>
+      <c r="BA21">
+        <v>2.2683057502059199E-2</v>
+      </c>
+      <c r="BB21">
+        <v>0.35129400657767001</v>
+      </c>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12">
+        <v>82.97818547</v>
+      </c>
+      <c r="BF21" s="12">
+        <v>21.898579229999999</v>
+      </c>
+      <c r="BG21" s="12">
+        <v>3856.375</v>
+      </c>
+      <c r="BH21" s="12">
+        <v>2.1517146000000001E-2</v>
+      </c>
+      <c r="BI21" s="12">
+        <v>43.842724629999999</v>
+      </c>
+      <c r="BJ21" s="12">
+        <v>38.993851560000003</v>
+      </c>
+      <c r="BK21" s="12">
+        <v>4163.875</v>
+      </c>
+      <c r="BL21" s="12">
+        <v>1.0529309000000001E-2</v>
+      </c>
+      <c r="BM21" s="12">
+        <v>1.00363158</v>
+      </c>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22">
-        <v>58.628947519999997</v>
-      </c>
-      <c r="C22">
-        <v>2212.625</v>
-      </c>
-      <c r="D22">
-        <v>2.6497461999999999E-2</v>
-      </c>
-      <c r="E22">
-        <v>46.673761849999998</v>
-      </c>
-      <c r="F22">
-        <v>3271</v>
-      </c>
-      <c r="G22">
-        <v>1.4268958E-2</v>
-      </c>
-      <c r="H22">
-        <v>0.369063839</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="BP21" s="8">
+        <f>AVERAGE(B22,M22,X22,AI22,AT23,BE22)</f>
+        <v>65.554548462709462</v>
+      </c>
+      <c r="BQ21" s="8">
+        <f t="shared" ref="BQ21:BS21" si="6">AVERAGE(C22,N22,Y22,AJ22,AU23,BF22)</f>
+        <v>21.603857199428219</v>
+      </c>
+      <c r="BR21" s="8">
+        <f t="shared" si="6"/>
+        <v>2118.9499999999998</v>
+      </c>
+      <c r="BS21" s="8">
+        <f t="shared" si="6"/>
+        <v>3.5311968188453696E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71" s="8" customFormat="1">
+      <c r="A22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="14">
+        <v>58.229295383547303</v>
+      </c>
+      <c r="C22" s="14">
+        <v>20.727701287141102</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1800.625</v>
+      </c>
+      <c r="E22" s="14">
+        <v>3.23383799422685E-2</v>
+      </c>
+      <c r="F22" s="14">
+        <v>46.379828519855501</v>
+      </c>
+      <c r="G22" s="14">
+        <v>29.872894079626999</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2770</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1.6743620404279999E-2</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.39666283528160001</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="14">
+        <v>62.61836735</v>
+      </c>
+      <c r="N22" s="14">
+        <v>21.931110289999999</v>
+      </c>
+      <c r="O22" s="14">
+        <v>1286.25</v>
+      </c>
+      <c r="P22" s="14">
+        <v>4.8682889999999999E-2</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>32.766996110000001</v>
+      </c>
+      <c r="R22" s="14">
+        <v>43.214216649999997</v>
+      </c>
+      <c r="S22" s="14">
+        <v>2504.25</v>
+      </c>
+      <c r="T22" s="14">
+        <v>1.3084554999999999E-2</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0.69077663700000003</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="14">
+        <v>66.179124580000007</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>26.7959651</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>2041.875</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>3.2410957999999997E-2</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>37.605208529999999</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>52.163606809999997</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>3311.875</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>1.1354658E-2</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>0.54777492999999999</v>
+      </c>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14">
+        <v>73.575133960000002</v>
+      </c>
+      <c r="AJ22" s="14">
+        <v>18.727613399999999</v>
+      </c>
+      <c r="AK22" s="14">
+        <v>1609.625</v>
+      </c>
+      <c r="AL22" s="14">
+        <v>4.5709488E-2</v>
+      </c>
+      <c r="AM22" s="14">
+        <v>59.785840530000002</v>
+      </c>
+      <c r="AN22" s="14">
+        <v>27.189933979999999</v>
+      </c>
+      <c r="AO22" s="14">
+        <v>2546</v>
+      </c>
+      <c r="AP22" s="14">
+        <v>2.3482263E-2</v>
+      </c>
+      <c r="AQ22" s="14">
+        <v>0.50714699900000004</v>
+      </c>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22">
+        <v>69.372457459437996</v>
+      </c>
+      <c r="AU22">
+        <v>18.2333535384493</v>
+      </c>
+      <c r="AV22">
+        <v>1579.375</v>
+      </c>
+      <c r="AW22">
+        <v>4.3923993642699201E-2</v>
+      </c>
+      <c r="AX22">
+        <v>57.901433947882403</v>
+      </c>
+      <c r="AY22">
+        <v>46.879174978650802</v>
+      </c>
+      <c r="AZ22">
+        <v>2623.875</v>
+      </c>
+      <c r="BA22">
+        <v>2.2067146471490599E-2</v>
+      </c>
+      <c r="BB22">
+        <v>0.24469337433475799</v>
+      </c>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14">
+        <v>67.170821040000007</v>
+      </c>
+      <c r="BF22" s="14">
+        <v>19.83689592</v>
+      </c>
+      <c r="BG22" s="14">
+        <v>3856.375</v>
+      </c>
+      <c r="BH22" s="14">
+        <v>1.7418125E-2</v>
+      </c>
+      <c r="BI22" s="14">
+        <v>39.91705443</v>
+      </c>
+      <c r="BJ22" s="14">
+        <v>36.115754840000001</v>
+      </c>
+      <c r="BK22" s="14">
+        <v>4163.875</v>
+      </c>
+      <c r="BL22" s="14">
+        <v>9.5865159999999998E-3</v>
+      </c>
+      <c r="BM22" s="14">
+        <v>0.75462264999999995</v>
+      </c>
+      <c r="BN22" s="9"/>
+    </row>
+    <row r="23" spans="1:71" s="6" customFormat="1">
+      <c r="A23" s="12">
+        <v>210</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="12">
+        <v>210</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="12">
+        <v>240</v>
+      </c>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="12">
+        <v>198</v>
+      </c>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="12">
+        <v>240</v>
+      </c>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="12">
+        <v>240</v>
+      </c>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="9"/>
+    </row>
+    <row r="24" spans="1:71" s="8" customFormat="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
+      <c r="BL24" s="14"/>
+      <c r="BM24" s="14"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:71" s="6" customFormat="1">
+      <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="K25" s="9"/>
+      <c r="L25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" t="s">
+        <v>77</v>
+      </c>
+      <c r="T25" t="s">
+        <v>78</v>
+      </c>
+      <c r="U25" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="BP25" s="6">
+        <f>AVERAGE(B26,M26,X26,AI26,AT26,BE26)</f>
+        <v>266.48080051621997</v>
+      </c>
+      <c r="BQ25" s="6">
+        <f t="shared" ref="BQ18:BQ28" si="7">AVERAGE(C26,N26,Y26,AJ26,AU26,BF26)</f>
+        <v>169.74576474014106</v>
+      </c>
+      <c r="BR25" s="6">
+        <f t="shared" ref="BR25:BR29" si="8">AVERAGE(D26,O26,Z26,AK26,AV26,BG26)</f>
+        <v>2074.4375</v>
+      </c>
+      <c r="BS25" s="6">
+        <f t="shared" ref="BS18:BS29" si="9">AVERAGE(E26,P26,AA26,AL26,AW26,BH26)</f>
+        <v>0.15898107926673014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71" s="8" customFormat="1">
+      <c r="A26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="14">
         <v>240.6256655</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
+        <v>165.55773360000001</v>
+      </c>
+      <c r="D26" s="14">
         <v>1573.125</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="14">
         <v>0.152960296</v>
       </c>
-      <c r="E26">
+      <c r="F26" s="14">
         <v>101.3958768</v>
       </c>
-      <c r="F26">
+      <c r="G26" s="14">
+        <v>126.1078782</v>
+      </c>
+      <c r="H26" s="14">
         <v>2698.125</v>
       </c>
-      <c r="G26">
+      <c r="I26" s="14">
         <v>3.7580125999999998E-2</v>
       </c>
-      <c r="H26">
+      <c r="J26" s="14">
         <v>1.1040530589999999</v>
       </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>327.35221254824501</v>
+      </c>
+      <c r="N26" s="14">
+        <v>175.88463875527199</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1392.625</v>
+      </c>
+      <c r="P26">
+        <v>0.235061278196388</v>
+      </c>
+      <c r="Q26">
+        <v>38.996187175043303</v>
+      </c>
+      <c r="R26">
+        <v>88.246016796152603</v>
+      </c>
+      <c r="S26">
+        <v>2524.375</v>
+      </c>
+      <c r="T26">
+        <v>1.54478582520597E-2</v>
+      </c>
+      <c r="U26">
+        <v>3.2676378588203101</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" s="14">
+        <v>369.81613355987201</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>182.14318181953499</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>1692.125</v>
+      </c>
+      <c r="AA26">
+        <v>0.218551308892589</v>
+      </c>
+      <c r="AB26">
+        <v>44.195565202587602</v>
+      </c>
+      <c r="AC26">
+        <v>88.249642606852703</v>
+      </c>
+      <c r="AD26">
+        <v>2937</v>
+      </c>
+      <c r="AE26">
+        <v>1.50478601302647E-2</v>
+      </c>
+      <c r="AF26">
+        <v>3.6897664255469702</v>
+      </c>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14">
+        <v>294.56522089999999</v>
+      </c>
+      <c r="AJ26" s="14">
+        <v>190.04784810000001</v>
+      </c>
+      <c r="AK26" s="14">
+        <v>1536.125</v>
+      </c>
+      <c r="AL26">
+        <v>0.19175862699999999</v>
+      </c>
+      <c r="AM26">
+        <v>54.402617280000001</v>
+      </c>
+      <c r="AN26">
+        <v>82.888080560000006</v>
+      </c>
+      <c r="AO26">
+        <v>2531.25</v>
+      </c>
+      <c r="AP26">
+        <v>2.1492391999999999E-2</v>
+      </c>
+      <c r="AQ26">
+        <v>2.8974323210000001</v>
+      </c>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14">
+        <v>130.8227382</v>
+      </c>
+      <c r="AU26" s="14">
+        <v>213.57486589999999</v>
+      </c>
+      <c r="AV26" s="14">
+        <v>4377</v>
+      </c>
+      <c r="AW26">
+        <v>2.9888676999999999E-2</v>
+      </c>
+      <c r="AX26">
+        <v>96.358462650000007</v>
+      </c>
+      <c r="AY26">
+        <v>181.5959598</v>
+      </c>
+      <c r="AZ26">
+        <v>4309.375</v>
+      </c>
+      <c r="BA26">
+        <v>2.2360194E-2</v>
+      </c>
+      <c r="BB26">
+        <v>0.18978547500000001</v>
+      </c>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26">
+        <v>235.702832389203</v>
+      </c>
+      <c r="BF26">
+        <v>91.266320266039301</v>
+      </c>
+      <c r="BG26">
+        <v>1875.625</v>
+      </c>
+      <c r="BH26">
+        <v>0.12566628851140399</v>
+      </c>
+      <c r="BI26">
+        <v>64.704879625141302</v>
+      </c>
+      <c r="BJ26">
+        <v>67.1033458036013</v>
+      </c>
+      <c r="BK26">
+        <v>3094.5</v>
+      </c>
+      <c r="BL26">
+        <v>2.0909639562172001E-2</v>
+      </c>
+      <c r="BM26">
+        <v>2.54827759653804</v>
+      </c>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B27">
+      <c r="BP26" s="8">
+        <f>AVERAGE(B27,M27,X27,AI27,AT27,BE27)</f>
+        <v>71.493343392241286</v>
+      </c>
+      <c r="BQ26" s="8">
+        <f t="shared" si="7"/>
+        <v>27.873753111756233</v>
+      </c>
+      <c r="BR26" s="8">
+        <f t="shared" si="8"/>
+        <v>2055.75</v>
+      </c>
+      <c r="BS26" s="8">
+        <f t="shared" si="9"/>
+        <v>3.9528386164440495E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:71" s="6" customFormat="1">
+      <c r="A27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="12">
         <v>76.982280489999994</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="12">
+        <v>33.368030070000003</v>
+      </c>
+      <c r="D27" s="12">
         <v>1573.125</v>
       </c>
-      <c r="D27">
+      <c r="E27" s="12">
         <v>4.8935895E-2</v>
       </c>
-      <c r="E27">
+      <c r="F27" s="12">
         <v>37.225434329999999</v>
       </c>
-      <c r="F27">
+      <c r="G27" s="12">
+        <v>44.231763229999999</v>
+      </c>
+      <c r="H27" s="12">
         <v>2698.125</v>
       </c>
-      <c r="G27">
+      <c r="I27" s="12">
         <v>1.3796779E-2</v>
       </c>
-      <c r="H27">
+      <c r="J27" s="12">
         <v>0.898830236</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="K27" s="9"/>
+      <c r="L27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="12">
+        <v>63.586123328246998</v>
+      </c>
+      <c r="N27" s="12">
+        <v>26.076913940966001</v>
+      </c>
+      <c r="O27" s="12">
+        <v>1392.625</v>
+      </c>
+      <c r="P27">
+        <v>4.5659185587108499E-2</v>
+      </c>
+      <c r="Q27">
+        <v>20.478187670215402</v>
+      </c>
+      <c r="R27">
+        <v>46.581812660030401</v>
+      </c>
+      <c r="S27">
+        <v>2524.375</v>
+      </c>
+      <c r="T27">
+        <v>8.11218130040719E-3</v>
+      </c>
+      <c r="U27">
+        <v>0.92542417729957505</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="W27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>66.547626582278397</v>
+      </c>
+      <c r="Y27">
+        <v>38.5447764122544</v>
+      </c>
+      <c r="Z27">
+        <v>1580</v>
+      </c>
+      <c r="AA27">
+        <v>4.2118751001442002E-2</v>
+      </c>
+      <c r="AB27">
+        <v>37.189681467602</v>
+      </c>
+      <c r="AC27">
+        <v>54.121246286483697</v>
+      </c>
+      <c r="AD27">
+        <v>2868.625</v>
+      </c>
+      <c r="AE27">
+        <v>1.2964288280134901E-2</v>
+      </c>
+      <c r="AF27">
+        <v>0.54244769160107598</v>
+      </c>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12">
+        <v>72.154365690000006</v>
+      </c>
+      <c r="AJ27" s="12">
+        <v>24.585819919999999</v>
+      </c>
+      <c r="AK27" s="12">
+        <v>1536.125</v>
+      </c>
+      <c r="AL27">
+        <v>4.6971675999999997E-2</v>
+      </c>
+      <c r="AM27">
+        <v>42.088148150000002</v>
+      </c>
+      <c r="AN27">
+        <v>36.727955280000003</v>
+      </c>
+      <c r="AO27">
+        <v>2531.25</v>
+      </c>
+      <c r="AP27">
+        <v>1.6627416999999999E-2</v>
+      </c>
+      <c r="AQ27">
+        <v>0.81861942300000001</v>
+      </c>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12">
+        <v>86.393363030000003</v>
+      </c>
+      <c r="AU27" s="12">
+        <v>25.849889940000001</v>
+      </c>
+      <c r="AV27" s="12">
+        <v>4377</v>
+      </c>
+      <c r="AW27">
+        <v>1.9738031E-2</v>
+      </c>
+      <c r="AX27">
+        <v>37.21122553</v>
+      </c>
+      <c r="AY27">
+        <v>57.438196779999998</v>
+      </c>
+      <c r="AZ27">
+        <v>4309.375</v>
+      </c>
+      <c r="BA27">
+        <v>8.6349470000000005E-3</v>
+      </c>
+      <c r="BB27">
+        <v>0.85626186500000001</v>
+      </c>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="12"/>
+      <c r="BE27">
+        <v>63.296301232922303</v>
+      </c>
+      <c r="BF27">
+        <v>18.817088387317</v>
+      </c>
+      <c r="BG27">
+        <v>1875.625</v>
+      </c>
+      <c r="BH27">
+        <v>3.3746778398092502E-2</v>
+      </c>
+      <c r="BI27">
+        <v>43.6787445467765</v>
+      </c>
+      <c r="BJ27">
+        <v>29.551304729584</v>
+      </c>
+      <c r="BK27">
+        <v>3094.5</v>
+      </c>
+      <c r="BL27">
+        <v>1.41149602671761E-2</v>
+      </c>
+      <c r="BM27">
+        <v>0.663847395763427</v>
+      </c>
+      <c r="BN27" s="9"/>
+      <c r="BO27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="BP27" s="6">
+        <f>AVERAGE(B28,M28,X28,AI28,AT28,BE28)</f>
+        <v>72.626107334051383</v>
+      </c>
+      <c r="BQ27" s="6">
+        <f t="shared" si="7"/>
+        <v>23.90611436455578</v>
+      </c>
+      <c r="BR27" s="6">
+        <f t="shared" si="8"/>
+        <v>2074.4375</v>
+      </c>
+      <c r="BS27" s="6">
+        <f t="shared" si="9"/>
+        <v>3.9803878296599267E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:71" s="8" customFormat="1">
+      <c r="A28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14">
         <v>74.698212159999997</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="14">
+        <v>30.21103342</v>
+      </c>
+      <c r="D28" s="14">
         <v>1573.125</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="14">
         <v>4.7483965000000003E-2</v>
       </c>
-      <c r="E28">
+      <c r="F28" s="14">
         <v>38.326569380000002</v>
       </c>
-      <c r="F28">
+      <c r="G28" s="14">
+        <v>44.114343290000001</v>
+      </c>
+      <c r="H28" s="14">
         <v>2698.125</v>
       </c>
-      <c r="G28">
+      <c r="I28" s="14">
         <v>1.420489E-2</v>
       </c>
-      <c r="H28">
+      <c r="J28" s="14">
         <v>0.82448564499999999</v>
       </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="14">
+        <v>62.343505968943496</v>
+      </c>
+      <c r="N28" s="14">
+        <v>25.026503145197601</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1392.625</v>
+      </c>
+      <c r="P28">
+        <v>4.4766901333053402E-2</v>
+      </c>
+      <c r="Q28">
+        <v>21.039514731369099</v>
+      </c>
+      <c r="R28">
+        <v>45.466506268217898</v>
+      </c>
+      <c r="S28">
+        <v>2524.375</v>
+      </c>
+      <c r="T28">
+        <v>8.3345440876926493E-3</v>
+      </c>
+      <c r="U28">
+        <v>0.90844875992697005</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="14">
+        <v>79.313658860899693</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>23.608125549658201</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>1692.125</v>
+      </c>
+      <c r="AA28">
+        <v>4.6872222123601801E-2</v>
+      </c>
+      <c r="AB28">
+        <v>29.014087504256</v>
+      </c>
+      <c r="AC28">
+        <v>52.900471854359303</v>
+      </c>
+      <c r="AD28">
+        <v>2937</v>
+      </c>
+      <c r="AE28">
+        <v>9.87881767254206E-3</v>
+      </c>
+      <c r="AF28">
+        <v>0.95083407753193205</v>
+      </c>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14">
+        <v>72.014159000000006</v>
+      </c>
+      <c r="AJ28" s="14">
+        <v>24.361220840000001</v>
+      </c>
+      <c r="AK28" s="14">
+        <v>1536.125</v>
+      </c>
+      <c r="AL28">
+        <v>4.6880403000000001E-2</v>
+      </c>
+      <c r="AM28">
+        <v>42.148987650000002</v>
+      </c>
+      <c r="AN28">
+        <v>35.386571699999998</v>
+      </c>
+      <c r="AO28">
+        <v>2531.25</v>
+      </c>
+      <c r="AP28">
+        <v>1.6651452000000001E-2</v>
+      </c>
+      <c r="AQ28">
+        <v>0.84396905099999997</v>
+      </c>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14">
+        <v>84.546921409999996</v>
+      </c>
+      <c r="AU28" s="14">
+        <v>23.512567740000001</v>
+      </c>
+      <c r="AV28" s="14">
+        <v>4377</v>
+      </c>
+      <c r="AW28">
+        <v>1.9316179999999999E-2</v>
+      </c>
+      <c r="AX28">
+        <v>43.276983319999999</v>
+      </c>
+      <c r="AY28">
+        <v>52.937140909999997</v>
+      </c>
+      <c r="AZ28">
+        <v>4309.375</v>
+      </c>
+      <c r="BA28">
+        <v>1.0042519999999999E-2</v>
+      </c>
+      <c r="BB28">
+        <v>0.77960270200000004</v>
+      </c>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28">
+        <v>62.840186604465103</v>
+      </c>
+      <c r="BF28">
+        <v>16.717235492478899</v>
+      </c>
+      <c r="BG28">
+        <v>1875.625</v>
+      </c>
+      <c r="BH28">
+        <v>3.3503598322940399E-2</v>
+      </c>
+      <c r="BI28">
+        <v>45.301866214251</v>
+      </c>
+      <c r="BJ28">
+        <v>24.733799382025602</v>
+      </c>
+      <c r="BK28">
+        <v>3094.5</v>
+      </c>
+      <c r="BL28">
+        <v>1.4639478498707699E-2</v>
+      </c>
+      <c r="BM28">
+        <v>0.70908315052314297</v>
+      </c>
+      <c r="BN28" s="9"/>
+      <c r="BO28" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B29">
+      <c r="BP28" s="8">
+        <f>AVERAGE(B29,M29,X29,AI29,AT29,BE29)</f>
+        <v>63.612485621052606</v>
+      </c>
+      <c r="BQ28" s="8">
+        <f t="shared" si="7"/>
+        <v>20.334536847693684</v>
+      </c>
+      <c r="BR28" s="8">
+        <f t="shared" si="8"/>
+        <v>2074.4375</v>
+      </c>
+      <c r="BS28" s="8">
+        <f t="shared" si="9"/>
+        <v>3.4977657601842897E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71" s="6" customFormat="1">
+      <c r="A29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="12">
         <v>66.859276919999999</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="12">
+        <v>27.132529519999999</v>
+      </c>
+      <c r="D29" s="12">
         <v>1573.125</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="12">
         <v>4.2500930999999999E-2</v>
       </c>
-      <c r="E29">
+      <c r="F29" s="12">
         <v>34.851378269999998</v>
       </c>
-      <c r="F29">
+      <c r="G29" s="12">
+        <v>46.507628609999998</v>
+      </c>
+      <c r="H29" s="12">
         <v>2698.125</v>
       </c>
-      <c r="G29">
+      <c r="I29" s="12">
         <v>1.2916888E-2</v>
       </c>
-      <c r="H29">
+      <c r="J29" s="12">
         <v>0.68822899800000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="12">
+        <v>55.5321784399964</v>
+      </c>
+      <c r="N29" s="12">
+        <v>21.151017963771899</v>
+      </c>
+      <c r="O29" s="12">
+        <v>1392.625</v>
+      </c>
+      <c r="P29">
+        <v>3.9875902299611403E-2</v>
+      </c>
+      <c r="Q29">
+        <v>21.635850458034099</v>
+      </c>
+      <c r="R29">
+        <v>43.848321722321799</v>
+      </c>
+      <c r="S29">
+        <v>2524.375</v>
+      </c>
+      <c r="T29">
+        <v>8.5707751257377198E-3</v>
+      </c>
+      <c r="U29">
+        <v>0.77303592590424297</v>
+      </c>
+      <c r="V29" s="9"/>
+      <c r="W29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="12">
+        <v>69.034276427568798</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>19.904826545347401</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>1692.125</v>
+      </c>
+      <c r="AA29">
+        <v>4.0797385788620098E-2</v>
+      </c>
+      <c r="AB29">
+        <v>27.5871212121212</v>
+      </c>
+      <c r="AC29">
+        <v>53.0935694993833</v>
+      </c>
+      <c r="AD29">
+        <v>2937</v>
+      </c>
+      <c r="AE29">
+        <v>9.3929592142053802E-3</v>
+      </c>
+      <c r="AF29">
+        <v>0.78064359970992403</v>
+      </c>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12">
+        <v>62.110668080000003</v>
+      </c>
+      <c r="AJ29" s="12">
+        <v>20.01639716</v>
+      </c>
+      <c r="AK29" s="12">
+        <v>1536.125</v>
+      </c>
+      <c r="AL29">
+        <v>4.0433341999999997E-2</v>
+      </c>
+      <c r="AM29">
+        <v>30.414469140000001</v>
+      </c>
+      <c r="AN29">
+        <v>87.027076919999999</v>
+      </c>
+      <c r="AO29">
+        <v>2531.25</v>
+      </c>
+      <c r="AP29">
+        <v>1.2015593E-2</v>
+      </c>
+      <c r="AQ29">
+        <v>0.36421077299999999</v>
+      </c>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12">
+        <v>72.399760110000003</v>
+      </c>
+      <c r="AU29" s="12">
+        <v>18.513684560000002</v>
+      </c>
+      <c r="AV29" s="12">
+        <v>4377</v>
+      </c>
+      <c r="AW29">
+        <v>1.6540955E-2</v>
+      </c>
+      <c r="AX29">
+        <v>40.816127629999997</v>
+      </c>
+      <c r="AY29">
+        <v>51.403437340000004</v>
+      </c>
+      <c r="AZ29">
+        <v>4309.375</v>
+      </c>
+      <c r="BA29">
+        <v>9.4714729999999994E-3</v>
+      </c>
+      <c r="BB29">
+        <v>0.61442646899999998</v>
+      </c>
+      <c r="BC29" s="9"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29">
+        <v>55.738753748750398</v>
+      </c>
+      <c r="BF29">
+        <v>15.2887653370428</v>
+      </c>
+      <c r="BG29">
+        <v>1875.625</v>
+      </c>
+      <c r="BH29">
+        <v>2.9717429522825901E-2</v>
+      </c>
+      <c r="BI29">
+        <v>41.526135078364803</v>
+      </c>
+      <c r="BJ29">
+        <v>45.337444193081097</v>
+      </c>
+      <c r="BK29">
+        <v>3094.5</v>
+      </c>
+      <c r="BL29">
+        <v>1.34193359438891E-2</v>
+      </c>
+      <c r="BM29">
+        <v>0.31348522007234197</v>
+      </c>
+      <c r="BN29" s="9"/>
+      <c r="BO29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B30">
+      <c r="BP29" s="6">
+        <f>AVERAGE(B30,M30,X30,AI30,AT30,BE30)</f>
+        <v>57.302363010918818</v>
+      </c>
+      <c r="BQ29" s="6">
+        <f t="shared" ref="BQ29" si="10">AVERAGE(C30,N30,Y30,AJ30,AU30,BF30)</f>
+        <v>19.405117775936439</v>
+      </c>
+      <c r="BR29" s="6">
+        <f t="shared" si="8"/>
+        <v>2210.8000000000002</v>
+      </c>
+      <c r="BS29" s="6">
+        <f t="shared" si="9"/>
+        <v>2.9920470684951756E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:71" s="8" customFormat="1">
+      <c r="A30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14">
         <v>58.149384189999999</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="14">
+        <v>26.00896389</v>
+      </c>
+      <c r="D30" s="14">
         <v>1573.125</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="14">
         <v>3.6964248999999998E-2</v>
       </c>
-      <c r="E30">
+      <c r="F30" s="14">
         <v>33.821264769999999</v>
       </c>
-      <c r="F30">
+      <c r="G30" s="14">
+        <v>40.51751763</v>
+      </c>
+      <c r="H30" s="14">
         <v>2698.125</v>
       </c>
-      <c r="G30">
+      <c r="I30" s="14">
         <v>1.2535098999999999E-2</v>
       </c>
-      <c r="H30">
+      <c r="J30" s="14">
         <v>0.60043459799999999</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="V30" s="9"/>
+      <c r="W30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="X30" s="14">
+        <v>61.752530102681497</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>19.270025892507402</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>1692.125</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>3.6494071125171897E-2</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>25.832609805924399</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>52.906599792453598</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>2937</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>8.7955770534301706E-3</v>
+      </c>
+      <c r="AF30" s="14">
+        <v>0.67893080329612399</v>
+      </c>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14">
+        <v>55.25225812</v>
+      </c>
+      <c r="AJ30" s="14">
+        <v>16.34281116</v>
+      </c>
+      <c r="AK30" s="14">
+        <v>1536.125</v>
+      </c>
+      <c r="AL30" s="14">
+        <v>3.5968594999999999E-2</v>
+      </c>
+      <c r="AM30" s="14">
+        <v>37.762617280000001</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>37.949160210000002</v>
+      </c>
+      <c r="AO30" s="14">
+        <v>2531.25</v>
+      </c>
+      <c r="AP30" s="14">
+        <v>1.4918565E-2</v>
+      </c>
+      <c r="AQ30" s="14">
+        <v>0.46087030000000001</v>
+      </c>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14">
+        <v>63.000428380000002</v>
+      </c>
+      <c r="AU30" s="14">
+        <v>19.77228212</v>
+      </c>
+      <c r="AV30" s="14">
+        <v>4377</v>
+      </c>
+      <c r="AW30" s="14">
+        <v>1.4393517999999999E-2</v>
+      </c>
+      <c r="AX30" s="14">
+        <v>41.213226980000002</v>
+      </c>
+      <c r="AY30" s="14">
+        <v>50.04169504</v>
+      </c>
+      <c r="AZ30" s="14">
+        <v>4309.375</v>
+      </c>
+      <c r="BA30" s="14">
+        <v>9.5636200000000001E-3</v>
+      </c>
+      <c r="BB30" s="14">
+        <v>0.43538096300000001</v>
+      </c>
+      <c r="BC30" s="9"/>
+      <c r="BD30" s="14"/>
+      <c r="BE30">
+        <v>48.357214261912603</v>
+      </c>
+      <c r="BF30">
+        <v>15.6315058171748</v>
+      </c>
+      <c r="BG30">
+        <v>1875.625</v>
+      </c>
+      <c r="BH30">
+        <v>2.57819202995869E-2</v>
+      </c>
+      <c r="BI30">
+        <v>39.630352237841301</v>
+      </c>
+      <c r="BJ30">
+        <v>43.798503041674401</v>
+      </c>
+      <c r="BK30">
+        <v>3094.5</v>
+      </c>
+      <c r="BL30">
+        <v>1.28067061683119E-2</v>
+      </c>
+      <c r="BM30">
+        <v>0.199250235008436</v>
+      </c>
+      <c r="BN30" s="9"/>
+    </row>
+    <row r="31" spans="1:71">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+    </row>
+    <row r="34" spans="2:27">
+      <c r="B34" s="14">
+        <v>26.00896389</v>
+      </c>
+      <c r="C34" s="14">
+        <v>19.270025892507402</v>
+      </c>
+      <c r="D34" s="14">
+        <v>16.34281116</v>
+      </c>
+      <c r="E34" s="14">
+        <v>19.77228212</v>
+      </c>
+      <c r="F34">
+        <v>15.6315058171748</v>
+      </c>
+      <c r="G34" s="14">
+        <v>19.83689592</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+    </row>
+    <row r="36" spans="2:27">
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="V36" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/organ_measure.xlsx
+++ b/organ_measure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/435577af404d2ec7/2023/BME_M2/STAGE/Thesis/Scripts_and_venv/internship_M2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="922" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C98E9C50-8F81-47FE-98F1-31FEC8EB4D7F}"/>
+  <xr:revisionPtr revIDLastSave="998" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C71921-D05A-4DED-9DE7-BCA590579ED0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="92">
   <si>
     <t>t1</t>
   </si>
@@ -304,6 +304,18 @@
   <si>
     <t>statistics</t>
   </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>mg/mL</t>
+  </si>
+  <si>
+    <t>(From sample 6)</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
 </sst>
 </file>
 
@@ -456,6 +468,998 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3D Anal 2'!$AX$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mg/mL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3882588070986536E-2"/>
+                  <c:y val="-0.15383542538354253"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$AW$41:$AW$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>83.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>521.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$AX$41:$AX$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6736-4796-89B1-94AAEEBC495D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1406183999"/>
+        <c:axId val="1406181599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1406183999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406181599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1406181599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406183999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>35523</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4486321C-F794-6098-DBB7-45E4D41D12E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1426DD-ABA7-4F24-B0C3-92136F16B0F8}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6246,10 +7250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6BD57F-E798-4F5D-A40D-A65A808483B8}">
-  <dimension ref="A1:BS36"/>
+  <dimension ref="A1:BV44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BQ17" sqref="BQ17:BQ21"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BW10" sqref="BW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6263,7 +7267,7 @@
     <col min="9" max="9" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="4" customFormat="1">
+    <row r="1" spans="1:74" s="4" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -6341,7 +7345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:71" s="6" customFormat="1">
+    <row r="2" spans="1:74" s="6" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
@@ -6539,8 +7543,11 @@
       <c r="BS2" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:71" s="4" customFormat="1">
+      <c r="BU2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" s="4" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -6738,8 +7745,16 @@
         <f t="shared" si="0"/>
         <v>3.5520660333333336E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:71" s="6" customFormat="1">
+      <c r="BU3" s="4">
+        <f t="shared" ref="BU3:BV30" si="1">0.0145*BP3 - 0.2126</f>
+        <v>0.86657964074000005</v>
+      </c>
+      <c r="BV3" s="4">
+        <f>0.0145*BQ3 - 0.2126</f>
+        <v>0.55844154143999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" s="6" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -6922,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="BP4" s="4">
-        <f t="shared" ref="BP4:BP7" si="1">AVERAGE(B4,M4,X4,AI4,AT5,BE4)</f>
+        <f t="shared" ref="BP4:BP7" si="2">AVERAGE(B4,M4,X4,AI4,AT5,BE4)</f>
         <v>95.347874678333326</v>
       </c>
       <c r="BQ4" s="4">
@@ -6937,8 +7952,16 @@
         <f t="shared" si="0"/>
         <v>3.7747866166666665E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:71" s="4" customFormat="1">
+      <c r="BU4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1699441828358332</v>
+      </c>
+      <c r="BV4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15553645346083339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" s="4" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -7121,7 +8144,7 @@
         <v>2</v>
       </c>
       <c r="BP5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.504866015000005</v>
       </c>
       <c r="BQ5" s="4">
@@ -7136,8 +8159,16 @@
         <f t="shared" si="0"/>
         <v>3.5708939666666668E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:71" s="6" customFormat="1">
+      <c r="BU5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0997205572175002</v>
+      </c>
+      <c r="BV5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12409169277833337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" s="6" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -7320,7 +8351,7 @@
         <v>3</v>
       </c>
       <c r="BP6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.784310539999993</v>
       </c>
       <c r="BQ6" s="4">
@@ -7335,8 +8366,16 @@
         <f t="shared" si="0"/>
         <v>3.1748400666666662E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:71" s="4" customFormat="1">
+      <c r="BU6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95877250282999993</v>
+      </c>
+      <c r="BV6" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1656161569166654E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" s="4" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -7519,7 +8558,7 @@
         <v>4</v>
       </c>
       <c r="BP7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.794624978000002</v>
       </c>
       <c r="BQ7" s="4">
@@ -7534,8 +8573,16 @@
         <f t="shared" si="0"/>
         <v>2.7151690999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:71" s="6" customFormat="1">
+      <c r="BU7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77042206218100007</v>
+      </c>
+      <c r="BV7" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7006984912000049E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" s="6" customFormat="1">
       <c r="A8" s="12">
         <v>215</v>
       </c>
@@ -7617,8 +8664,10 @@
       <c r="BO8" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:71" s="4" customFormat="1">
+      <c r="BU8" s="4"/>
+      <c r="BV8" s="4"/>
+    </row>
+    <row r="9" spans="1:74" s="4" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -7809,19 +8858,27 @@
         <v>48.202060703977651</v>
       </c>
       <c r="BQ9" s="4">
-        <f t="shared" ref="BQ4:BQ13" si="2">AVERAGE(C10,N10,Y10,AJ10,AU10,BF10)</f>
+        <f t="shared" ref="BQ9:BQ13" si="3">AVERAGE(C10,N10,Y10,AJ10,AU10,BF10)</f>
         <v>66.267198298233311</v>
       </c>
       <c r="BR9" s="4">
-        <f t="shared" ref="BR4:BR13" si="3">AVERAGE(D10,O10,Z10,AK10,AV10,BG10)</f>
+        <f t="shared" ref="BR9:BR13" si="4">AVERAGE(D10,O10,Z10,AK10,AV10,BG10)</f>
         <v>2723.9791666666665</v>
       </c>
       <c r="BS9" s="4">
-        <f t="shared" ref="BS4:BS13" si="4">AVERAGE(E10,P10,AA10,AL10,AW10,BH10)</f>
+        <f t="shared" ref="BS9:BS13" si="5">AVERAGE(E10,P10,AA10,AL10,AW10,BH10)</f>
         <v>2.2343671991154918E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:71" s="6" customFormat="1">
+      <c r="BU9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.48632988020767598</v>
+      </c>
+      <c r="BV9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74827437532438301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" s="6" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
@@ -8004,23 +9061,31 @@
         <v>1</v>
       </c>
       <c r="BP10" s="6">
-        <f t="shared" ref="BP4:BP13" si="5">AVERAGE(B11,M11,X11,AI11,AT11,BE11)</f>
+        <f t="shared" ref="BP10:BP13" si="6">AVERAGE(B11,M11,X11,AI11,AT11,BE11)</f>
         <v>74.208596095121223</v>
       </c>
       <c r="BQ10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.320449097278583</v>
       </c>
       <c r="BR10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2815.3125</v>
       </c>
       <c r="BS10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1500426738046879E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:71" s="4" customFormat="1">
+      <c r="BU10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.86342464337925773</v>
+      </c>
+      <c r="BV10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16904651191053949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" s="4" customFormat="1">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
@@ -8203,23 +9268,31 @@
         <v>2</v>
       </c>
       <c r="BP11" s="4">
+        <f t="shared" si="6"/>
+        <v>70.712062505562912</v>
+      </c>
+      <c r="BQ11" s="4">
+        <f t="shared" si="3"/>
+        <v>23.904684290768984</v>
+      </c>
+      <c r="BR11" s="4">
+        <f t="shared" si="4"/>
+        <v>2723.9791666666665</v>
+      </c>
+      <c r="BS11" s="4">
         <f t="shared" si="5"/>
-        <v>70.712062505562912</v>
-      </c>
-      <c r="BQ11" s="4">
-        <f t="shared" si="2"/>
-        <v>23.904684290768984</v>
-      </c>
-      <c r="BR11" s="4">
-        <f t="shared" si="3"/>
-        <v>2723.9791666666665</v>
-      </c>
-      <c r="BS11" s="4">
-        <f t="shared" si="4"/>
         <v>3.1187472305956299E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:71" s="6" customFormat="1">
+      <c r="BU11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81272490633066219</v>
+      </c>
+      <c r="BV11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13401792221615028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" s="6" customFormat="1">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -8402,23 +9475,31 @@
         <v>3</v>
       </c>
       <c r="BP12" s="6">
+        <f t="shared" si="6"/>
+        <v>63.180655873432045</v>
+      </c>
+      <c r="BQ12" s="6">
+        <f t="shared" si="3"/>
+        <v>29.855919365346697</v>
+      </c>
+      <c r="BR12" s="6">
+        <f t="shared" si="4"/>
+        <v>2723.9791666666665</v>
+      </c>
+      <c r="BS12" s="6">
         <f t="shared" si="5"/>
-        <v>63.180655873432045</v>
-      </c>
-      <c r="BQ12" s="6">
-        <f t="shared" si="2"/>
-        <v>29.855919365346697</v>
-      </c>
-      <c r="BR12" s="6">
-        <f t="shared" si="3"/>
-        <v>2723.9791666666665</v>
-      </c>
-      <c r="BS12" s="6">
-        <f t="shared" si="4"/>
         <v>2.8050714851571169E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:71" s="4" customFormat="1">
+      <c r="BU12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70351951016476466</v>
+      </c>
+      <c r="BV12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22031083079752711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" s="4" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
@@ -8601,23 +9682,31 @@
         <v>4</v>
       </c>
       <c r="BP13" s="4">
+        <f t="shared" si="6"/>
+        <v>53.146133306819422</v>
+      </c>
+      <c r="BQ13" s="4">
+        <f t="shared" si="3"/>
+        <v>34.536223786286136</v>
+      </c>
+      <c r="BR13" s="4">
+        <f t="shared" si="4"/>
+        <v>2857.75</v>
+      </c>
+      <c r="BS13" s="4">
         <f t="shared" si="5"/>
-        <v>53.146133306819422</v>
-      </c>
-      <c r="BQ13" s="4">
-        <f t="shared" si="2"/>
-        <v>34.536223786286136</v>
-      </c>
-      <c r="BR13" s="4">
-        <f t="shared" si="3"/>
-        <v>2857.75</v>
-      </c>
-      <c r="BS13" s="4">
-        <f t="shared" si="4"/>
         <v>2.3365923364988002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:71" s="6" customFormat="1">
+      <c r="BU13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55801893294888161</v>
+      </c>
+      <c r="BV13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.28817524490114899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" s="6" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
@@ -8796,8 +9885,10 @@
         <v>0.17664036999999999</v>
       </c>
       <c r="BN14" s="9"/>
-    </row>
-    <row r="15" spans="1:71">
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+    </row>
+    <row r="15" spans="1:74">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -8870,8 +9961,10 @@
       <c r="BQ15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:71" s="8" customFormat="1">
+      <c r="BU15" s="4"/>
+      <c r="BV15" s="4"/>
+    </row>
+    <row r="16" spans="1:74" s="8" customFormat="1">
       <c r="A16" s="14" t="s">
         <v>79</v>
       </c>
@@ -8957,8 +10050,10 @@
       <c r="BS16" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:71" s="6" customFormat="1">
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+    </row>
+    <row r="17" spans="1:74" s="6" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
@@ -9149,23 +10244,31 @@
         <v>0</v>
       </c>
       <c r="BP17" s="6">
-        <f>AVERAGE(B18,M18,X18,AI18,AT19,BE18)</f>
+        <f t="shared" ref="BP17:BS20" si="7">AVERAGE(B18,M18,X18,AI18,AT19,BE18)</f>
         <v>260.33273061046685</v>
       </c>
       <c r="BQ17" s="6">
-        <f>AVERAGE(C18,N18,Y18,AJ18,AU19,BF18)</f>
+        <f t="shared" si="7"/>
         <v>200.17276190279131</v>
       </c>
       <c r="BR17" s="6">
-        <f>AVERAGE(D18,O18,Z18,AK18,AV19,BG18)</f>
+        <f t="shared" si="7"/>
         <v>2029.0208333333333</v>
       </c>
       <c r="BS17" s="6">
-        <f>AVERAGE(E18,P18,AA18,AL18,AW19,BH18)</f>
+        <f t="shared" si="7"/>
         <v>0.14282244999494054</v>
       </c>
-    </row>
-    <row r="18" spans="1:71" s="8" customFormat="1">
+      <c r="BU17" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5622245938517696</v>
+      </c>
+      <c r="BV17" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6899050475904738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" s="8" customFormat="1">
       <c r="A18" s="14" t="s">
         <v>0</v>
       </c>
@@ -9350,23 +10453,31 @@
         <v>1</v>
       </c>
       <c r="BP18" s="8">
-        <f>AVERAGE(B19,M19,X19,AI19,AT20,BE19)</f>
+        <f t="shared" si="7"/>
         <v>92.02282837709231</v>
       </c>
       <c r="BQ18" s="8">
-        <f>AVERAGE(C19,N19,Y19,AJ19,AU20,BF19)</f>
+        <f t="shared" si="7"/>
         <v>29.948867212616431</v>
       </c>
       <c r="BR18" s="8">
-        <f>AVERAGE(D19,O19,Z19,AK19,AV20,BG19)</f>
+        <f t="shared" si="7"/>
         <v>2029.0208333333333</v>
       </c>
       <c r="BS18" s="8">
-        <f>AVERAGE(E19,P19,AA19,AL19,AW20,BH19)</f>
+        <f t="shared" si="7"/>
         <v>5.0975481498100765E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:71" s="6" customFormat="1">
+      <c r="BU18" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1217310114678387</v>
+      </c>
+      <c r="BV18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22165857458293825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" s="6" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -9551,23 +10662,31 @@
         <v>2</v>
       </c>
       <c r="BP19" s="6">
-        <f>AVERAGE(B20,M20,X20,AI20,AT21,BE20)</f>
+        <f t="shared" si="7"/>
         <v>87.016809968022883</v>
       </c>
       <c r="BQ19" s="6">
-        <f>AVERAGE(C20,N20,Y20,AJ20,AU21,BF20)</f>
+        <f t="shared" si="7"/>
         <v>28.192981393093319</v>
       </c>
       <c r="BR19" s="6">
-        <f>AVERAGE(D20,O20,Z20,AK20,AV21,BG20)</f>
+        <f t="shared" si="7"/>
         <v>2029.0208333333333</v>
       </c>
       <c r="BS19" s="6">
-        <f>AVERAGE(E20,P20,AA20,AL20,AW21,BH20)</f>
+        <f t="shared" si="7"/>
         <v>4.7895474759873748E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:71" s="8" customFormat="1">
+      <c r="BU19" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0491437445363321</v>
+      </c>
+      <c r="BV19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19619823019985316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74" s="8" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
@@ -9752,23 +10871,31 @@
         <v>3</v>
       </c>
       <c r="BP20" s="8">
-        <f>AVERAGE(B21,M21,X21,AI21,AT22,BE21)</f>
+        <f t="shared" si="7"/>
         <v>76.280069946700849</v>
       </c>
       <c r="BQ20" s="8">
-        <f>AVERAGE(C21,N21,Y21,AJ21,AU22,BF21)</f>
+        <f t="shared" si="7"/>
         <v>23.270215442772734</v>
       </c>
       <c r="BR20" s="8">
-        <f>AVERAGE(D21,O21,Z21,AK21,AV22,BG21)</f>
+        <f t="shared" si="7"/>
         <v>2029.0208333333333</v>
       </c>
       <c r="BS20" s="8">
-        <f>AVERAGE(E21,P21,AA21,AL21,AW22,BH21)</f>
+        <f t="shared" si="7"/>
         <v>4.2037554448909144E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:71" s="6" customFormat="1">
+      <c r="BU20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89346101422716229</v>
+      </c>
+      <c r="BV20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12481812392020464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74" s="6" customFormat="1">
       <c r="A21" s="12" t="s">
         <v>3</v>
       </c>
@@ -9957,19 +11084,27 @@
         <v>65.554548462709462</v>
       </c>
       <c r="BQ21" s="8">
-        <f t="shared" ref="BQ21:BS21" si="6">AVERAGE(C22,N22,Y22,AJ22,AU23,BF22)</f>
+        <f t="shared" ref="BQ21:BS21" si="8">AVERAGE(C22,N22,Y22,AJ22,AU23,BF22)</f>
         <v>21.603857199428219</v>
       </c>
       <c r="BR21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2118.9499999999998</v>
       </c>
       <c r="BS21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5311968188453696E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:71" s="8" customFormat="1">
+      <c r="BU21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.73794095270928728</v>
+      </c>
+      <c r="BV21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1006559293917092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74" s="8" customFormat="1">
       <c r="A22" s="14" t="s">
         <v>4</v>
       </c>
@@ -10150,8 +11285,10 @@
         <v>0.75462264999999995</v>
       </c>
       <c r="BN22" s="9"/>
-    </row>
-    <row r="23" spans="1:71" s="6" customFormat="1">
+      <c r="BU22" s="4"/>
+      <c r="BV22" s="4"/>
+    </row>
+    <row r="23" spans="1:74" s="6" customFormat="1">
       <c r="A23" s="12">
         <v>210</v>
       </c>
@@ -10230,8 +11367,10 @@
       <c r="BL23" s="12"/>
       <c r="BM23" s="12"/>
       <c r="BN23" s="9"/>
-    </row>
-    <row r="24" spans="1:71" s="8" customFormat="1">
+      <c r="BU23" s="4"/>
+      <c r="BV23" s="4"/>
+    </row>
+    <row r="24" spans="1:74" s="8" customFormat="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -10301,8 +11440,10 @@
       <c r="BO24" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:71" s="6" customFormat="1">
+      <c r="BU24" s="4"/>
+      <c r="BV24" s="4"/>
+    </row>
+    <row r="25" spans="1:74" s="6" customFormat="1">
       <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
@@ -10497,19 +11638,27 @@
         <v>266.48080051621997</v>
       </c>
       <c r="BQ25" s="6">
-        <f t="shared" ref="BQ18:BQ28" si="7">AVERAGE(C26,N26,Y26,AJ26,AU26,BF26)</f>
+        <f t="shared" ref="BQ25:BQ28" si="9">AVERAGE(C26,N26,Y26,AJ26,AU26,BF26)</f>
         <v>169.74576474014106</v>
       </c>
       <c r="BR25" s="6">
-        <f t="shared" ref="BR25:BR29" si="8">AVERAGE(D26,O26,Z26,AK26,AV26,BG26)</f>
+        <f t="shared" ref="BR25:BR29" si="10">AVERAGE(D26,O26,Z26,AK26,AV26,BG26)</f>
         <v>2074.4375</v>
       </c>
       <c r="BS25" s="6">
-        <f t="shared" ref="BS18:BS29" si="9">AVERAGE(E26,P26,AA26,AL26,AW26,BH26)</f>
+        <f t="shared" ref="BS25:BS29" si="11">AVERAGE(E26,P26,AA26,AL26,AW26,BH26)</f>
         <v>0.15898107926673014</v>
       </c>
-    </row>
-    <row r="26" spans="1:71" s="8" customFormat="1">
+      <c r="BU25" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6513716074851899</v>
+      </c>
+      <c r="BV25" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2487135887320453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74" s="8" customFormat="1">
       <c r="A26" s="14" t="s">
         <v>0</v>
       </c>
@@ -10698,19 +11847,27 @@
         <v>71.493343392241286</v>
       </c>
       <c r="BQ26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27.873753111756233</v>
       </c>
       <c r="BR26" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2055.75</v>
       </c>
       <c r="BS26" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9528386164440495E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:71" s="6" customFormat="1">
+      <c r="BU26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82405347918749861</v>
+      </c>
+      <c r="BV26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19156942012046541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74" s="6" customFormat="1">
       <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
@@ -10899,19 +12056,27 @@
         <v>72.626107334051383</v>
       </c>
       <c r="BQ27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.90611436455578</v>
       </c>
       <c r="BR27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2074.4375</v>
       </c>
       <c r="BS27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9803878296599267E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:71" s="8" customFormat="1">
+      <c r="BU27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.84047855634374502</v>
+      </c>
+      <c r="BV27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13403865828605882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74" s="8" customFormat="1">
       <c r="A28" s="14" t="s">
         <v>2</v>
       </c>
@@ -11100,19 +12265,27 @@
         <v>63.612485621052606</v>
       </c>
       <c r="BQ28" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20.334536847693684</v>
       </c>
       <c r="BR28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2074.4375</v>
       </c>
       <c r="BS28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.4977657601842897E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:71" s="6" customFormat="1">
+      <c r="BU28" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70978104150526278</v>
+      </c>
+      <c r="BV28" s="4">
+        <f t="shared" si="1"/>
+        <v>8.225078429155841E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74" s="6" customFormat="1">
       <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
@@ -11301,19 +12474,27 @@
         <v>57.302363010918818</v>
       </c>
       <c r="BQ29" s="6">
-        <f t="shared" ref="BQ29" si="10">AVERAGE(C30,N30,Y30,AJ30,AU30,BF30)</f>
+        <f t="shared" ref="BQ29" si="12">AVERAGE(C30,N30,Y30,AJ30,AU30,BF30)</f>
         <v>19.405117775936439</v>
       </c>
       <c r="BR29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2210.8000000000002</v>
       </c>
       <c r="BS29" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9920470684951756E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:71" s="8" customFormat="1">
+      <c r="BU29" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6182842636583229</v>
+      </c>
+      <c r="BV29" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8774207751078398E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:74" s="8" customFormat="1">
       <c r="A30" s="14" t="s">
         <v>4</v>
       </c>
@@ -11494,8 +12675,10 @@
         <v>0.199250235008436</v>
       </c>
       <c r="BN30" s="9"/>
-    </row>
-    <row r="31" spans="1:71">
+      <c r="BU30" s="4"/>
+      <c r="BV30" s="4"/>
+    </row>
+    <row r="31" spans="1:74">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -11556,7 +12739,7 @@
       <c r="BF31" s="9"/>
       <c r="BG31" s="9"/>
     </row>
-    <row r="34" spans="2:27">
+    <row r="34" spans="2:50">
       <c r="B34" s="14">
         <v>26.00896389</v>
       </c>
@@ -11583,14 +12766,60 @@
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
     </row>
-    <row r="36" spans="2:27">
+    <row r="36" spans="2:50">
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="V36" s="14"/>
     </row>
+    <row r="39" spans="2:50">
+      <c r="AV39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:50">
+      <c r="AW40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:50">
+      <c r="AW41" s="6">
+        <v>83.39</v>
+      </c>
+      <c r="AX41" s="4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="42" spans="2:50">
+      <c r="AW42" s="6">
+        <v>215.78</v>
+      </c>
+      <c r="AX42" s="4">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:50">
+      <c r="AW43" s="6">
+        <v>360.4</v>
+      </c>
+      <c r="AX43" s="4">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:50">
+      <c r="AW44" s="6">
+        <v>521.98</v>
+      </c>
+      <c r="AX44" s="4">
+        <v>7.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/organ_measure.xlsx
+++ b/organ_measure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/435577af404d2ec7/2023/BME_M2/STAGE/Thesis/Scripts_and_venv/internship_M2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="998" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C71921-D05A-4DED-9DE7-BCA590579ED0}"/>
+  <xr:revisionPtr revIDLastSave="1215" documentId="8_{B5490666-A945-4A55-88F2-1C034C3CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D72BDB-6676-44F0-A345-6144645206FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E7F36383-A453-45E0-8469-92D4BA6D15DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="101">
   <si>
     <t>t1</t>
   </si>
@@ -316,6 +316,33 @@
   <si>
     <t>Conversion</t>
   </si>
+  <si>
+    <t>K-edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Correction</t>
+  </si>
+  <si>
+    <t>HU Gd</t>
+  </si>
+  <si>
+    <t>Correlation between real aorta measurements and HU conversions</t>
+  </si>
+  <si>
+    <t>AGuIX</t>
+  </si>
+  <si>
+    <t>aorta</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>peritoneal noise</t>
+  </si>
+  <si>
+    <t>kedge</t>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -453,6 +480,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,7 +905,1935 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9598962833025097E-2"/>
+                  <c:y val="-0.15859502209816237"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BK$40:$BK$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6551479434999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5634180858333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48500275349999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32400743283333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22029391380000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BL$40:$BL$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.5622245938517696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1217310114678387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0491437445363321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89346101422716229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73794095270928728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74D5-4B4F-BFAD-E3682A36D994}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BK$40:$BK$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6551479434999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5634180858333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48500275349999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32400743283333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22029391380000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BM$40:$BM$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-74D5-4B4F-BFAD-E3682A36D994}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BK$40:$BK$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6551479434999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5634180858333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48500275349999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32400743283333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22029391380000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BN$40:$BN$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-74D5-4B4F-BFAD-E3682A36D994}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="770190015"/>
+        <c:axId val="770190975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="770190015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770190975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="770190975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770190015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14558917207909478"/>
+                  <c:y val="-0.22878567255157306"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BT$40:$BT$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.57219364716666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51648285150000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36640090600000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21038559979999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BU$40:$BU$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>1.1699441828358332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0997205572175002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95877250282999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77042206218100007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D979-48CC-AA95-7BDBE72839FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="684342271"/>
+        <c:axId val="684350431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="684342271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684350431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="684350431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684342271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aorta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3D Anal 2'!$BM$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mg/mL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.194270578620357E-2"/>
+                  <c:y val="-0.16789951151430565"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BL$99:$BL$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>260.33273061046685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.02282837709231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.016809968022883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.280069946700849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.554548462709462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BM$99:$BM$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.6551479434999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5634180858333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48500275349999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32400743283333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22029391380000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C8A-42EB-9498-C8D4678E0678}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="690534703"/>
+        <c:axId val="690537583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="690534703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690537583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="690537583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690534703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3D Anal 2'!$BM$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mg/mL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.9703602520910914E-2"/>
+                  <c:y val="-0.18884386670025077"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BL$107:$BL$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95.347874678333326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.504866015000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.784310539999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.794624978000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3D Anal 2'!$BM$107:$BM$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57219364716666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51648285150000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36640090600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21038559979999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73A2-41AB-8B54-2E7E2590714C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="770572975"/>
+        <c:axId val="770573455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="770572975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770573455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="770573455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770572975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1421,6 +3389,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1454,6 +5486,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>89758</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>52220</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>75414</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D458EA-8117-A55A-46A5-AD8C4694D2FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>15016</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>71045</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BAD8E1-386A-ADEE-4C97-2DEB61FDFEB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>259641</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>8740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>49193</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85287FF3-7E39-79E9-06E8-468ADCB6731E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>282053</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>109032</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F73F7EB-34AC-7B5A-1F91-F56158D7D3DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1783,10 +5959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1426DD-ABA7-4F24-B0C3-92136F16B0F8}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1794,9 +5970,10 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="8.77734375" style="1"/>
     <col min="13" max="13" width="8.77734375" style="2"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1833,8 +6010,23 @@
       <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="Q1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1876,8 +6068,23 @@
         <f>_xlfn.STDEV.S(B2:K2)</f>
         <v>134.54244660439929</v>
       </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>-85.285714285714207</v>
+      </c>
+      <c r="S2">
+        <v>12.2363348743184</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1919,8 +6126,23 @@
         <f t="shared" ref="M3:M66" si="1">_xlfn.STDEV.S(B3:K3)</f>
         <v>136.15331672635199</v>
       </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>-86.368421052631504</v>
+      </c>
+      <c r="S3">
+        <v>7.4495533339486997</v>
+      </c>
+      <c r="T3">
+        <v>1.05263157894734E-3</v>
+      </c>
+      <c r="U3">
+        <v>4.4659375653886202E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1962,8 +6184,23 @@
         <f t="shared" si="1"/>
         <v>91.718209304650856</v>
       </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>-101.0625</v>
+      </c>
+      <c r="S4">
+        <v>7.0220078147207996</v>
+      </c>
+      <c r="T4">
+        <v>5.3750000000000797E-2</v>
+      </c>
+      <c r="U4">
+        <v>2.31503239718161E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2005,8 +6242,23 @@
         <f t="shared" si="1"/>
         <v>99.122269977973559</v>
       </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>-83.6</v>
+      </c>
+      <c r="S5">
+        <v>11.306635220082001</v>
+      </c>
+      <c r="T5">
+        <v>6.4000000000000501E-2</v>
+      </c>
+      <c r="U5">
+        <v>3.2619012860600899E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2048,8 +6300,40 @@
         <f t="shared" si="1"/>
         <v>126.71350468343864</v>
       </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <v>-69.6666666666666</v>
+      </c>
+      <c r="S6">
+        <v>6.8891449005168601</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="7" spans="1:21">
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>-78.285713999999999</v>
+      </c>
+      <c r="S7">
+        <v>7.7406959999999998</v>
+      </c>
+      <c r="T7">
+        <v>7.2381000000000001E-2</v>
+      </c>
+      <c r="U7">
+        <v>3.6241000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2080,8 +6364,23 @@
       <c r="K8" t="s">
         <v>22</v>
       </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8">
+        <v>-101.105263157894</v>
+      </c>
+      <c r="S8">
+        <v>6.4798857758134902</v>
+      </c>
+      <c r="T8">
+        <v>1.05263157894734E-3</v>
+      </c>
+      <c r="U8">
+        <v>4.4659375653886202E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2123,8 +6422,11 @@
         <f t="shared" si="1"/>
         <v>0.65614902400652164</v>
       </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2166,8 +6468,11 @@
         <f t="shared" si="1"/>
         <v>7.9216954917776555E-2</v>
       </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2209,8 +6514,11 @@
         <f t="shared" si="1"/>
         <v>0.12049283224468281</v>
       </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +6561,7 @@
         <v>0.13828113968243994</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2296,7 +6604,7 @@
         <v>8.4020108176697431E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +6636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7250,10 +11558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6BD57F-E798-4F5D-A40D-A65A808483B8}">
-  <dimension ref="A1:BV44"/>
+  <dimension ref="A1:CA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BW10" sqref="BW10"/>
+    <sheetView topLeftCell="AM34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AY88" sqref="AY88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7267,7 +11575,7 @@
     <col min="9" max="9" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="4" customFormat="1">
+    <row r="1" spans="1:79" s="4" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
@@ -7345,7 +11653,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="6" customFormat="1">
+    <row r="2" spans="1:79" s="6" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
@@ -7546,8 +11854,11 @@
       <c r="BU2" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="CA2" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" s="4" customFormat="1">
+    <row r="3" spans="1:79" s="4" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -7746,15 +12057,27 @@
         <v>3.5520660333333336E-2</v>
       </c>
       <c r="BU3" s="4">
-        <f t="shared" ref="BU3:BV30" si="1">0.0145*BP3 - 0.2126</f>
+        <f t="shared" ref="BU3:BV29" si="1">0.0145*BP3 - 0.2126</f>
         <v>0.86657964074000005</v>
       </c>
       <c r="BV3" s="4">
         <f>0.0145*BQ3 - 0.2126</f>
         <v>0.55844154143999991</v>
       </c>
+      <c r="BX3" s="4">
+        <f>_xlfn.STDEV.S(B3,M3,X3,AI3,AT4,BE3)</f>
+        <v>25.011749507910341</v>
+      </c>
+      <c r="BY3" s="4">
+        <f>0.0145*BX3 - 0.2126</f>
+        <v>0.15007036786469996</v>
+      </c>
+      <c r="CA3" s="4">
+        <f>BU3-BU7</f>
+        <v>9.6157578558999979E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" s="6" customFormat="1">
+    <row r="4" spans="1:79" s="6" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -7960,8 +12283,20 @@
         <f t="shared" si="1"/>
         <v>0.15553645346083339</v>
       </c>
+      <c r="BX4" s="4">
+        <f t="shared" ref="BX4:BX30" si="3">_xlfn.STDEV.S(B4,M4,X4,AI4,AT5,BE4)</f>
+        <v>9.8530317689800953</v>
+      </c>
+      <c r="BY4" s="4">
+        <f t="shared" ref="BY4:BY30" si="4">0.0145*BX4 - 0.2126</f>
+        <v>-6.9731039349788609E-2</v>
+      </c>
+      <c r="CA4" s="4">
+        <f>BU4-BU7</f>
+        <v>0.39952212065483317</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" s="4" customFormat="1">
+    <row r="5" spans="1:79" s="4" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -8167,8 +12502,20 @@
         <f t="shared" si="1"/>
         <v>0.12409169277833337</v>
       </c>
+      <c r="BX5" s="4">
+        <f t="shared" si="3"/>
+        <v>9.8870761935826827</v>
+      </c>
+      <c r="BY5" s="4">
+        <f t="shared" si="4"/>
+        <v>-6.923739519305111E-2</v>
+      </c>
+      <c r="CA5" s="4">
+        <f>BU5-BU7</f>
+        <v>0.32929849503650011</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" s="6" customFormat="1">
+    <row r="6" spans="1:79" s="6" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -8374,8 +12721,20 @@
         <f t="shared" si="1"/>
         <v>7.1656161569166654E-2</v>
       </c>
+      <c r="BX6" s="4">
+        <f t="shared" si="3"/>
+        <v>8.7603936892895469</v>
+      </c>
+      <c r="BY6" s="4">
+        <f t="shared" si="4"/>
+        <v>-8.5574291505301575E-2</v>
+      </c>
+      <c r="CA6" s="4">
+        <f>BU6-BU7</f>
+        <v>0.18835044064899986</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" s="4" customFormat="1">
+    <row r="7" spans="1:79" s="4" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -8581,8 +12940,20 @@
         <f t="shared" si="1"/>
         <v>9.7006984912000049E-2</v>
       </c>
+      <c r="BX7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.2571990380472817</v>
+      </c>
+      <c r="BY7" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.10737061394831442</v>
+      </c>
+      <c r="CA7" s="4">
+        <f>BU7-BU7</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" s="6" customFormat="1">
+    <row r="8" spans="1:79" s="6" customFormat="1">
       <c r="A8" s="12">
         <v>215</v>
       </c>
@@ -8666,8 +13037,13 @@
       </c>
       <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
+      <c r="BX8" s="4" t="e">
+        <f>_xlfn.STDEV.S(B8,M8,X8,AI8,AT9,BE8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY8" s="4"/>
     </row>
-    <row r="9" spans="1:74" s="4" customFormat="1">
+    <row r="9" spans="1:79" s="4" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -8858,15 +13234,15 @@
         <v>48.202060703977651</v>
       </c>
       <c r="BQ9" s="4">
-        <f t="shared" ref="BQ9:BQ13" si="3">AVERAGE(C10,N10,Y10,AJ10,AU10,BF10)</f>
+        <f t="shared" ref="BQ9:BQ13" si="5">AVERAGE(C10,N10,Y10,AJ10,AU10,BF10)</f>
         <v>66.267198298233311</v>
       </c>
       <c r="BR9" s="4">
-        <f t="shared" ref="BR9:BR13" si="4">AVERAGE(D10,O10,Z10,AK10,AV10,BG10)</f>
+        <f t="shared" ref="BR9:BR13" si="6">AVERAGE(D10,O10,Z10,AK10,AV10,BG10)</f>
         <v>2723.9791666666665</v>
       </c>
       <c r="BS9" s="4">
-        <f t="shared" ref="BS9:BS13" si="5">AVERAGE(E10,P10,AA10,AL10,AW10,BH10)</f>
+        <f t="shared" ref="BS9:BS13" si="7">AVERAGE(E10,P10,AA10,AL10,AW10,BH10)</f>
         <v>2.2343671991154918E-2</v>
       </c>
       <c r="BU9" s="4">
@@ -8877,8 +13253,12 @@
         <f t="shared" si="1"/>
         <v>0.74827437532438301</v>
       </c>
+      <c r="BX9" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" s="6" customFormat="1">
+    <row r="10" spans="1:79" s="6" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
@@ -9061,19 +13441,19 @@
         <v>1</v>
       </c>
       <c r="BP10" s="6">
-        <f t="shared" ref="BP10:BP13" si="6">AVERAGE(B11,M11,X11,AI11,AT11,BE11)</f>
+        <f t="shared" ref="BP10:BP13" si="8">AVERAGE(B11,M11,X11,AI11,AT11,BE11)</f>
         <v>74.208596095121223</v>
       </c>
       <c r="BQ10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.320449097278583</v>
       </c>
       <c r="BR10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2815.3125</v>
       </c>
       <c r="BS10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1500426738046879E-2</v>
       </c>
       <c r="BU10" s="4">
@@ -9084,8 +13464,16 @@
         <f t="shared" si="1"/>
         <v>0.16904651191053949</v>
       </c>
+      <c r="BX10" s="4">
+        <f t="shared" si="3"/>
+        <v>20.339908151977994</v>
+      </c>
+      <c r="BY10" s="4">
+        <f t="shared" si="4"/>
+        <v>8.2328668203680899E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" s="4" customFormat="1">
+    <row r="11" spans="1:79" s="4" customFormat="1">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
@@ -9268,19 +13656,19 @@
         <v>2</v>
       </c>
       <c r="BP11" s="4">
+        <f t="shared" si="8"/>
+        <v>70.712062505562912</v>
+      </c>
+      <c r="BQ11" s="4">
+        <f t="shared" si="5"/>
+        <v>23.904684290768984</v>
+      </c>
+      <c r="BR11" s="4">
         <f t="shared" si="6"/>
-        <v>70.712062505562912</v>
-      </c>
-      <c r="BQ11" s="4">
-        <f t="shared" si="3"/>
-        <v>23.904684290768984</v>
-      </c>
-      <c r="BR11" s="4">
-        <f t="shared" si="4"/>
         <v>2723.9791666666665</v>
       </c>
       <c r="BS11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1187472305956299E-2</v>
       </c>
       <c r="BU11" s="4">
@@ -9291,8 +13679,16 @@
         <f t="shared" si="1"/>
         <v>0.13401792221615028</v>
       </c>
+      <c r="BX11" s="4">
+        <f t="shared" si="3"/>
+        <v>11.201065531447728</v>
+      </c>
+      <c r="BY11" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.0184549794007938E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" s="6" customFormat="1">
+    <row r="12" spans="1:79" s="6" customFormat="1">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -9475,19 +13871,19 @@
         <v>3</v>
       </c>
       <c r="BP12" s="6">
+        <f t="shared" si="8"/>
+        <v>63.180655873432045</v>
+      </c>
+      <c r="BQ12" s="6">
+        <f t="shared" si="5"/>
+        <v>29.855919365346697</v>
+      </c>
+      <c r="BR12" s="6">
         <f t="shared" si="6"/>
-        <v>63.180655873432045</v>
-      </c>
-      <c r="BQ12" s="6">
-        <f t="shared" si="3"/>
-        <v>29.855919365346697</v>
-      </c>
-      <c r="BR12" s="6">
-        <f t="shared" si="4"/>
         <v>2723.9791666666665</v>
       </c>
       <c r="BS12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8050714851571169E-2</v>
       </c>
       <c r="BU12" s="4">
@@ -9498,8 +13894,16 @@
         <f t="shared" si="1"/>
         <v>0.22031083079752711</v>
       </c>
+      <c r="BX12" s="4">
+        <f t="shared" si="3"/>
+        <v>9.4529440702935368</v>
+      </c>
+      <c r="BY12" s="4">
+        <f t="shared" si="4"/>
+        <v>-7.5532310980743728E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" s="4" customFormat="1">
+    <row r="13" spans="1:79" s="4" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
@@ -9682,19 +14086,19 @@
         <v>4</v>
       </c>
       <c r="BP13" s="4">
+        <f t="shared" si="8"/>
+        <v>53.146133306819422</v>
+      </c>
+      <c r="BQ13" s="4">
+        <f t="shared" si="5"/>
+        <v>34.536223786286136</v>
+      </c>
+      <c r="BR13" s="4">
         <f t="shared" si="6"/>
-        <v>53.146133306819422</v>
-      </c>
-      <c r="BQ13" s="4">
-        <f t="shared" si="3"/>
-        <v>34.536223786286136</v>
-      </c>
-      <c r="BR13" s="4">
-        <f t="shared" si="4"/>
         <v>2857.75</v>
       </c>
       <c r="BS13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3365923364988002E-2</v>
       </c>
       <c r="BU13" s="4">
@@ -9705,8 +14109,16 @@
         <f t="shared" si="1"/>
         <v>0.28817524490114899</v>
       </c>
+      <c r="BX13" s="4">
+        <f t="shared" si="3"/>
+        <v>11.03171944933049</v>
+      </c>
+      <c r="BY13" s="4">
+        <f t="shared" si="4"/>
+        <v>-5.2640067984707911E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" s="6" customFormat="1">
+    <row r="14" spans="1:79" s="6" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
@@ -9887,8 +14299,16 @@
       <c r="BN14" s="9"/>
       <c r="BU14" s="4"/>
       <c r="BV14" s="4"/>
+      <c r="BX14" s="4">
+        <f t="shared" si="3"/>
+        <v>9.1166053690488216</v>
+      </c>
+      <c r="BY14" s="4">
+        <f t="shared" si="4"/>
+        <v>-8.0409222148792092E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:79">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -9963,8 +14383,13 @@
       </c>
       <c r="BU15" s="4"/>
       <c r="BV15" s="4"/>
+      <c r="BX15" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY15" s="4"/>
     </row>
-    <row r="16" spans="1:74" s="8" customFormat="1">
+    <row r="16" spans="1:79" s="8" customFormat="1">
       <c r="A16" s="14" t="s">
         <v>79</v>
       </c>
@@ -10052,8 +14477,13 @@
       </c>
       <c r="BU16" s="4"/>
       <c r="BV16" s="4"/>
+      <c r="BX16" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY16" s="4"/>
     </row>
-    <row r="17" spans="1:74" s="6" customFormat="1">
+    <row r="17" spans="1:77" s="6" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
@@ -10244,19 +14674,19 @@
         <v>0</v>
       </c>
       <c r="BP17" s="6">
-        <f t="shared" ref="BP17:BS20" si="7">AVERAGE(B18,M18,X18,AI18,AT19,BE18)</f>
+        <f t="shared" ref="BP17:BS20" si="9">AVERAGE(B18,M18,X18,AI18,AT19,BE18)</f>
         <v>260.33273061046685</v>
       </c>
       <c r="BQ17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>200.17276190279131</v>
       </c>
       <c r="BR17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2029.0208333333333</v>
       </c>
       <c r="BS17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14282244999494054</v>
       </c>
       <c r="BU17" s="4">
@@ -10267,8 +14697,13 @@
         <f t="shared" si="1"/>
         <v>2.6899050475904738</v>
       </c>
+      <c r="BX17" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY17" s="4"/>
     </row>
-    <row r="18" spans="1:74" s="8" customFormat="1">
+    <row r="18" spans="1:77" s="8" customFormat="1">
       <c r="A18" s="14" t="s">
         <v>0</v>
       </c>
@@ -10453,19 +14888,19 @@
         <v>1</v>
       </c>
       <c r="BP18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>92.02282837709231</v>
       </c>
       <c r="BQ18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29.948867212616431</v>
       </c>
       <c r="BR18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2029.0208333333333</v>
       </c>
       <c r="BS18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.0975481498100765E-2</v>
       </c>
       <c r="BU18" s="4">
@@ -10476,8 +14911,16 @@
         <f t="shared" si="1"/>
         <v>0.22165857458293825</v>
       </c>
+      <c r="BX18" s="4">
+        <f t="shared" si="3"/>
+        <v>133.55101575911311</v>
+      </c>
+      <c r="BY18" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7238897285071402</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" s="6" customFormat="1">
+    <row r="19" spans="1:77" s="6" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -10662,19 +15105,19 @@
         <v>2</v>
       </c>
       <c r="BP19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>87.016809968022883</v>
       </c>
       <c r="BQ19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28.192981393093319</v>
       </c>
       <c r="BR19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2029.0208333333333</v>
       </c>
       <c r="BS19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.7895474759873748E-2</v>
       </c>
       <c r="BU19" s="4">
@@ -10685,8 +15128,16 @@
         <f t="shared" si="1"/>
         <v>0.19619823019985316</v>
       </c>
+      <c r="BX19" s="4">
+        <f t="shared" si="3"/>
+        <v>9.4424462565767797</v>
+      </c>
+      <c r="BY19" s="4">
+        <f t="shared" si="4"/>
+        <v>-7.5684529279636703E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" s="8" customFormat="1">
+    <row r="20" spans="1:77" s="8" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
@@ -10871,19 +15322,19 @@
         <v>3</v>
       </c>
       <c r="BP20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>76.280069946700849</v>
       </c>
       <c r="BQ20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.270215442772734</v>
       </c>
       <c r="BR20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2029.0208333333333</v>
       </c>
       <c r="BS20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.2037554448909144E-2</v>
       </c>
       <c r="BU20" s="4">
@@ -10894,8 +15345,16 @@
         <f t="shared" si="1"/>
         <v>0.12481812392020464</v>
       </c>
+      <c r="BX20" s="4">
+        <f t="shared" si="3"/>
+        <v>9.5931810215424953</v>
+      </c>
+      <c r="BY20" s="4">
+        <f t="shared" si="4"/>
+        <v>-7.3498875187633816E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" s="6" customFormat="1">
+    <row r="21" spans="1:77" s="6" customFormat="1">
       <c r="A21" s="12" t="s">
         <v>3</v>
       </c>
@@ -11084,15 +15543,15 @@
         <v>65.554548462709462</v>
       </c>
       <c r="BQ21" s="8">
-        <f t="shared" ref="BQ21:BS21" si="8">AVERAGE(C22,N22,Y22,AJ22,AU23,BF22)</f>
+        <f t="shared" ref="BQ21:BS21" si="10">AVERAGE(C22,N22,Y22,AJ22,AU23,BF22)</f>
         <v>21.603857199428219</v>
       </c>
       <c r="BR21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2118.9499999999998</v>
       </c>
       <c r="BS21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.5311968188453696E-2</v>
       </c>
       <c r="BU21" s="4">
@@ -11103,8 +15562,16 @@
         <f t="shared" si="1"/>
         <v>0.1006559293917092</v>
       </c>
+      <c r="BX21" s="4">
+        <f t="shared" si="3"/>
+        <v>6.5639702871538974</v>
+      </c>
+      <c r="BY21" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.11742243083626849</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" s="8" customFormat="1">
+    <row r="22" spans="1:77" s="8" customFormat="1">
       <c r="A22" s="14" t="s">
         <v>4</v>
       </c>
@@ -11287,8 +15754,16 @@
       <c r="BN22" s="9"/>
       <c r="BU22" s="4"/>
       <c r="BV22" s="4"/>
+      <c r="BX22" s="4">
+        <f t="shared" si="3"/>
+        <v>5.692379034510636</v>
+      </c>
+      <c r="BY22" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13006050399959579</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" s="6" customFormat="1">
+    <row r="23" spans="1:77" s="6" customFormat="1">
       <c r="A23" s="12">
         <v>210</v>
       </c>
@@ -11369,8 +15844,13 @@
       <c r="BN23" s="9"/>
       <c r="BU23" s="4"/>
       <c r="BV23" s="4"/>
+      <c r="BX23" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY23" s="4"/>
     </row>
-    <row r="24" spans="1:74" s="8" customFormat="1">
+    <row r="24" spans="1:77" s="8" customFormat="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -11442,8 +15922,13 @@
       </c>
       <c r="BU24" s="4"/>
       <c r="BV24" s="4"/>
+      <c r="BX24" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY24" s="4"/>
     </row>
-    <row r="25" spans="1:74" s="6" customFormat="1">
+    <row r="25" spans="1:77" s="6" customFormat="1">
       <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
@@ -11638,15 +16123,15 @@
         <v>266.48080051621997</v>
       </c>
       <c r="BQ25" s="6">
-        <f t="shared" ref="BQ25:BQ28" si="9">AVERAGE(C26,N26,Y26,AJ26,AU26,BF26)</f>
+        <f t="shared" ref="BQ25:BQ28" si="11">AVERAGE(C26,N26,Y26,AJ26,AU26,BF26)</f>
         <v>169.74576474014106</v>
       </c>
       <c r="BR25" s="6">
-        <f t="shared" ref="BR25:BR29" si="10">AVERAGE(D26,O26,Z26,AK26,AV26,BG26)</f>
+        <f t="shared" ref="BR25:BR29" si="12">AVERAGE(D26,O26,Z26,AK26,AV26,BG26)</f>
         <v>2074.4375</v>
       </c>
       <c r="BS25" s="6">
-        <f t="shared" ref="BS25:BS29" si="11">AVERAGE(E26,P26,AA26,AL26,AW26,BH26)</f>
+        <f t="shared" ref="BS25:BS29" si="13">AVERAGE(E26,P26,AA26,AL26,AW26,BH26)</f>
         <v>0.15898107926673014</v>
       </c>
       <c r="BU25" s="4">
@@ -11657,8 +16142,13 @@
         <f t="shared" si="1"/>
         <v>2.2487135887320453</v>
       </c>
+      <c r="BX25" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY25" s="4"/>
     </row>
-    <row r="26" spans="1:74" s="8" customFormat="1">
+    <row r="26" spans="1:77" s="8" customFormat="1">
       <c r="A26" s="14" t="s">
         <v>0</v>
       </c>
@@ -11847,15 +16337,15 @@
         <v>71.493343392241286</v>
       </c>
       <c r="BQ26" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27.873753111756233</v>
       </c>
       <c r="BR26" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2055.75</v>
       </c>
       <c r="BS26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9528386164440495E-2</v>
       </c>
       <c r="BU26" s="4">
@@ -11866,8 +16356,16 @@
         <f t="shared" si="1"/>
         <v>0.19156942012046541</v>
       </c>
+      <c r="BX26" s="4">
+        <f t="shared" si="3"/>
+        <v>98.884292078229535</v>
+      </c>
+      <c r="BY26" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2212222351343285</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" s="6" customFormat="1">
+    <row r="27" spans="1:77" s="6" customFormat="1">
       <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
@@ -12056,15 +16554,15 @@
         <v>72.626107334051383</v>
       </c>
       <c r="BQ27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23.90611436455578</v>
       </c>
       <c r="BR27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2074.4375</v>
       </c>
       <c r="BS27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.9803878296599267E-2</v>
       </c>
       <c r="BU27" s="4">
@@ -12075,8 +16573,16 @@
         <f t="shared" si="1"/>
         <v>0.13403865828605882</v>
       </c>
+      <c r="BX27" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4210308113764007</v>
+      </c>
+      <c r="BY27" s="4">
+        <f t="shared" si="4"/>
+        <v>-9.04950532350422E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" s="8" customFormat="1">
+    <row r="28" spans="1:77" s="8" customFormat="1">
       <c r="A28" s="14" t="s">
         <v>2</v>
       </c>
@@ -12265,15 +16771,15 @@
         <v>63.612485621052606</v>
       </c>
       <c r="BQ28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20.334536847693684</v>
       </c>
       <c r="BR28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2074.4375</v>
       </c>
       <c r="BS28" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.4977657601842897E-2</v>
       </c>
       <c r="BU28" s="4">
@@ -12284,8 +16790,16 @@
         <f t="shared" si="1"/>
         <v>8.225078429155841E-2</v>
       </c>
+      <c r="BX28" s="4">
+        <f t="shared" si="3"/>
+        <v>6.7282472965072184</v>
+      </c>
+      <c r="BY28" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.11504041420064534</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" s="6" customFormat="1">
+    <row r="29" spans="1:77" s="6" customFormat="1">
       <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
@@ -12474,15 +16988,15 @@
         <v>57.302363010918818</v>
       </c>
       <c r="BQ29" s="6">
-        <f t="shared" ref="BQ29" si="12">AVERAGE(C30,N30,Y30,AJ30,AU30,BF30)</f>
+        <f t="shared" ref="BQ29" si="14">AVERAGE(C30,N30,Y30,AJ30,AU30,BF30)</f>
         <v>19.405117775936439</v>
       </c>
       <c r="BR29" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2210.8000000000002</v>
       </c>
       <c r="BS29" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9920470684951756E-2</v>
       </c>
       <c r="BU29" s="4">
@@ -12493,8 +17007,16 @@
         <f t="shared" si="1"/>
         <v>6.8774207751078398E-2</v>
       </c>
+      <c r="BX29" s="4">
+        <f t="shared" si="3"/>
+        <v>5.570098458558653</v>
+      </c>
+      <c r="BY29" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13183357235089954</v>
+      </c>
     </row>
-    <row r="30" spans="1:74" s="8" customFormat="1">
+    <row r="30" spans="1:77" s="8" customFormat="1">
       <c r="A30" s="14" t="s">
         <v>4</v>
       </c>
@@ -12677,8 +17199,16 @@
       <c r="BN30" s="9"/>
       <c r="BU30" s="4"/>
       <c r="BV30" s="4"/>
+      <c r="BX30" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6751816708206428</v>
+      </c>
+      <c r="BY30" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13030986577310069</v>
+      </c>
     </row>
-    <row r="31" spans="1:74">
+    <row r="31" spans="1:77">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -12739,24 +17269,24 @@
       <c r="BF31" s="9"/>
       <c r="BG31" s="9"/>
     </row>
-    <row r="34" spans="2:50">
+    <row r="34" spans="2:73">
       <c r="B34" s="14">
-        <v>26.00896389</v>
+        <v>58.149384189999999</v>
       </c>
       <c r="C34" s="14">
-        <v>19.270025892507402</v>
+        <v>61.752530102681497</v>
       </c>
       <c r="D34" s="14">
-        <v>16.34281116</v>
+        <v>55.25225812</v>
       </c>
       <c r="E34" s="14">
-        <v>19.77228212</v>
+        <v>63.000428380000002</v>
       </c>
       <c r="F34">
-        <v>15.6315058171748</v>
+        <v>48.357214261912603</v>
       </c>
       <c r="G34" s="14">
-        <v>19.83689592</v>
+        <v>67.170821040000007</v>
       </c>
       <c r="H34" s="4"/>
       <c r="V34" s="12"/>
@@ -12766,56 +17296,4085 @@
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
     </row>
-    <row r="36" spans="2:50">
+    <row r="36" spans="2:73">
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="V36" s="14"/>
     </row>
-    <row r="39" spans="2:50">
+    <row r="38" spans="2:73">
+      <c r="BK38" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:73">
       <c r="AV39" t="s">
         <v>90</v>
       </c>
+      <c r="BK39" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="40" spans="2:50">
+    <row r="40" spans="2:73">
       <c r="AW40" t="s">
         <v>88</v>
       </c>
       <c r="AX40" t="s">
         <v>89</v>
       </c>
+      <c r="BK40">
+        <v>3.6551479434999998</v>
+      </c>
+      <c r="BL40">
+        <v>3.5622245938517696</v>
+      </c>
     </row>
-    <row r="41" spans="2:50">
+    <row r="41" spans="2:73">
       <c r="AW41" s="6">
         <v>83.39</v>
       </c>
       <c r="AX41" s="4">
         <v>1.04</v>
       </c>
+      <c r="BK41">
+        <v>0.5634180858333333</v>
+      </c>
+      <c r="BL41">
+        <v>1.1217310114678387</v>
+      </c>
+      <c r="BT41">
+        <v>0.57219364716666665</v>
+      </c>
+      <c r="BU41">
+        <v>1.1699441828358332</v>
+      </c>
     </row>
-    <row r="42" spans="2:50">
+    <row r="42" spans="2:73">
       <c r="AW42" s="6">
         <v>215.78</v>
       </c>
       <c r="AX42" s="4">
         <v>2.76</v>
       </c>
+      <c r="BK42">
+        <v>0.48500275349999994</v>
+      </c>
+      <c r="BL42">
+        <v>1.0491437445363321</v>
+      </c>
+      <c r="BT42">
+        <v>0.51648285150000006</v>
+      </c>
+      <c r="BU42">
+        <v>1.0997205572175002</v>
+      </c>
     </row>
-    <row r="43" spans="2:50">
+    <row r="43" spans="2:73">
       <c r="AW43" s="6">
         <v>360.4</v>
       </c>
       <c r="AX43" s="4">
         <v>5.24</v>
       </c>
+      <c r="BK43">
+        <v>0.32400743283333333</v>
+      </c>
+      <c r="BL43">
+        <v>0.89346101422716229</v>
+      </c>
+      <c r="BT43">
+        <v>0.36640090600000003</v>
+      </c>
+      <c r="BU43">
+        <v>0.95877250282999993</v>
+      </c>
     </row>
-    <row r="44" spans="2:50">
+    <row r="44" spans="2:73">
       <c r="AW44" s="6">
         <v>521.98</v>
       </c>
       <c r="AX44" s="4">
         <v>7.3</v>
+      </c>
+      <c r="BK44">
+        <v>0.22029391380000002</v>
+      </c>
+      <c r="BL44">
+        <v>0.73794095270928728</v>
+      </c>
+      <c r="BT44">
+        <v>0.21038559979999999</v>
+      </c>
+      <c r="BU44">
+        <v>0.77042206218100007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:73">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:73">
+      <c r="A59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="10"/>
+      <c r="AO59" s="10"/>
+      <c r="AP59" s="10"/>
+      <c r="AQ59" s="10"/>
+      <c r="AR59" s="9"/>
+      <c r="AS59" s="10"/>
+      <c r="AT59" s="10"/>
+      <c r="AU59" s="10"/>
+      <c r="AV59" s="10"/>
+      <c r="AW59" s="10"/>
+      <c r="AX59" s="10"/>
+      <c r="AY59" s="10"/>
+      <c r="AZ59" s="10"/>
+      <c r="BA59" s="10"/>
+      <c r="BB59" s="10"/>
+      <c r="BC59" s="11"/>
+      <c r="BD59" s="10"/>
+      <c r="BE59" s="10"/>
+      <c r="BF59" s="10"/>
+      <c r="BG59" s="10"/>
+      <c r="BH59" s="10"/>
+      <c r="BI59" s="10"/>
+      <c r="BJ59" s="10"/>
+      <c r="BK59" s="10"/>
+      <c r="BL59" s="10"/>
+      <c r="BM59" s="10"/>
+      <c r="BN59" s="9"/>
+      <c r="BO59" s="4"/>
+      <c r="BP59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR59" s="4"/>
+      <c r="BS59" s="4"/>
+      <c r="BU59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:73">
+      <c r="A60" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V60" s="9"/>
+      <c r="W60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA60" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL60" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR60" s="9"/>
+      <c r="AS60" s="12"/>
+      <c r="AT60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW60" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC60" s="11"/>
+      <c r="BD60" s="12"/>
+      <c r="BE60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH60" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN60" s="9"/>
+      <c r="BO60" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR60" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS60" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:73">
+      <c r="A61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="16">
+        <v>0.13031199199999999</v>
+      </c>
+      <c r="C61" s="16">
+        <v>0.36493811700000001</v>
+      </c>
+      <c r="D61" s="16">
+        <v>2307.75</v>
+      </c>
+      <c r="E61" s="18">
+        <v>5.6499999999999998E-5</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0.12709852399999999</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0.34175067799999997</v>
+      </c>
+      <c r="H61" s="10">
+        <v>3041.125</v>
+      </c>
+      <c r="I61" s="19">
+        <v>4.18E-5</v>
+      </c>
+      <c r="J61" s="10">
+        <v>9.4029600000000001E-3</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="16">
+        <v>0.17918635799999999</v>
+      </c>
+      <c r="N61" s="16">
+        <v>0.40304173300000001</v>
+      </c>
+      <c r="O61" s="16">
+        <v>1957.25</v>
+      </c>
+      <c r="P61" s="18">
+        <v>9.1600000000000004E-5</v>
+      </c>
+      <c r="Q61" s="16">
+        <v>0.58433449000000004</v>
+      </c>
+      <c r="R61" s="16">
+        <v>1.4238881459999999</v>
+      </c>
+      <c r="S61" s="16">
+        <v>2844.625</v>
+      </c>
+      <c r="T61" s="16">
+        <v>2.05417E-4</v>
+      </c>
+      <c r="U61" s="16">
+        <v>-0.28453648799999998</v>
+      </c>
+      <c r="V61" s="9"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="16">
+        <v>0.51212124000000003</v>
+      </c>
+      <c r="Y61" s="16">
+        <v>1.858977002</v>
+      </c>
+      <c r="Z61" s="16">
+        <v>2680.625</v>
+      </c>
+      <c r="AA61" s="16">
+        <v>1.9104500000000001E-4</v>
+      </c>
+      <c r="AB61" s="16">
+        <v>1.102328711</v>
+      </c>
+      <c r="AC61" s="16">
+        <v>2.759356457</v>
+      </c>
+      <c r="AD61" s="16">
+        <v>3380.625</v>
+      </c>
+      <c r="AE61" s="16">
+        <v>3.26072E-4</v>
+      </c>
+      <c r="AF61" s="16">
+        <v>-0.21389316</v>
+      </c>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="17">
+        <v>0.90318061900000002</v>
+      </c>
+      <c r="AJ61" s="17">
+        <v>2.0929160659999999</v>
+      </c>
+      <c r="AK61" s="17">
+        <v>1847.125</v>
+      </c>
+      <c r="AL61" s="17">
+        <v>4.8896599999999997E-4</v>
+      </c>
+      <c r="AM61" s="17">
+        <v>1.2034307829999999</v>
+      </c>
+      <c r="AN61" s="17">
+        <v>2.8452360059999999</v>
+      </c>
+      <c r="AO61" s="17">
+        <v>2680.875</v>
+      </c>
+      <c r="AP61" s="17">
+        <v>4.4889499999999999E-4</v>
+      </c>
+      <c r="AQ61" s="17">
+        <v>-0.105527332</v>
+      </c>
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="10"/>
+      <c r="AT61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC61" s="11"/>
+      <c r="BD61" s="10"/>
+      <c r="BE61" s="10">
+        <v>0.295301653</v>
+      </c>
+      <c r="BF61" s="10">
+        <v>1.0802362999999999</v>
+      </c>
+      <c r="BG61" s="10">
+        <v>4605.875</v>
+      </c>
+      <c r="BH61" s="19">
+        <v>6.41E-5</v>
+      </c>
+      <c r="BI61" s="10">
+        <v>0.56318398800000002</v>
+      </c>
+      <c r="BJ61" s="10">
+        <v>1.4673278430000001</v>
+      </c>
+      <c r="BK61" s="10">
+        <v>4215.625</v>
+      </c>
+      <c r="BL61" s="10">
+        <v>1.3359400000000001E-4</v>
+      </c>
+      <c r="BM61" s="10">
+        <v>-0.182564746</v>
+      </c>
+      <c r="BN61" s="9"/>
+      <c r="BO61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP61" s="4">
+        <f>AVERAGE(B61,M61,X61,AI61,AT62,BE61)</f>
+        <v>0.45526430816666669</v>
+      </c>
+      <c r="BQ61" s="4">
+        <f t="shared" ref="BQ61:BQ65" si="15">AVERAGE(C61,N61,Y61,AJ61,AU62,BF61)</f>
+        <v>1.0416810203333333</v>
+      </c>
+      <c r="BR61" s="4">
+        <f t="shared" ref="BR61:BR65" si="16">AVERAGE(D61,O61,Z61,AK61,AV62,BG61)</f>
+        <v>2694.9791666666665</v>
+      </c>
+      <c r="BS61" s="4">
+        <f t="shared" ref="BS61:BS65" si="17">AVERAGE(E61,P61,AA61,AL61,AW62,BH61)</f>
+        <v>1.9149149999999999E-4</v>
+      </c>
+      <c r="BU61" s="4">
+        <f>(BP61+0.2126)/0.0145</f>
+        <v>46.059607459770113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:73">
+      <c r="A62" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="12">
+        <v>0.43152637900000002</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0.192915695</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2307.75</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1.8699E-4</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0.20149286899999999</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0.179550292</v>
+      </c>
+      <c r="H62" s="12">
+        <v>3041.125</v>
+      </c>
+      <c r="I62" s="20">
+        <v>6.6299999999999999E-5</v>
+      </c>
+      <c r="J62" s="12">
+        <v>1.2811647779999999</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M62" s="12">
+        <v>0.63567391100000004</v>
+      </c>
+      <c r="N62" s="12">
+        <v>0.28163260400000001</v>
+      </c>
+      <c r="O62" s="12">
+        <v>2335.25</v>
+      </c>
+      <c r="P62" s="12">
+        <v>2.7220800000000002E-4</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>0.28921582499999998</v>
+      </c>
+      <c r="R62" s="12">
+        <v>0.23083009099999999</v>
+      </c>
+      <c r="S62" s="12">
+        <v>3011.125</v>
+      </c>
+      <c r="T62" s="20">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="U62" s="12">
+        <v>1.500922538</v>
+      </c>
+      <c r="V62" s="9"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12">
+        <v>0.75800139899999996</v>
+      </c>
+      <c r="Y62" s="12">
+        <v>0.34665369200000001</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>2680.625</v>
+      </c>
+      <c r="AA62" s="12">
+        <v>2.8277E-4</v>
+      </c>
+      <c r="AB62" s="12">
+        <v>0.31546237799999999</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>0.31089562500000001</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>3380.625</v>
+      </c>
+      <c r="AE62" s="20">
+        <v>9.3300000000000005E-5</v>
+      </c>
+      <c r="AF62" s="12">
+        <v>1.423432773</v>
+      </c>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12">
+        <v>0.77403126499999997</v>
+      </c>
+      <c r="AJ62" s="12">
+        <v>0.34365738200000001</v>
+      </c>
+      <c r="AK62" s="12">
+        <v>1847.125</v>
+      </c>
+      <c r="AL62" s="12">
+        <v>4.1904600000000001E-4</v>
+      </c>
+      <c r="AM62" s="12">
+        <v>0.33362335100000001</v>
+      </c>
+      <c r="AN62" s="12">
+        <v>0.32666389299999998</v>
+      </c>
+      <c r="AO62" s="12">
+        <v>2680.875</v>
+      </c>
+      <c r="AP62" s="12">
+        <v>1.2444600000000001E-4</v>
+      </c>
+      <c r="AQ62" s="12">
+        <v>1.348198942</v>
+      </c>
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="10">
+        <v>0.71148398700000004</v>
+      </c>
+      <c r="AU62" s="10">
+        <v>0.44997690400000001</v>
+      </c>
+      <c r="AV62" s="10">
+        <v>2771.25</v>
+      </c>
+      <c r="AW62" s="10">
+        <v>2.5673800000000001E-4</v>
+      </c>
+      <c r="AX62" s="10">
+        <v>0.33812990999999998</v>
+      </c>
+      <c r="AY62" s="10">
+        <v>0.47241360399999999</v>
+      </c>
+      <c r="AZ62" s="10">
+        <v>3261.875</v>
+      </c>
+      <c r="BA62" s="10">
+        <v>1.03661E-4</v>
+      </c>
+      <c r="BB62" s="10">
+        <v>0.790311867</v>
+      </c>
+      <c r="BC62" s="11"/>
+      <c r="BD62" s="12"/>
+      <c r="BE62" s="12">
+        <v>0.49023204100000001</v>
+      </c>
+      <c r="BF62" s="12">
+        <v>0.19223210600000001</v>
+      </c>
+      <c r="BG62" s="12">
+        <v>4605.875</v>
+      </c>
+      <c r="BH62" s="12">
+        <v>1.06436E-4</v>
+      </c>
+      <c r="BI62" s="12">
+        <v>0.19299451400000001</v>
+      </c>
+      <c r="BJ62" s="12">
+        <v>0.22836266299999999</v>
+      </c>
+      <c r="BK62" s="12">
+        <v>4215.625</v>
+      </c>
+      <c r="BL62" s="20">
+        <v>4.5800000000000002E-5</v>
+      </c>
+      <c r="BM62" s="12">
+        <v>1.3016029950000001</v>
+      </c>
+      <c r="BN62" s="9"/>
+      <c r="BO62" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP62" s="4">
+        <f t="shared" ref="BP62:BP65" si="18">AVERAGE(B62,M62,X62,AI62,AT63,BE62)</f>
+        <v>0.57219364716666665</v>
+      </c>
+      <c r="BQ62" s="4">
+        <f t="shared" si="15"/>
+        <v>0.26406398833333339</v>
+      </c>
+      <c r="BR62" s="4">
+        <f t="shared" si="16"/>
+        <v>2757.9791666666665</v>
+      </c>
+      <c r="BS62" s="4">
+        <f t="shared" si="17"/>
+        <v>2.3191199999999994E-4</v>
+      </c>
+      <c r="BU62" s="4">
+        <f t="shared" ref="BU62:BU79" si="19">(BP62+0.2126)/0.0145</f>
+        <v>54.123699804597699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:73">
+      <c r="A63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="10">
+        <v>0.374784964</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0.17203521799999999</v>
+      </c>
+      <c r="D63" s="10">
+        <v>2307.75</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1.6240300000000001E-4</v>
+      </c>
+      <c r="F63" s="10">
+        <v>0.19572362200000001</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0.16873421499999999</v>
+      </c>
+      <c r="H63" s="10">
+        <v>3041.125</v>
+      </c>
+      <c r="I63" s="19">
+        <v>6.4399999999999993E-5</v>
+      </c>
+      <c r="J63" s="10">
+        <v>1.0612035120000001</v>
+      </c>
+      <c r="K63" s="11"/>
+      <c r="L63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" s="10">
+        <v>0.58588159699999998</v>
+      </c>
+      <c r="N63" s="10">
+        <v>0.25331098699999999</v>
+      </c>
+      <c r="O63" s="10">
+        <v>2335.25</v>
+      </c>
+      <c r="P63" s="10">
+        <v>2.5088600000000002E-4</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>0.27690398100000002</v>
+      </c>
+      <c r="R63" s="10">
+        <v>0.23045775499999999</v>
+      </c>
+      <c r="S63" s="10">
+        <v>3011.125</v>
+      </c>
+      <c r="T63" s="19">
+        <v>9.2E-5</v>
+      </c>
+      <c r="U63" s="10">
+        <v>1.3407126039999999</v>
+      </c>
+      <c r="V63" s="9"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10">
+        <v>0.72683049700000002</v>
+      </c>
+      <c r="Y63" s="10">
+        <v>0.282337532</v>
+      </c>
+      <c r="Z63" s="10">
+        <v>2680.625</v>
+      </c>
+      <c r="AA63" s="10">
+        <v>2.7114199999999999E-4</v>
+      </c>
+      <c r="AB63" s="10">
+        <v>0.31397966399999999</v>
+      </c>
+      <c r="AC63" s="10">
+        <v>0.27108776600000001</v>
+      </c>
+      <c r="AD63" s="10">
+        <v>3380.625</v>
+      </c>
+      <c r="AE63" s="19">
+        <v>9.2899999999999995E-5</v>
+      </c>
+      <c r="AF63" s="10">
+        <v>1.522941586</v>
+      </c>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10">
+        <v>0.70811531400000005</v>
+      </c>
+      <c r="AJ63" s="10">
+        <v>0.34741926099999998</v>
+      </c>
+      <c r="AK63" s="10">
+        <v>1847.125</v>
+      </c>
+      <c r="AL63" s="10">
+        <v>3.8336099999999998E-4</v>
+      </c>
+      <c r="AM63" s="10">
+        <v>0.32365179300000002</v>
+      </c>
+      <c r="AN63" s="10">
+        <v>0.28645214699999999</v>
+      </c>
+      <c r="AO63" s="10">
+        <v>2680.875</v>
+      </c>
+      <c r="AP63" s="10">
+        <v>1.20726E-4</v>
+      </c>
+      <c r="AQ63" s="10">
+        <v>1.3421561879999999</v>
+      </c>
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="10"/>
+      <c r="AT63" s="12">
+        <v>0.34369688799999998</v>
+      </c>
+      <c r="AU63" s="12">
+        <v>0.22729245100000001</v>
+      </c>
+      <c r="AV63" s="12">
+        <v>2771.25</v>
+      </c>
+      <c r="AW63" s="12">
+        <v>1.24022E-4</v>
+      </c>
+      <c r="AX63" s="12">
+        <v>0.18456792499999999</v>
+      </c>
+      <c r="AY63" s="12">
+        <v>0.25254687399999998</v>
+      </c>
+      <c r="AZ63" s="12">
+        <v>3261.875</v>
+      </c>
+      <c r="BA63" s="20">
+        <v>5.66E-5</v>
+      </c>
+      <c r="BB63" s="12">
+        <v>0.63009674400000004</v>
+      </c>
+      <c r="BC63" s="11"/>
+      <c r="BD63" s="10"/>
+      <c r="BE63" s="10">
+        <v>0.43725947799999998</v>
+      </c>
+      <c r="BF63" s="10">
+        <v>0.17906683000000001</v>
+      </c>
+      <c r="BG63" s="10">
+        <v>4605.875</v>
+      </c>
+      <c r="BH63" s="19">
+        <v>9.4900000000000003E-5</v>
+      </c>
+      <c r="BI63" s="10">
+        <v>0.18314603400000001</v>
+      </c>
+      <c r="BJ63" s="10">
+        <v>0.20700739700000001</v>
+      </c>
+      <c r="BK63" s="10">
+        <v>4215.625</v>
+      </c>
+      <c r="BL63" s="19">
+        <v>4.3399999999999998E-5</v>
+      </c>
+      <c r="BM63" s="10">
+        <v>1.227557314</v>
+      </c>
+      <c r="BN63" s="9"/>
+      <c r="BO63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP63" s="4">
+        <f t="shared" si="18"/>
+        <v>0.51648285150000006</v>
+      </c>
+      <c r="BQ63" s="4">
+        <f t="shared" si="15"/>
+        <v>0.23312933199999999</v>
+      </c>
+      <c r="BR63" s="4">
+        <f t="shared" si="16"/>
+        <v>2757.9791666666665</v>
+      </c>
+      <c r="BS63" s="4">
+        <f t="shared" si="17"/>
+        <v>2.0978200000000002E-4</v>
+      </c>
+      <c r="BU63" s="4">
+        <f t="shared" si="19"/>
+        <v>50.281575965517241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:73">
+      <c r="A64" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="12">
+        <v>0.278055465</v>
+      </c>
+      <c r="C64" s="12">
+        <v>0.120163691</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2307.75</v>
+      </c>
+      <c r="E64" s="12">
+        <v>1.20488E-4</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0.15827613099999999</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0.14227410600000001</v>
+      </c>
+      <c r="H64" s="12">
+        <v>3041.125</v>
+      </c>
+      <c r="I64" s="20">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0.84189131399999995</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" s="12">
+        <v>0.48098276400000001</v>
+      </c>
+      <c r="N64" s="12">
+        <v>0.20819743099999999</v>
+      </c>
+      <c r="O64" s="12">
+        <v>2335.25</v>
+      </c>
+      <c r="P64" s="12">
+        <v>2.05966E-4</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>0.27114201500000001</v>
+      </c>
+      <c r="R64" s="12">
+        <v>0.19279175600000001</v>
+      </c>
+      <c r="S64" s="12">
+        <v>3011.125</v>
+      </c>
+      <c r="T64" s="20">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="U64" s="12">
+        <v>1.088432166</v>
+      </c>
+      <c r="V64" s="9"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12">
+        <v>0.51171275400000005</v>
+      </c>
+      <c r="Y64" s="12">
+        <v>0.17392901699999999</v>
+      </c>
+      <c r="Z64" s="12">
+        <v>2680.625</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>1.90893E-4</v>
+      </c>
+      <c r="AB64" s="12">
+        <v>0.27158587499999998</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>0.19560787199999999</v>
+      </c>
+      <c r="AD64" s="12">
+        <v>3380.625</v>
+      </c>
+      <c r="AE64" s="20">
+        <v>8.03E-5</v>
+      </c>
+      <c r="AF64" s="12">
+        <v>1.2275931200000001</v>
+      </c>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12">
+        <v>0.49017797899999999</v>
+      </c>
+      <c r="AJ64" s="12">
+        <v>0.17955401700000001</v>
+      </c>
+      <c r="AK64" s="12">
+        <v>1847.125</v>
+      </c>
+      <c r="AL64" s="12">
+        <v>2.6537300000000001E-4</v>
+      </c>
+      <c r="AM64" s="12">
+        <v>0.274821653</v>
+      </c>
+      <c r="AN64" s="12">
+        <v>0.169388337</v>
+      </c>
+      <c r="AO64" s="12">
+        <v>2680.875</v>
+      </c>
+      <c r="AP64" s="12">
+        <v>1.02512E-4</v>
+      </c>
+      <c r="AQ64" s="12">
+        <v>1.271376348</v>
+      </c>
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="10">
+        <v>0.26602525900000001</v>
+      </c>
+      <c r="AU64" s="10">
+        <v>0.164606164</v>
+      </c>
+      <c r="AV64" s="10">
+        <v>2771.25</v>
+      </c>
+      <c r="AW64" s="19">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="AX64" s="10">
+        <v>0.14661965900000001</v>
+      </c>
+      <c r="AY64" s="10">
+        <v>0.174535314</v>
+      </c>
+      <c r="AZ64" s="10">
+        <v>3261.875</v>
+      </c>
+      <c r="BA64" s="19">
+        <v>4.49E-5</v>
+      </c>
+      <c r="BB64" s="10">
+        <v>0.68413433000000001</v>
+      </c>
+      <c r="BC64" s="11"/>
+      <c r="BD64" s="12"/>
+      <c r="BE64" s="12">
+        <v>0.32979672700000001</v>
+      </c>
+      <c r="BF64" s="12">
+        <v>0.13660492399999999</v>
+      </c>
+      <c r="BG64" s="12">
+        <v>4605.875</v>
+      </c>
+      <c r="BH64" s="20">
+        <v>7.1600000000000006E-5</v>
+      </c>
+      <c r="BI64" s="12">
+        <v>0.14887057100000001</v>
+      </c>
+      <c r="BJ64" s="12">
+        <v>0.15073720299999999</v>
+      </c>
+      <c r="BK64" s="12">
+        <v>4215.625</v>
+      </c>
+      <c r="BL64" s="20">
+        <v>3.5299999999999997E-5</v>
+      </c>
+      <c r="BM64" s="12">
+        <v>1.200275397</v>
+      </c>
+      <c r="BN64" s="9"/>
+      <c r="BO64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP64" s="4">
+        <f t="shared" si="18"/>
+        <v>0.36640090600000003</v>
+      </c>
+      <c r="BQ64" s="4">
+        <f t="shared" si="15"/>
+        <v>0.15216335016666666</v>
+      </c>
+      <c r="BR64" s="4">
+        <f t="shared" si="16"/>
+        <v>2757.9791666666665</v>
+      </c>
+      <c r="BS64" s="4">
+        <f t="shared" si="17"/>
+        <v>1.4887E-4</v>
+      </c>
+      <c r="BU64" s="4">
+        <f t="shared" si="19"/>
+        <v>39.931096965517249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:73">
+      <c r="A65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="10">
+        <v>9.9381432000000006E-2</v>
+      </c>
+      <c r="C65" s="10">
+        <v>8.4823870999999995E-2</v>
+      </c>
+      <c r="D65" s="10">
+        <v>2307.75</v>
+      </c>
+      <c r="E65" s="19">
+        <v>4.3099999999999997E-5</v>
+      </c>
+      <c r="F65" s="10">
+        <v>7.7764807000000005E-2</v>
+      </c>
+      <c r="G65" s="10">
+        <v>9.4156020000000007E-2</v>
+      </c>
+      <c r="H65" s="10">
+        <v>3041.125</v>
+      </c>
+      <c r="I65" s="19">
+        <v>2.5599999999999999E-5</v>
+      </c>
+      <c r="J65" s="10">
+        <v>0.22958303299999999</v>
+      </c>
+      <c r="K65" s="11"/>
+      <c r="L65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M65" s="10">
+        <v>0.27339471100000001</v>
+      </c>
+      <c r="N65" s="10">
+        <v>0.126729066</v>
+      </c>
+      <c r="O65" s="10">
+        <v>2335.25</v>
+      </c>
+      <c r="P65" s="10">
+        <v>1.17073E-4</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>0.19606874499999999</v>
+      </c>
+      <c r="R65" s="10">
+        <v>0.138160963</v>
+      </c>
+      <c r="S65" s="10">
+        <v>3011.125</v>
+      </c>
+      <c r="T65" s="19">
+        <v>6.5099999999999997E-5</v>
+      </c>
+      <c r="U65" s="10">
+        <v>0.559680281</v>
+      </c>
+      <c r="V65" s="9"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10">
+        <v>0.34071998100000001</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>0.13841471399999999</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>2680.625</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>1.27105E-4</v>
+      </c>
+      <c r="AB65" s="10">
+        <v>0.23581808100000001</v>
+      </c>
+      <c r="AC65" s="10">
+        <v>0.16033144499999999</v>
+      </c>
+      <c r="AD65" s="10">
+        <v>3380.625</v>
+      </c>
+      <c r="AE65" s="19">
+        <v>6.9800000000000003E-5</v>
+      </c>
+      <c r="AF65" s="10">
+        <v>0.65428151400000001</v>
+      </c>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10">
+        <v>0.25958854999999997</v>
+      </c>
+      <c r="AJ65" s="10">
+        <v>0.12631226300000001</v>
+      </c>
+      <c r="AK65" s="10">
+        <v>1847.125</v>
+      </c>
+      <c r="AL65" s="10">
+        <v>1.4053700000000001E-4</v>
+      </c>
+      <c r="AM65" s="10">
+        <v>0.213290437</v>
+      </c>
+      <c r="AN65" s="10">
+        <v>0.22684199299999999</v>
+      </c>
+      <c r="AO65" s="10">
+        <v>2680.875</v>
+      </c>
+      <c r="AP65" s="19">
+        <v>7.9599999999999997E-5</v>
+      </c>
+      <c r="AQ65" s="10">
+        <v>0.20409851000000001</v>
+      </c>
+      <c r="AR65" s="9"/>
+      <c r="AS65" s="10"/>
+      <c r="AT65" s="12">
+        <v>0.10767974700000001</v>
+      </c>
+      <c r="AU65" s="12">
+        <v>9.4531021000000007E-2</v>
+      </c>
+      <c r="AV65" s="12">
+        <v>2771.25</v>
+      </c>
+      <c r="AW65" s="20">
+        <v>3.8899999999999997E-5</v>
+      </c>
+      <c r="AX65" s="12">
+        <v>7.8983712999999997E-2</v>
+      </c>
+      <c r="AY65" s="12">
+        <v>0.100080261</v>
+      </c>
+      <c r="AZ65" s="12">
+        <v>3261.875</v>
+      </c>
+      <c r="BA65" s="20">
+        <v>2.4199999999999999E-5</v>
+      </c>
+      <c r="BB65" s="12">
+        <v>0.28673020900000001</v>
+      </c>
+      <c r="BC65" s="11"/>
+      <c r="BD65" s="10"/>
+      <c r="BE65" s="10">
+        <v>7.8843325000000006E-2</v>
+      </c>
+      <c r="BF65" s="10">
+        <v>7.6976389000000006E-2</v>
+      </c>
+      <c r="BG65" s="10">
+        <v>4605.875</v>
+      </c>
+      <c r="BH65" s="19">
+        <v>1.7099999999999999E-5</v>
+      </c>
+      <c r="BI65" s="10">
+        <v>5.0073238999999999E-2</v>
+      </c>
+      <c r="BJ65" s="10">
+        <v>7.7126972000000002E-2</v>
+      </c>
+      <c r="BK65" s="10">
+        <v>4215.625</v>
+      </c>
+      <c r="BL65" s="19">
+        <v>1.19E-5</v>
+      </c>
+      <c r="BM65" s="10">
+        <v>0.37302236500000002</v>
+      </c>
+      <c r="BN65" s="9"/>
+      <c r="BO65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP65" s="4">
+        <f t="shared" si="18"/>
+        <v>0.21038559979999999</v>
+      </c>
+      <c r="BQ65" s="4">
+        <f t="shared" si="15"/>
+        <v>0.11065126060000001</v>
+      </c>
+      <c r="BR65" s="4">
+        <f t="shared" si="16"/>
+        <v>2755.3249999999998</v>
+      </c>
+      <c r="BS65" s="4">
+        <f t="shared" si="17"/>
+        <v>8.8982999999999998E-5</v>
+      </c>
+      <c r="BU65" s="4">
+        <f t="shared" si="19"/>
+        <v>29.171420675862066</v>
+      </c>
+    </row>
+    <row r="66" spans="1:73">
+      <c r="A66" s="12">
+        <v>215</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="12">
+        <v>209</v>
+      </c>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="12">
+        <v>240</v>
+      </c>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="12">
+        <v>197</v>
+      </c>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="9"/>
+      <c r="AS66" s="12">
+        <v>240</v>
+      </c>
+      <c r="AT66" s="12"/>
+      <c r="AU66" s="12"/>
+      <c r="AV66" s="12"/>
+      <c r="AW66" s="12"/>
+      <c r="AX66" s="12"/>
+      <c r="AY66" s="12"/>
+      <c r="AZ66" s="12"/>
+      <c r="BA66" s="12"/>
+      <c r="BB66" s="12"/>
+      <c r="BC66" s="11"/>
+      <c r="BD66" s="12">
+        <v>240</v>
+      </c>
+      <c r="BE66" s="12"/>
+      <c r="BF66" s="12"/>
+      <c r="BG66" s="12"/>
+      <c r="BH66" s="12"/>
+      <c r="BI66" s="12"/>
+      <c r="BJ66" s="12"/>
+      <c r="BK66" s="12"/>
+      <c r="BL66" s="12"/>
+      <c r="BM66" s="12"/>
+      <c r="BN66" s="9"/>
+      <c r="BO66" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP66" s="6"/>
+      <c r="BQ66" s="6"/>
+      <c r="BR66" s="6"/>
+      <c r="BS66" s="6"/>
+      <c r="BU66" s="6"/>
+    </row>
+    <row r="67" spans="1:73">
+      <c r="A67" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
+      <c r="AQ67" s="10"/>
+      <c r="AR67" s="9"/>
+      <c r="AS67" s="10"/>
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="10"/>
+      <c r="AW67" s="10"/>
+      <c r="AX67" s="10"/>
+      <c r="AY67" s="10"/>
+      <c r="AZ67" s="10"/>
+      <c r="BA67" s="10"/>
+      <c r="BB67" s="10"/>
+      <c r="BC67" s="11"/>
+      <c r="BD67" s="10"/>
+      <c r="BE67" s="10"/>
+      <c r="BF67" s="10"/>
+      <c r="BG67" s="10"/>
+      <c r="BH67" s="10"/>
+      <c r="BI67" s="10"/>
+      <c r="BJ67" s="10"/>
+      <c r="BK67" s="10"/>
+      <c r="BL67" s="10"/>
+      <c r="BM67" s="10"/>
+      <c r="BN67" s="9"/>
+      <c r="BO67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP67" s="4"/>
+      <c r="BQ67" s="4"/>
+      <c r="BR67" s="4"/>
+      <c r="BS67" s="4"/>
+      <c r="BU67" s="6"/>
+    </row>
+    <row r="68" spans="1:73">
+      <c r="A68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="9"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="12"/>
+      <c r="AW68" s="12"/>
+      <c r="AX68" s="12"/>
+      <c r="AY68" s="12"/>
+      <c r="AZ68" s="12"/>
+      <c r="BA68" s="12"/>
+      <c r="BB68" s="12"/>
+      <c r="BC68" s="11"/>
+      <c r="BD68" s="12"/>
+      <c r="BE68" s="12"/>
+      <c r="BF68" s="12"/>
+      <c r="BG68" s="12"/>
+      <c r="BH68" s="12"/>
+      <c r="BI68" s="12"/>
+      <c r="BJ68" s="12"/>
+      <c r="BK68" s="12"/>
+      <c r="BL68" s="12"/>
+      <c r="BM68" s="12"/>
+      <c r="BN68" s="9"/>
+      <c r="BO68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP68" s="6"/>
+      <c r="BQ68" s="6"/>
+      <c r="BR68" s="6"/>
+      <c r="BS68" s="6"/>
+      <c r="BU68" s="6"/>
+    </row>
+    <row r="69" spans="1:73">
+      <c r="A69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="16"/>
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="10"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
+      <c r="AO69" s="10"/>
+      <c r="AP69" s="10"/>
+      <c r="AQ69" s="10"/>
+      <c r="AR69" s="9"/>
+      <c r="AS69" s="10"/>
+      <c r="AT69" s="10"/>
+      <c r="AU69" s="10"/>
+      <c r="AV69" s="10"/>
+      <c r="AW69" s="10"/>
+      <c r="AX69" s="10"/>
+      <c r="AY69" s="10"/>
+      <c r="AZ69" s="10"/>
+      <c r="BA69" s="10"/>
+      <c r="BB69" s="10"/>
+      <c r="BC69" s="11"/>
+      <c r="BD69" s="10"/>
+      <c r="BE69" s="10"/>
+      <c r="BF69" s="10"/>
+      <c r="BG69" s="10"/>
+      <c r="BH69" s="10"/>
+      <c r="BI69" s="10"/>
+      <c r="BJ69" s="10"/>
+      <c r="BK69" s="10"/>
+      <c r="BL69" s="10"/>
+      <c r="BM69" s="10"/>
+      <c r="BN69" s="9"/>
+      <c r="BO69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP69" s="4"/>
+      <c r="BQ69" s="4"/>
+      <c r="BR69" s="4"/>
+      <c r="BS69" s="4"/>
+      <c r="BU69" s="6"/>
+    </row>
+    <row r="70" spans="1:73">
+      <c r="A70" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="11"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="9"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="12"/>
+      <c r="AW70" s="12"/>
+      <c r="AX70" s="12"/>
+      <c r="AY70" s="12"/>
+      <c r="AZ70" s="12"/>
+      <c r="BA70" s="12"/>
+      <c r="BB70" s="12"/>
+      <c r="BC70" s="11"/>
+      <c r="BD70" s="12"/>
+      <c r="BE70" s="12"/>
+      <c r="BF70" s="12"/>
+      <c r="BG70" s="12"/>
+      <c r="BH70" s="12"/>
+      <c r="BI70" s="12"/>
+      <c r="BJ70" s="12"/>
+      <c r="BK70" s="12"/>
+      <c r="BL70" s="12"/>
+      <c r="BM70" s="12"/>
+      <c r="BN70" s="9"/>
+      <c r="BO70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP70" s="6"/>
+      <c r="BQ70" s="6"/>
+      <c r="BR70" s="6"/>
+      <c r="BS70" s="6"/>
+      <c r="BU70" s="6"/>
+    </row>
+    <row r="71" spans="1:73">
+      <c r="A71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="10"/>
+      <c r="AQ71" s="10"/>
+      <c r="AR71" s="9"/>
+      <c r="AS71" s="10"/>
+      <c r="AT71" s="10"/>
+      <c r="AU71" s="10"/>
+      <c r="AV71" s="10"/>
+      <c r="AW71" s="10"/>
+      <c r="AX71" s="10"/>
+      <c r="AY71" s="10"/>
+      <c r="AZ71" s="10"/>
+      <c r="BA71" s="10"/>
+      <c r="BB71" s="10"/>
+      <c r="BC71" s="11"/>
+      <c r="BD71" s="10"/>
+      <c r="BE71" s="10"/>
+      <c r="BF71" s="10"/>
+      <c r="BG71" s="10"/>
+      <c r="BH71" s="10"/>
+      <c r="BI71" s="10"/>
+      <c r="BJ71" s="10"/>
+      <c r="BK71" s="10"/>
+      <c r="BL71" s="10"/>
+      <c r="BM71" s="10"/>
+      <c r="BN71" s="9"/>
+      <c r="BO71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP71" s="4"/>
+      <c r="BQ71" s="4"/>
+      <c r="BR71" s="4"/>
+      <c r="BS71" s="4"/>
+      <c r="BU71" s="6"/>
+    </row>
+    <row r="72" spans="1:73">
+      <c r="A72" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="9"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="12"/>
+      <c r="AW72" s="12"/>
+      <c r="AX72" s="12"/>
+      <c r="AY72" s="12"/>
+      <c r="AZ72" s="12"/>
+      <c r="BA72" s="12"/>
+      <c r="BB72" s="12"/>
+      <c r="BC72" s="11"/>
+      <c r="BD72" s="12"/>
+      <c r="BE72" s="12"/>
+      <c r="BF72" s="12"/>
+      <c r="BG72" s="12"/>
+      <c r="BH72" s="12"/>
+      <c r="BI72" s="12"/>
+      <c r="BJ72" s="12"/>
+      <c r="BK72" s="12"/>
+      <c r="BL72" s="12"/>
+      <c r="BM72" s="12"/>
+      <c r="BN72" s="9"/>
+      <c r="BO72" s="6"/>
+      <c r="BP72" s="6"/>
+      <c r="BQ72" s="6"/>
+      <c r="BR72" s="6"/>
+      <c r="BS72" s="6"/>
+      <c r="BU72" s="6"/>
+    </row>
+    <row r="73" spans="1:73">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="13"/>
+      <c r="AF73" s="13"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="13"/>
+      <c r="AI73" s="13"/>
+      <c r="AJ73" s="13"/>
+      <c r="AK73" s="13"/>
+      <c r="AL73" s="13"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="13"/>
+      <c r="AO73" s="13"/>
+      <c r="AP73" s="13"/>
+      <c r="AQ73" s="13"/>
+      <c r="AR73" s="9"/>
+      <c r="AS73" s="13"/>
+      <c r="AT73" s="13"/>
+      <c r="AU73" s="13"/>
+      <c r="AV73" s="13"/>
+      <c r="AW73" s="13"/>
+      <c r="AX73" s="13"/>
+      <c r="AY73" s="13"/>
+      <c r="AZ73" s="13"/>
+      <c r="BA73" s="13"/>
+      <c r="BB73" s="13"/>
+      <c r="BC73" s="11"/>
+      <c r="BD73" s="13"/>
+      <c r="BE73" s="13"/>
+      <c r="BF73" s="13"/>
+      <c r="BG73" s="13"/>
+      <c r="BH73" s="13"/>
+      <c r="BI73" s="13"/>
+      <c r="BJ73" s="13"/>
+      <c r="BK73" s="13"/>
+      <c r="BL73" s="13"/>
+      <c r="BM73" s="13"/>
+      <c r="BN73" s="9"/>
+      <c r="BP73" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ73" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU73" s="6"/>
+    </row>
+    <row r="74" spans="1:73">
+      <c r="A74" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="14"/>
+      <c r="AI74" s="14"/>
+      <c r="AJ74" s="14"/>
+      <c r="AK74" s="14"/>
+      <c r="AL74" s="14"/>
+      <c r="AM74" s="14"/>
+      <c r="AN74" s="14"/>
+      <c r="AO74" s="14"/>
+      <c r="AP74" s="14"/>
+      <c r="AQ74" s="14"/>
+      <c r="AR74" s="9"/>
+      <c r="AS74" s="14"/>
+      <c r="AT74" s="14"/>
+      <c r="AU74" s="14"/>
+      <c r="AV74" s="14"/>
+      <c r="AW74" s="14"/>
+      <c r="AX74" s="14"/>
+      <c r="AY74" s="14"/>
+      <c r="AZ74" s="14"/>
+      <c r="BA74" s="14"/>
+      <c r="BB74" s="14"/>
+      <c r="BC74" s="11"/>
+      <c r="BD74" s="14"/>
+      <c r="BE74" s="14"/>
+      <c r="BF74" s="14"/>
+      <c r="BG74" s="14"/>
+      <c r="BH74" s="14"/>
+      <c r="BI74" s="14"/>
+      <c r="BJ74" s="14"/>
+      <c r="BK74" s="14"/>
+      <c r="BL74" s="14"/>
+      <c r="BM74" s="14"/>
+      <c r="BN74" s="9"/>
+      <c r="BO74" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR74" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU74" s="6"/>
+    </row>
+    <row r="75" spans="1:73">
+      <c r="A75" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K75" s="11"/>
+      <c r="L75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R75" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V75" s="9"/>
+      <c r="W75" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y75" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB75" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC75" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD75" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ75" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM75" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN75" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO75" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR75" s="9"/>
+      <c r="AS75" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA75" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC75" s="11"/>
+      <c r="BD75" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF75" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI75" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ75" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK75" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL75" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN75" s="9"/>
+      <c r="BO75" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP75" s="6">
+        <f t="shared" ref="BP75:BP78" si="20">AVERAGE(B76,M76,X76,AI76,AT77,BE76)</f>
+        <v>3.6551479434999998</v>
+      </c>
+      <c r="BQ75" s="6">
+        <f t="shared" ref="BQ75:BQ79" si="21">AVERAGE(C76,N76,Y76,AJ76,AU77,BF76)</f>
+        <v>3.2105421675000003</v>
+      </c>
+      <c r="BR75" s="6">
+        <f t="shared" ref="BR75:BR79" si="22">AVERAGE(D76,O76,Z76,AK76,AV77,BG76)</f>
+        <v>2029.0208333333333</v>
+      </c>
+      <c r="BS75" s="6">
+        <f t="shared" ref="BS75:BS79" si="23">AVERAGE(E76,P76,AA76,AL76,AW77,BH76)</f>
+        <v>1.9988524999999999E-3</v>
+      </c>
+      <c r="BU75" s="4">
+        <f t="shared" si="19"/>
+        <v>266.74123748275861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:73">
+      <c r="A76" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1.2926928150000001</v>
+      </c>
+      <c r="C76" s="14">
+        <v>1.771314552</v>
+      </c>
+      <c r="D76" s="14">
+        <v>1800.625</v>
+      </c>
+      <c r="E76" s="14">
+        <v>7.1791300000000004E-4</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0.89845397100000002</v>
+      </c>
+      <c r="G76" s="14">
+        <v>1.3911717560000001</v>
+      </c>
+      <c r="H76" s="14">
+        <v>2770</v>
+      </c>
+      <c r="I76" s="14">
+        <v>3.2435199999999997E-4</v>
+      </c>
+      <c r="J76" s="14">
+        <v>0.28338617599999999</v>
+      </c>
+      <c r="K76" s="11"/>
+      <c r="L76" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M76" s="14">
+        <v>3.9602546159999998</v>
+      </c>
+      <c r="N76" s="14">
+        <v>4.0382265220000004</v>
+      </c>
+      <c r="O76" s="14">
+        <v>1286.25</v>
+      </c>
+      <c r="P76" s="14">
+        <v>3.0789150000000002E-3</v>
+      </c>
+      <c r="Q76" s="14">
+        <v>2.781750025</v>
+      </c>
+      <c r="R76" s="14">
+        <v>3.9950572630000001</v>
+      </c>
+      <c r="S76" s="14">
+        <v>2504.25</v>
+      </c>
+      <c r="T76" s="14">
+        <v>1.1108120000000001E-3</v>
+      </c>
+      <c r="U76" s="14">
+        <v>0.29499066299999999</v>
+      </c>
+      <c r="V76" s="9"/>
+      <c r="W76" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X76" s="14">
+        <v>6.4307915519999996</v>
+      </c>
+      <c r="Y76" s="14">
+        <v>5.1378804239999996</v>
+      </c>
+      <c r="Z76" s="14">
+        <v>2041.875</v>
+      </c>
+      <c r="AA76" s="14">
+        <v>3.1494539999999999E-3</v>
+      </c>
+      <c r="AB76" s="14">
+        <v>2.0291934330000001</v>
+      </c>
+      <c r="AC76" s="14">
+        <v>3.7835028570000002</v>
+      </c>
+      <c r="AD76" s="14">
+        <v>3311.875</v>
+      </c>
+      <c r="AE76" s="14">
+        <v>6.1270200000000002E-4</v>
+      </c>
+      <c r="AF76" s="14">
+        <v>1.1633658769999999</v>
+      </c>
+      <c r="AG76" s="11"/>
+      <c r="AH76" s="14"/>
+      <c r="AI76" s="14">
+        <v>6.0091558589999998</v>
+      </c>
+      <c r="AJ76" s="14">
+        <v>4.9420096249999999</v>
+      </c>
+      <c r="AK76" s="14">
+        <v>1609.625</v>
+      </c>
+      <c r="AL76" s="14">
+        <v>3.733264E-3</v>
+      </c>
+      <c r="AM76" s="14">
+        <v>2.8493686170000001</v>
+      </c>
+      <c r="AN76" s="14">
+        <v>4.1818893040000003</v>
+      </c>
+      <c r="AO76" s="14">
+        <v>2546</v>
+      </c>
+      <c r="AP76" s="14">
+        <v>1.1191549999999999E-3</v>
+      </c>
+      <c r="AQ76" s="14">
+        <v>0.75558844599999997</v>
+      </c>
+      <c r="AR76" s="9"/>
+      <c r="AS76" s="14"/>
+      <c r="AT76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC76" s="11"/>
+      <c r="BD76" s="14"/>
+      <c r="BE76" s="14">
+        <v>3.6639350429999999</v>
+      </c>
+      <c r="BF76" s="14">
+        <v>2.9978856980000002</v>
+      </c>
+      <c r="BG76" s="14">
+        <v>3856.375</v>
+      </c>
+      <c r="BH76" s="14">
+        <v>9.5009800000000002E-4</v>
+      </c>
+      <c r="BI76" s="14">
+        <v>2.074410855</v>
+      </c>
+      <c r="BJ76" s="14">
+        <v>2.7641890029999998</v>
+      </c>
+      <c r="BK76" s="14">
+        <v>4163.875</v>
+      </c>
+      <c r="BL76" s="14">
+        <v>4.9819199999999995E-4</v>
+      </c>
+      <c r="BM76" s="14">
+        <v>0.57504178800000005</v>
+      </c>
+      <c r="BN76" s="9"/>
+      <c r="BO76" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP76" s="8">
+        <f t="shared" si="20"/>
+        <v>0.5634180858333333</v>
+      </c>
+      <c r="BQ76" s="8">
+        <f t="shared" si="21"/>
+        <v>0.29306109683333331</v>
+      </c>
+      <c r="BR76" s="8">
+        <f t="shared" si="22"/>
+        <v>2029.0208333333333</v>
+      </c>
+      <c r="BS76" s="8">
+        <f t="shared" si="23"/>
+        <v>3.1340483333333337E-4</v>
+      </c>
+      <c r="BU76" s="4">
+        <f t="shared" si="19"/>
+        <v>53.518488678160914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:73">
+      <c r="A77" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="12">
+        <v>0.36018188099999998</v>
+      </c>
+      <c r="C77" s="12">
+        <v>0.19762616299999999</v>
+      </c>
+      <c r="D77" s="12">
+        <v>1800.625</v>
+      </c>
+      <c r="E77" s="12">
+        <v>2.00032E-4</v>
+      </c>
+      <c r="F77" s="12">
+        <v>0.16747653400000001</v>
+      </c>
+      <c r="G77" s="12">
+        <v>0.15886597299999999</v>
+      </c>
+      <c r="H77" s="12">
+        <v>2770</v>
+      </c>
+      <c r="I77" s="20">
+        <v>6.05E-5</v>
+      </c>
+      <c r="J77" s="12">
+        <v>1.2130057999999999</v>
+      </c>
+      <c r="K77" s="11"/>
+      <c r="L77" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M77" s="12">
+        <v>0.60835957200000002</v>
+      </c>
+      <c r="N77" s="12">
+        <v>0.27331981799999999</v>
+      </c>
+      <c r="O77" s="12">
+        <v>1286.25</v>
+      </c>
+      <c r="P77" s="12">
+        <v>4.7297099999999998E-4</v>
+      </c>
+      <c r="Q77" s="12">
+        <v>0.31599880200000002</v>
+      </c>
+      <c r="R77" s="12">
+        <v>0.24491547699999999</v>
+      </c>
+      <c r="S77" s="12">
+        <v>2504.25</v>
+      </c>
+      <c r="T77" s="12">
+        <v>1.2618500000000001E-4</v>
+      </c>
+      <c r="U77" s="12">
+        <v>1.1937210890000001</v>
+      </c>
+      <c r="V77" s="9"/>
+      <c r="W77" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X77" s="12">
+        <v>0.68396694199999997</v>
+      </c>
+      <c r="Y77" s="12">
+        <v>0.39079087899999998</v>
+      </c>
+      <c r="Z77" s="12">
+        <v>2041.875</v>
+      </c>
+      <c r="AA77" s="12">
+        <v>3.3497000000000003E-4</v>
+      </c>
+      <c r="AB77" s="12">
+        <v>0.26709945299999999</v>
+      </c>
+      <c r="AC77" s="12">
+        <v>0.235072473</v>
+      </c>
+      <c r="AD77" s="12">
+        <v>3311.875</v>
+      </c>
+      <c r="AE77" s="20">
+        <v>8.0599999999999994E-5</v>
+      </c>
+      <c r="AF77" s="12">
+        <v>1.773357316</v>
+      </c>
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12">
+        <v>0.803781937</v>
+      </c>
+      <c r="AJ77" s="12">
+        <v>0.411918746</v>
+      </c>
+      <c r="AK77" s="12">
+        <v>1609.625</v>
+      </c>
+      <c r="AL77" s="12">
+        <v>4.9936000000000002E-4</v>
+      </c>
+      <c r="AM77" s="12">
+        <v>0.30111154800000001</v>
+      </c>
+      <c r="AN77" s="12">
+        <v>0.27115066700000001</v>
+      </c>
+      <c r="AO77" s="12">
+        <v>2546</v>
+      </c>
+      <c r="AP77" s="12">
+        <v>1.18268E-4</v>
+      </c>
+      <c r="AQ77" s="12">
+        <v>1.8538416090000001</v>
+      </c>
+      <c r="AR77" s="9"/>
+      <c r="AS77" s="12"/>
+      <c r="AT77">
+        <v>0.57405777599999996</v>
+      </c>
+      <c r="AU77">
+        <v>0.37593618400000001</v>
+      </c>
+      <c r="AV77">
+        <v>1579.375</v>
+      </c>
+      <c r="AW77">
+        <v>3.6347099999999998E-4</v>
+      </c>
+      <c r="AX77">
+        <v>0.115363727</v>
+      </c>
+      <c r="AY77">
+        <v>0.19831436699999999</v>
+      </c>
+      <c r="AZ77">
+        <v>2623.875</v>
+      </c>
+      <c r="BA77" s="22">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="BB77">
+        <v>2.3129642829999999</v>
+      </c>
+      <c r="BC77" s="11"/>
+      <c r="BD77" s="12"/>
+      <c r="BE77" s="12">
+        <v>0.567293767</v>
+      </c>
+      <c r="BF77" s="12">
+        <v>0.25881626600000002</v>
+      </c>
+      <c r="BG77" s="12">
+        <v>3856.375</v>
+      </c>
+      <c r="BH77" s="12">
+        <v>1.47105E-4</v>
+      </c>
+      <c r="BI77" s="12">
+        <v>0.15337936399999999</v>
+      </c>
+      <c r="BJ77" s="12">
+        <v>0.19454111499999999</v>
+      </c>
+      <c r="BK77" s="12">
+        <v>4163.875</v>
+      </c>
+      <c r="BL77" s="20">
+        <v>3.68E-5</v>
+      </c>
+      <c r="BM77" s="12">
+        <v>2.1276448530000001</v>
+      </c>
+      <c r="BN77" s="9"/>
+      <c r="BO77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP77" s="6">
+        <f t="shared" si="20"/>
+        <v>0.48500275349999994</v>
+      </c>
+      <c r="BQ77" s="6">
+        <f t="shared" si="21"/>
+        <v>0.253829366</v>
+      </c>
+      <c r="BR77" s="6">
+        <f t="shared" si="22"/>
+        <v>2029.0208333333333</v>
+      </c>
+      <c r="BS77" s="6">
+        <f t="shared" si="23"/>
+        <v>2.6694066666666666E-4</v>
+      </c>
+      <c r="BU77" s="4">
+        <f t="shared" si="19"/>
+        <v>48.110534724137928</v>
+      </c>
+    </row>
+    <row r="78" spans="1:73">
+      <c r="A78" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="14">
+        <v>0.299366886</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0.18329799599999999</v>
+      </c>
+      <c r="D78" s="14">
+        <v>1800.625</v>
+      </c>
+      <c r="E78" s="14">
+        <v>1.66257E-4</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0.15158844799999999</v>
+      </c>
+      <c r="G78" s="14">
+        <v>0.152638303</v>
+      </c>
+      <c r="H78" s="14">
+        <v>2770</v>
+      </c>
+      <c r="I78" s="21">
+        <v>5.4700000000000001E-5</v>
+      </c>
+      <c r="J78" s="14">
+        <v>0.96816091299999996</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78" s="14">
+        <v>0.59228960200000003</v>
+      </c>
+      <c r="N78" s="14">
+        <v>0.29828649899999998</v>
+      </c>
+      <c r="O78" s="14">
+        <v>1286.25</v>
+      </c>
+      <c r="P78" s="14">
+        <v>4.60478E-4</v>
+      </c>
+      <c r="Q78" s="14">
+        <v>0.28177598100000001</v>
+      </c>
+      <c r="R78" s="14">
+        <v>0.22753357799999999</v>
+      </c>
+      <c r="S78" s="14">
+        <v>2504.25</v>
+      </c>
+      <c r="T78" s="14">
+        <v>1.12519E-4</v>
+      </c>
+      <c r="U78" s="14">
+        <v>1.3646936160000001</v>
+      </c>
+      <c r="V78" s="9"/>
+      <c r="W78" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X78" s="14">
+        <v>0.67108050200000002</v>
+      </c>
+      <c r="Y78" s="14">
+        <v>0.36263836399999999</v>
+      </c>
+      <c r="Z78" s="14">
+        <v>2041.875</v>
+      </c>
+      <c r="AA78" s="14">
+        <v>3.2865900000000003E-4</v>
+      </c>
+      <c r="AB78" s="14">
+        <v>0.274358936</v>
+      </c>
+      <c r="AC78" s="14">
+        <v>0.24115840499999999</v>
+      </c>
+      <c r="AD78" s="14">
+        <v>3311.875</v>
+      </c>
+      <c r="AE78" s="21">
+        <v>8.2799999999999993E-5</v>
+      </c>
+      <c r="AF78" s="14">
+        <v>1.6450663050000001</v>
+      </c>
+      <c r="AG78" s="9"/>
+      <c r="AH78" s="14"/>
+      <c r="AI78" s="14">
+        <v>0.62665217100000004</v>
+      </c>
+      <c r="AJ78" s="14">
+        <v>0.28521434400000001</v>
+      </c>
+      <c r="AK78" s="14">
+        <v>1609.625</v>
+      </c>
+      <c r="AL78" s="14">
+        <v>3.8931600000000001E-4</v>
+      </c>
+      <c r="AM78" s="14">
+        <v>0.28146504300000003</v>
+      </c>
+      <c r="AN78" s="14">
+        <v>0.22713898599999999</v>
+      </c>
+      <c r="AO78" s="14">
+        <v>2546</v>
+      </c>
+      <c r="AP78" s="14">
+        <v>1.1055199999999999E-4</v>
+      </c>
+      <c r="AQ78" s="14">
+        <v>1.5197176530000001</v>
+      </c>
+      <c r="AR78" s="9"/>
+      <c r="AS78" s="14"/>
+      <c r="AT78">
+        <v>0.35692441600000002</v>
+      </c>
+      <c r="AU78">
+        <v>0.225894709</v>
+      </c>
+      <c r="AV78">
+        <v>1579.375</v>
+      </c>
+      <c r="AW78">
+        <v>2.2599100000000001E-4</v>
+      </c>
+      <c r="AX78">
+        <v>7.4614835000000004E-2</v>
+      </c>
+      <c r="AY78">
+        <v>0.116103521</v>
+      </c>
+      <c r="AZ78">
+        <v>2623.875</v>
+      </c>
+      <c r="BA78" s="22">
+        <v>2.8399999999999999E-5</v>
+      </c>
+      <c r="BB78">
+        <v>2.4315333250000002</v>
+      </c>
+      <c r="BC78" s="9"/>
+      <c r="BD78" s="14"/>
+      <c r="BE78" s="14">
+        <v>0.53320670299999995</v>
+      </c>
+      <c r="BF78" s="14">
+        <v>0.26012340900000003</v>
+      </c>
+      <c r="BG78" s="14">
+        <v>3856.375</v>
+      </c>
+      <c r="BH78" s="14">
+        <v>1.3826600000000001E-4</v>
+      </c>
+      <c r="BI78" s="14">
+        <v>0.14383717100000001</v>
+      </c>
+      <c r="BJ78" s="14">
+        <v>0.19040774399999999</v>
+      </c>
+      <c r="BK78" s="14">
+        <v>4163.875</v>
+      </c>
+      <c r="BL78" s="21">
+        <v>3.4499999999999998E-5</v>
+      </c>
+      <c r="BM78" s="14">
+        <v>2.0449248779999998</v>
+      </c>
+      <c r="BN78" s="9"/>
+      <c r="BO78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP78" s="8">
+        <f t="shared" si="20"/>
+        <v>0.32400743283333333</v>
+      </c>
+      <c r="BQ78" s="8">
+        <f t="shared" si="21"/>
+        <v>0.16279238716666664</v>
+      </c>
+      <c r="BR78" s="8">
+        <f t="shared" si="22"/>
+        <v>2029.0208333333333</v>
+      </c>
+      <c r="BS78" s="8">
+        <f t="shared" si="23"/>
+        <v>1.8005683333333335E-4</v>
+      </c>
+      <c r="BU78" s="4">
+        <f t="shared" si="19"/>
+        <v>37.007409160919536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:73">
+      <c r="A79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="12">
+        <v>0.239118362</v>
+      </c>
+      <c r="C79" s="12">
+        <v>0.142757201</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1800.625</v>
+      </c>
+      <c r="E79" s="12">
+        <v>1.3279700000000001E-4</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0.141315884</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0.13469125500000001</v>
+      </c>
+      <c r="H79" s="12">
+        <v>2770</v>
+      </c>
+      <c r="I79" s="20">
+        <v>5.1E-5</v>
+      </c>
+      <c r="J79" s="12">
+        <v>0.72612343899999998</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M79" s="12">
+        <v>0.44544023300000002</v>
+      </c>
+      <c r="N79" s="12">
+        <v>0.18775867299999999</v>
+      </c>
+      <c r="O79" s="12">
+        <v>1286.25</v>
+      </c>
+      <c r="P79" s="12">
+        <v>3.4630899999999999E-4</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>0.265848058</v>
+      </c>
+      <c r="R79" s="12">
+        <v>0.183882083</v>
+      </c>
+      <c r="S79" s="12">
+        <v>2504.25</v>
+      </c>
+      <c r="T79" s="12">
+        <v>1.06159E-4</v>
+      </c>
+      <c r="U79" s="12">
+        <v>0.97667032899999995</v>
+      </c>
+      <c r="V79" s="9"/>
+      <c r="W79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X79" s="12">
+        <v>0.42403305800000002</v>
+      </c>
+      <c r="Y79" s="12">
+        <v>0.20888989099999999</v>
+      </c>
+      <c r="Z79" s="12">
+        <v>2041.875</v>
+      </c>
+      <c r="AA79" s="12">
+        <v>2.0766799999999999E-4</v>
+      </c>
+      <c r="AB79" s="12">
+        <v>0.22389356499999999</v>
+      </c>
+      <c r="AC79" s="12">
+        <v>0.17403961700000001</v>
+      </c>
+      <c r="AD79" s="12">
+        <v>3311.875</v>
+      </c>
+      <c r="AE79" s="20">
+        <v>6.7600000000000003E-5</v>
+      </c>
+      <c r="AF79" s="12">
+        <v>1.149965143</v>
+      </c>
+      <c r="AG79" s="9"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="12">
+        <v>0.39028034499999997</v>
+      </c>
+      <c r="AJ79" s="12">
+        <v>0.172803759</v>
+      </c>
+      <c r="AK79" s="12">
+        <v>1609.625</v>
+      </c>
+      <c r="AL79" s="12">
+        <v>2.4246700000000001E-4</v>
+      </c>
+      <c r="AM79" s="12">
+        <v>0.23770522399999999</v>
+      </c>
+      <c r="AN79" s="12">
+        <v>0.163457876</v>
+      </c>
+      <c r="AO79" s="12">
+        <v>2546</v>
+      </c>
+      <c r="AP79" s="20">
+        <v>9.3399999999999993E-5</v>
+      </c>
+      <c r="AQ79" s="12">
+        <v>0.93342165499999996</v>
+      </c>
+      <c r="AR79" s="9"/>
+      <c r="AS79" s="12"/>
+      <c r="AT79">
+        <v>0.18742065699999999</v>
+      </c>
+      <c r="AU79">
+        <v>0.133415584</v>
+      </c>
+      <c r="AV79">
+        <v>1579.375</v>
+      </c>
+      <c r="AW79">
+        <v>1.18668E-4</v>
+      </c>
+      <c r="AX79">
+        <v>7.2348149E-2</v>
+      </c>
+      <c r="AY79">
+        <v>9.8495993000000004E-2</v>
+      </c>
+      <c r="AZ79">
+        <v>2623.875</v>
+      </c>
+      <c r="BA79" s="22">
+        <v>2.76E-5</v>
+      </c>
+      <c r="BB79">
+        <v>1.1682963369999999</v>
+      </c>
+      <c r="BC79" s="9"/>
+      <c r="BD79" s="12"/>
+      <c r="BE79" s="12">
+        <v>0.34973452999999999</v>
+      </c>
+      <c r="BF79" s="12">
+        <v>0.182129609</v>
+      </c>
+      <c r="BG79" s="12">
+        <v>3856.375</v>
+      </c>
+      <c r="BH79" s="20">
+        <v>9.0699999999999996E-5</v>
+      </c>
+      <c r="BI79" s="12">
+        <v>0.109434121</v>
+      </c>
+      <c r="BJ79" s="12">
+        <v>0.135279127</v>
+      </c>
+      <c r="BK79" s="12">
+        <v>4163.875</v>
+      </c>
+      <c r="BL79" s="20">
+        <v>2.6299999999999999E-5</v>
+      </c>
+      <c r="BM79" s="12">
+        <v>1.7763302759999999</v>
+      </c>
+      <c r="BN79" s="9"/>
+      <c r="BO79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP79" s="8">
+        <f>AVERAGE(B80,M80,X80,AI80,AT81,BE80)</f>
+        <v>0.22029391380000002</v>
+      </c>
+      <c r="BQ79" s="8">
+        <f t="shared" si="21"/>
+        <v>0.11799282559999999</v>
+      </c>
+      <c r="BR79" s="8">
+        <f t="shared" si="22"/>
+        <v>2118.9499999999998</v>
+      </c>
+      <c r="BS79" s="8">
+        <f t="shared" si="23"/>
+        <v>1.2833239999999999E-4</v>
+      </c>
+      <c r="BU79" s="4">
+        <f t="shared" si="19"/>
+        <v>29.85475267586207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:73">
+      <c r="A80" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="14">
+        <v>0.107230823</v>
+      </c>
+      <c r="C80" s="14">
+        <v>0.102857351</v>
+      </c>
+      <c r="D80" s="14">
+        <v>1800.625</v>
+      </c>
+      <c r="E80" s="21">
+        <v>5.9599999999999999E-5</v>
+      </c>
+      <c r="F80" s="14">
+        <v>9.1938627999999994E-2</v>
+      </c>
+      <c r="G80" s="14">
+        <v>9.8906822000000005E-2</v>
+      </c>
+      <c r="H80" s="14">
+        <v>2770</v>
+      </c>
+      <c r="I80" s="21">
+        <v>3.3200000000000001E-5</v>
+      </c>
+      <c r="J80" s="14">
+        <v>0.15461213100000001</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" s="14">
+        <v>0.30597084499999999</v>
+      </c>
+      <c r="N80" s="14">
+        <v>0.121647402</v>
+      </c>
+      <c r="O80" s="14">
+        <v>1286.25</v>
+      </c>
+      <c r="P80" s="14">
+        <v>2.3787799999999999E-4</v>
+      </c>
+      <c r="Q80" s="14">
+        <v>0.21855745200000001</v>
+      </c>
+      <c r="R80" s="14">
+        <v>0.14052261799999999</v>
+      </c>
+      <c r="S80" s="14">
+        <v>2504.25</v>
+      </c>
+      <c r="T80" s="21">
+        <v>8.7299999999999994E-5</v>
+      </c>
+      <c r="U80" s="14">
+        <v>0.62205924000000001</v>
+      </c>
+      <c r="V80" s="9"/>
+      <c r="W80" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="X80" s="14">
+        <v>0.32077012500000002</v>
+      </c>
+      <c r="Y80" s="14">
+        <v>0.16053635099999999</v>
+      </c>
+      <c r="Z80" s="14">
+        <v>2041.875</v>
+      </c>
+      <c r="AA80" s="14">
+        <v>1.5709599999999999E-4</v>
+      </c>
+      <c r="AB80" s="14">
+        <v>0.224434044</v>
+      </c>
+      <c r="AC80" s="14">
+        <v>0.171682733</v>
+      </c>
+      <c r="AD80" s="14">
+        <v>3311.875</v>
+      </c>
+      <c r="AE80" s="21">
+        <v>6.7799999999999995E-5</v>
+      </c>
+      <c r="AF80" s="14">
+        <v>0.56112854000000001</v>
+      </c>
+      <c r="AG80" s="9"/>
+      <c r="AH80" s="14"/>
+      <c r="AI80" s="14">
+        <v>0.25349693299999998</v>
+      </c>
+      <c r="AJ80" s="14">
+        <v>0.11145296</v>
+      </c>
+      <c r="AK80" s="14">
+        <v>1609.625</v>
+      </c>
+      <c r="AL80" s="14">
+        <v>1.5748800000000001E-4</v>
+      </c>
+      <c r="AM80" s="14">
+        <v>0.19749705400000001</v>
+      </c>
+      <c r="AN80" s="14">
+        <v>0.127895222</v>
+      </c>
+      <c r="AO80" s="14">
+        <v>2546</v>
+      </c>
+      <c r="AP80" s="21">
+        <v>7.7600000000000002E-5</v>
+      </c>
+      <c r="AQ80" s="14">
+        <v>0.437857471</v>
+      </c>
+      <c r="AR80" s="9"/>
+      <c r="AS80" s="14"/>
+      <c r="AT80">
+        <v>9.5438069E-2</v>
+      </c>
+      <c r="AU80">
+        <v>8.2415189999999999E-2</v>
+      </c>
+      <c r="AV80">
+        <v>1579.375</v>
+      </c>
+      <c r="AW80" s="22">
+        <v>6.0399999999999998E-5</v>
+      </c>
+      <c r="AX80">
+        <v>4.3897861000000003E-2</v>
+      </c>
+      <c r="AY80">
+        <v>6.2140635E-2</v>
+      </c>
+      <c r="AZ80">
+        <v>2623.875</v>
+      </c>
+      <c r="BA80" s="22">
+        <v>1.6699999999999999E-5</v>
+      </c>
+      <c r="BB80">
+        <v>0.82941230799999999</v>
+      </c>
+      <c r="BC80" s="9"/>
+      <c r="BD80" s="14"/>
+      <c r="BE80" s="14">
+        <v>0.114000843</v>
+      </c>
+      <c r="BF80" s="14">
+        <v>9.3470064000000005E-2</v>
+      </c>
+      <c r="BG80" s="14">
+        <v>3856.375</v>
+      </c>
+      <c r="BH80" s="21">
+        <v>2.9600000000000001E-5</v>
+      </c>
+      <c r="BI80" s="14">
+        <v>5.7058029000000003E-2</v>
+      </c>
+      <c r="BJ80" s="14">
+        <v>8.4002085000000004E-2</v>
+      </c>
+      <c r="BK80" s="14">
+        <v>4163.875</v>
+      </c>
+      <c r="BL80" s="21">
+        <v>1.3699999999999999E-5</v>
+      </c>
+      <c r="BM80" s="14">
+        <v>0.67787381199999996</v>
+      </c>
+      <c r="BN80" s="9"/>
+      <c r="BO80" s="8"/>
+      <c r="BP80" s="8"/>
+      <c r="BQ80" s="8"/>
+      <c r="BR80" s="8"/>
+      <c r="BS80" s="8"/>
+    </row>
+    <row r="81" spans="1:71">
+      <c r="A81" s="12">
+        <v>210</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="12">
+        <v>210</v>
+      </c>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="12">
+        <v>240</v>
+      </c>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12"/>
+      <c r="AC81" s="12"/>
+      <c r="AD81" s="12"/>
+      <c r="AE81" s="12"/>
+      <c r="AF81" s="12"/>
+      <c r="AG81" s="9"/>
+      <c r="AH81" s="12">
+        <v>198</v>
+      </c>
+      <c r="AI81" s="12"/>
+      <c r="AJ81" s="12"/>
+      <c r="AK81" s="12"/>
+      <c r="AL81" s="12"/>
+      <c r="AM81" s="12"/>
+      <c r="AN81" s="12"/>
+      <c r="AO81" s="12"/>
+      <c r="AP81" s="12"/>
+      <c r="AQ81" s="12"/>
+      <c r="AR81" s="9"/>
+      <c r="AS81" s="12">
+        <v>240</v>
+      </c>
+      <c r="AT81" s="12"/>
+      <c r="AU81" s="12"/>
+      <c r="AV81" s="12"/>
+      <c r="AW81" s="12"/>
+      <c r="AX81" s="12"/>
+      <c r="AY81" s="12"/>
+      <c r="AZ81" s="12"/>
+      <c r="BA81" s="12"/>
+      <c r="BB81" s="12"/>
+      <c r="BC81" s="9"/>
+      <c r="BD81" s="12">
+        <v>240</v>
+      </c>
+      <c r="BE81" s="12"/>
+      <c r="BF81" s="12"/>
+      <c r="BG81" s="12"/>
+      <c r="BH81" s="12"/>
+      <c r="BI81" s="12"/>
+      <c r="BJ81" s="12"/>
+      <c r="BK81" s="12"/>
+      <c r="BL81" s="12"/>
+      <c r="BM81" s="12"/>
+      <c r="BN81" s="9"/>
+      <c r="BO81" s="6"/>
+      <c r="BP81" s="6"/>
+      <c r="BQ81" s="6"/>
+      <c r="BR81" s="6"/>
+      <c r="BS81" s="6"/>
+    </row>
+    <row r="82" spans="1:71">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="9"/>
+      <c r="AH82" s="14"/>
+      <c r="AI82" s="14"/>
+      <c r="AJ82" s="14"/>
+      <c r="AK82" s="14"/>
+      <c r="AL82" s="14"/>
+      <c r="AM82" s="14"/>
+      <c r="AN82" s="14"/>
+      <c r="AO82" s="14"/>
+      <c r="AP82" s="14"/>
+      <c r="AQ82" s="14"/>
+      <c r="AR82" s="9"/>
+      <c r="AS82" s="14"/>
+      <c r="AT82" s="14"/>
+      <c r="AU82" s="14"/>
+      <c r="AV82" s="14"/>
+      <c r="AW82" s="14"/>
+      <c r="AX82" s="14"/>
+      <c r="AY82" s="14"/>
+      <c r="AZ82" s="14"/>
+      <c r="BA82" s="14"/>
+      <c r="BB82" s="14"/>
+      <c r="BC82" s="9"/>
+      <c r="BD82" s="14"/>
+      <c r="BE82" s="14"/>
+      <c r="BF82" s="14"/>
+      <c r="BG82" s="14"/>
+      <c r="BH82" s="14"/>
+      <c r="BI82" s="14"/>
+      <c r="BJ82" s="14"/>
+      <c r="BK82" s="14"/>
+      <c r="BL82" s="14"/>
+      <c r="BM82" s="14"/>
+      <c r="BN82" s="9"/>
+      <c r="BO82" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP82" s="8"/>
+      <c r="BQ82" s="8"/>
+      <c r="BR82" s="8"/>
+      <c r="BS82" s="8"/>
+    </row>
+    <row r="83" spans="1:71">
+      <c r="A83" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AG83" s="9"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AR83" s="9"/>
+      <c r="AS83" s="12"/>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AV83" s="12"/>
+      <c r="BC83" s="9"/>
+      <c r="BD83" s="12"/>
+      <c r="BN83" s="9"/>
+      <c r="BO83" s="6"/>
+      <c r="BP83" s="6"/>
+      <c r="BQ83" s="6"/>
+      <c r="BR83" s="6"/>
+      <c r="BS83" s="6"/>
+    </row>
+    <row r="84" spans="1:71">
+      <c r="A84" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="14"/>
+      <c r="Z84" s="14"/>
+      <c r="AG84" s="9"/>
+      <c r="AH84" s="14"/>
+      <c r="AI84" s="14"/>
+      <c r="AJ84" s="14"/>
+      <c r="AK84" s="14"/>
+      <c r="AR84" s="9"/>
+      <c r="AS84" s="14"/>
+      <c r="AT84" s="14"/>
+      <c r="AU84" s="14"/>
+      <c r="AV84" s="14"/>
+      <c r="BC84" s="9"/>
+      <c r="BD84" s="14"/>
+      <c r="BN84" s="9"/>
+      <c r="BO84" s="8"/>
+      <c r="BP84" s="8"/>
+      <c r="BQ84" s="8"/>
+      <c r="BR84" s="8"/>
+      <c r="BS84" s="8"/>
+    </row>
+    <row r="85" spans="1:71">
+      <c r="A85" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="12"/>
+      <c r="AG85" s="9"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AR85" s="9"/>
+      <c r="AS85" s="12"/>
+      <c r="AT85" s="12"/>
+      <c r="AU85" s="12"/>
+      <c r="AV85" s="12"/>
+      <c r="BC85" s="9"/>
+      <c r="BD85" s="12"/>
+      <c r="BN85" s="9"/>
+      <c r="BO85" s="6"/>
+      <c r="BP85" s="6"/>
+      <c r="BQ85" s="6"/>
+      <c r="BR85" s="6"/>
+      <c r="BS85" s="6"/>
+    </row>
+    <row r="86" spans="1:71">
+      <c r="A86" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AG86" s="9"/>
+      <c r="AH86" s="14"/>
+      <c r="AI86" s="14"/>
+      <c r="AJ86" s="14"/>
+      <c r="AK86" s="14"/>
+      <c r="AR86" s="9"/>
+      <c r="AS86" s="14"/>
+      <c r="AT86" s="14"/>
+      <c r="AU86" s="14"/>
+      <c r="AV86" s="14"/>
+      <c r="BC86" s="9"/>
+      <c r="BD86" s="14"/>
+      <c r="BN86" s="9"/>
+      <c r="BO86" s="8"/>
+      <c r="BP86" s="8"/>
+      <c r="BQ86" s="8"/>
+      <c r="BR86" s="8"/>
+      <c r="BS86" s="8"/>
+    </row>
+    <row r="87" spans="1:71">
+      <c r="A87" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AG87" s="9"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="12"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="12"/>
+      <c r="AR87" s="9"/>
+      <c r="AS87" s="12"/>
+      <c r="AT87" s="12"/>
+      <c r="AU87" s="12"/>
+      <c r="AV87" s="12"/>
+      <c r="BC87" s="9"/>
+      <c r="BD87" s="12"/>
+      <c r="BN87" s="9"/>
+      <c r="BO87" s="6"/>
+      <c r="BP87" s="6"/>
+      <c r="BQ87" s="6"/>
+      <c r="BR87" s="6"/>
+      <c r="BS87" s="6"/>
+    </row>
+    <row r="88" spans="1:71">
+      <c r="A88" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="14"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="14"/>
+      <c r="Z88" s="14"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="14"/>
+      <c r="AC88" s="14"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="14"/>
+      <c r="AF88" s="14"/>
+      <c r="AG88" s="9"/>
+      <c r="AH88" s="14"/>
+      <c r="AI88" s="14"/>
+      <c r="AJ88" s="14"/>
+      <c r="AK88" s="14"/>
+      <c r="AL88" s="14"/>
+      <c r="AM88" s="14"/>
+      <c r="AN88" s="14"/>
+      <c r="AO88" s="14"/>
+      <c r="AP88" s="14"/>
+      <c r="AQ88" s="14"/>
+      <c r="AR88" s="9"/>
+      <c r="AS88" s="14"/>
+      <c r="AT88" s="14"/>
+      <c r="AU88" s="14"/>
+      <c r="AV88" s="14"/>
+      <c r="AW88" s="14"/>
+      <c r="AX88" s="14"/>
+      <c r="AY88" s="14"/>
+      <c r="AZ88" s="14"/>
+      <c r="BA88" s="14"/>
+      <c r="BB88" s="14"/>
+      <c r="BC88" s="9"/>
+      <c r="BD88" s="14"/>
+      <c r="BN88" s="9"/>
+      <c r="BO88" s="8"/>
+      <c r="BP88" s="8"/>
+      <c r="BQ88" s="8"/>
+      <c r="BR88" s="8"/>
+      <c r="BS88" s="8"/>
+    </row>
+    <row r="89" spans="1:71">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="9"/>
+      <c r="AC89" s="9"/>
+      <c r="AD89" s="9"/>
+      <c r="AE89" s="9"/>
+      <c r="AF89" s="9"/>
+      <c r="AG89" s="9"/>
+      <c r="AH89" s="9"/>
+      <c r="AI89" s="9"/>
+      <c r="AJ89" s="9"/>
+      <c r="AK89" s="9"/>
+      <c r="AL89" s="9"/>
+      <c r="AM89" s="9"/>
+      <c r="AN89" s="9"/>
+      <c r="AO89" s="9"/>
+      <c r="AP89" s="9"/>
+      <c r="AQ89" s="9"/>
+      <c r="AR89" s="9"/>
+      <c r="AS89" s="9"/>
+      <c r="AT89" s="9"/>
+      <c r="AU89" s="9"/>
+      <c r="AV89" s="9"/>
+      <c r="AW89" s="9"/>
+      <c r="AX89" s="9"/>
+      <c r="AY89" s="9"/>
+      <c r="AZ89" s="9"/>
+      <c r="BA89" s="9"/>
+      <c r="BB89" s="9"/>
+      <c r="BC89" s="9"/>
+      <c r="BD89" s="9"/>
+      <c r="BE89" s="9"/>
+      <c r="BF89" s="9"/>
+      <c r="BG89" s="9"/>
+    </row>
+    <row r="97" spans="63:68">
+      <c r="BL97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="63:68">
+      <c r="BK98" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL98" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="63:68">
+      <c r="BK99" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>260.33273061046685</v>
+      </c>
+      <c r="BM99">
+        <v>3.6551479434999998</v>
+      </c>
+      <c r="BO99">
+        <v>266.48080051621997</v>
+      </c>
+      <c r="BP99">
+        <f>BO99*0.018-1.0432</f>
+        <v>3.7534544092919591</v>
+      </c>
+    </row>
+    <row r="100" spans="63:68">
+      <c r="BK100" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL100">
+        <v>92.02282837709231</v>
+      </c>
+      <c r="BM100">
+        <v>0.5634180858333333</v>
+      </c>
+      <c r="BO100">
+        <v>71.493343392241286</v>
+      </c>
+      <c r="BP100">
+        <f t="shared" ref="BP100:BP103" si="24">BO100*0.018-1.0432</f>
+        <v>0.24368018106034306</v>
+      </c>
+    </row>
+    <row r="101" spans="63:68">
+      <c r="BK101" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL101">
+        <v>87.016809968022883</v>
+      </c>
+      <c r="BM101">
+        <v>0.48500275349999994</v>
+      </c>
+      <c r="BO101">
+        <v>72.626107334051383</v>
+      </c>
+      <c r="BP101">
+        <f t="shared" si="24"/>
+        <v>0.26406993201292495</v>
+      </c>
+    </row>
+    <row r="102" spans="63:68">
+      <c r="BK102" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL102">
+        <v>76.280069946700849</v>
+      </c>
+      <c r="BM102">
+        <v>0.32400743283333333</v>
+      </c>
+      <c r="BO102">
+        <v>63.612485621052606</v>
+      </c>
+      <c r="BP102">
+        <f t="shared" si="24"/>
+        <v>0.10182474117894702</v>
+      </c>
+    </row>
+    <row r="103" spans="63:68">
+      <c r="BK103" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL103">
+        <v>65.554548462709462</v>
+      </c>
+      <c r="BM103">
+        <v>0.22029391380000002</v>
+      </c>
+      <c r="BO103">
+        <v>57.302363010918818</v>
+      </c>
+      <c r="BP103">
+        <f t="shared" si="24"/>
+        <v>-1.1757465803461375E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="63:68">
+      <c r="BK105" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL105" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="63:68">
+      <c r="BK106" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL106" s="4">
+        <v>74.426182120000007</v>
+      </c>
+      <c r="BM106">
+        <v>0.45526430816666669</v>
+      </c>
+      <c r="BO106">
+        <v>48.202060703977651</v>
+      </c>
+      <c r="BP106">
+        <f>BO106*0.013-0.6995</f>
+        <v>-7.287321084829057E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="63:68">
+      <c r="BK107" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL107">
+        <v>95.347874678333326</v>
+      </c>
+      <c r="BM107">
+        <v>0.57219364716666665</v>
+      </c>
+      <c r="BO107">
+        <v>74.208596095121223</v>
+      </c>
+      <c r="BP107">
+        <f t="shared" ref="BP107:BP110" si="25">BO107*0.013-0.6995</f>
+        <v>0.26521174923657587</v>
+      </c>
+    </row>
+    <row r="108" spans="63:68">
+      <c r="BK108" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL108">
+        <v>90.504866015000005</v>
+      </c>
+      <c r="BM108">
+        <v>0.51648285150000006</v>
+      </c>
+      <c r="BO108">
+        <v>70.712062505562912</v>
+      </c>
+      <c r="BP108">
+        <f t="shared" si="25"/>
+        <v>0.21975681257231783</v>
+      </c>
+    </row>
+    <row r="109" spans="63:68">
+      <c r="BK109" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL109">
+        <v>80.784310539999993</v>
+      </c>
+      <c r="BM109">
+        <v>0.36640090600000003</v>
+      </c>
+      <c r="BO109">
+        <v>63.180655873432045</v>
+      </c>
+      <c r="BP109">
+        <f t="shared" si="25"/>
+        <v>0.12184852635461652</v>
+      </c>
+    </row>
+    <row r="110" spans="63:68">
+      <c r="BK110" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL110">
+        <v>67.794624978000002</v>
+      </c>
+      <c r="BM110">
+        <v>0.21038559979999999</v>
+      </c>
+      <c r="BO110">
+        <v>53.146133306819422</v>
+      </c>
+      <c r="BP110">
+        <f t="shared" si="25"/>
+        <v>-8.6002670113475288E-3</v>
       </c>
     </row>
   </sheetData>
